--- a/artifact/script/ws-01.xlsx
+++ b/artifact/script/ws-01.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10206"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexiality/tutorials/artifact/script/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/ep/sentry/tutorial-workspace/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10940" windowWidth="51200" windowHeight="20960" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="20460" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <definedName name="ws">'#system'!$T$2:$T$16</definedName>
     <definedName name="xml">'#system'!$U$2:$U$11</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1361,6 +1361,15 @@
     </r>
   </si>
   <si>
+    <t>validate(var,profile,inputFile)</t>
+  </si>
+  <si>
+    <t>assertTextNotPresent(text)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,lower,upper)</t>
+  </si>
+  <si>
     <r>
       <t>Ping=</t>
     </r>
@@ -1381,17 +1390,8 @@
         <rFont val="Consolas"/>
         <family val="2"/>
       </rPr>
-      <t>&amp;Pong=${USERNAME}</t>
+      <t>&amp;Pong=${USER}</t>
     </r>
-  </si>
-  <si>
-    <t>validate(var,profile,inputFile)</t>
-  </si>
-  <si>
-    <t>assertTextNotPresent(text)</t>
-  </si>
-  <si>
-    <t>assertBetween(num,lower,upper)</t>
   </si>
 </sst>
 </file>
@@ -2159,7 +2159,7 @@
         <v>201</v>
       </c>
       <c r="M2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="N2" t="s">
         <v>258</v>
@@ -2752,7 +2752,7 @@
         <v>93</v>
       </c>
       <c r="I18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Q18" t="s">
         <v>109</v>
@@ -2964,7 +2964,7 @@
         <v>313</v>
       </c>
       <c r="Q37" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="38" spans="5:17" x14ac:dyDescent="0.2">
@@ -3493,9 +3493,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O997"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+    <sheetView zoomScale="178" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3547,7 +3547,7 @@
       <c r="N1" s="35"/>
       <c r="O1" s="36"/>
     </row>
-    <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>50</v>
       </c>
@@ -3646,7 +3646,7 @@
       <c r="E5" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="22" t="s">
         <v>401</v>
       </c>
       <c r="G5" s="7" t="s">
@@ -14936,9 +14936,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63896A7-2B02-3446-A2D2-AAAF943EAD52}">
   <dimension ref="A1:O998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2:O2"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15117,7 +15117,7 @@
         <v>407</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>402</v>

--- a/artifact/script/ws-01.xlsx
+++ b/artifact/script/ws-01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="20460" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="20460" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -22,7 +22,7 @@
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$91</definedName>
+    <definedName name="desktop">'#system'!$E$2:$E$90</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
@@ -36,14 +36,15 @@
     <definedName name="number">'#system'!$M$2:$M$14</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$6</definedName>
-    <definedName name="ssh">'#system'!$P$2:$P$9</definedName>
-    <definedName name="target">'#system'!$A$2:$A$22</definedName>
-    <definedName name="web">'#system'!$R$2:$R$108</definedName>
-    <definedName name="webalert">'#system'!$S$2:$S$6</definedName>
-    <definedName name="webcookie">'#system'!$T$2:$T$8</definedName>
-    <definedName name="ws">'#system'!$U$2:$U$16</definedName>
-    <definedName name="xml">'#system'!$V$2:$V$11</definedName>
-    <definedName name="step">'#system'!$Q$2:$Q$4</definedName>
+    <definedName name="ssh">'#system'!$Q$2:$Q$9</definedName>
+    <definedName name="target">'#system'!$A$2:$A$23</definedName>
+    <definedName name="web">'#system'!$S$2:$S$108</definedName>
+    <definedName name="webalert">'#system'!$T$2:$T$6</definedName>
+    <definedName name="webcookie">'#system'!$U$2:$U$8</definedName>
+    <definedName name="ws">'#system'!$V$2:$V$16</definedName>
+    <definedName name="xml">'#system'!$W$2:$W$11</definedName>
+    <definedName name="step">'#system'!$R$2:$R$4</definedName>
+    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="433">
   <si>
     <t>jira</t>
   </si>
@@ -1412,13 +1413,46 @@
   <si>
     <t>validate(prompt,responses,passResponses)</t>
   </si>
+  <si>
+    <t>redis</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow)</t>
+  </si>
+  <si>
+    <t>append(profile,key,value)</t>
+  </si>
+  <si>
+    <t>assertKeyExists(profile,key)</t>
+  </si>
+  <si>
+    <t>delete(profile,key)</t>
+  </si>
+  <si>
+    <t>flushAll(profile)</t>
+  </si>
+  <si>
+    <t>flushDb(profile)</t>
+  </si>
+  <si>
+    <t>rename(profile,current,new)</t>
+  </si>
+  <si>
+    <t>set(profile,key,value)</t>
+  </si>
+  <si>
+    <t>store(var,profile,key)</t>
+  </si>
+  <si>
+    <t>storeKeys(var,profile,keyPattern)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1586,8 +1620,84 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1725,8 +1835,127 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1958,6 +2187,200 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -1965,7 +2388,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="63">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2102,40 +2525,76 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="13" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="9" fontId="15" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="12" fontId="17" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="15" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2490,9 +2949,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W108"/>
+  <dimension ref="A1:X108"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -2548,24 +3007,27 @@
         <v>56</v>
       </c>
       <c r="P1" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q1" t="s">
         <v>364</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>418</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>57</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>58</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>59</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>60</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>232</v>
       </c>
     </row>
@@ -2616,24 +3078,27 @@
         <v>222</v>
       </c>
       <c r="P2" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q2" t="s">
         <v>388</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>419</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>100</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>175</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>180</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>187</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>233</v>
       </c>
     </row>
@@ -2681,24 +3146,27 @@
         <v>223</v>
       </c>
       <c r="P3" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q3" t="s">
         <v>389</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>420</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>101</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>176</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>181</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>371</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>234</v>
       </c>
     </row>
@@ -2743,24 +3211,27 @@
         <v>224</v>
       </c>
       <c r="P4" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q4" t="s">
         <v>365</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>421</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>359</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>177</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>182</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>188</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2799,21 +3270,24 @@
         <v>225</v>
       </c>
       <c r="P5" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q5" t="s">
         <v>366</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>360</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>178</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>183</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>189</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2849,21 +3323,24 @@
         <v>398</v>
       </c>
       <c r="P6" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q6" t="s">
         <v>368</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>102</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>179</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>184</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>190</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>237</v>
       </c>
     </row>
@@ -2896,18 +3373,21 @@
         <v>249</v>
       </c>
       <c r="P7" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q7" t="s">
         <v>367</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>103</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>185</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>191</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>238</v>
       </c>
     </row>
@@ -2940,18 +3420,21 @@
         <v>250</v>
       </c>
       <c r="P8" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q8" t="s">
         <v>369</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>104</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>186</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>192</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>239</v>
       </c>
     </row>
@@ -2981,15 +3464,18 @@
         <v>251</v>
       </c>
       <c r="P9" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q9" t="s">
         <v>370</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>214</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>193</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3015,13 +3501,16 @@
       <c r="N10" t="s">
         <v>252</v>
       </c>
-      <c r="R10" t="s">
+      <c r="P10" t="s">
+        <v>432</v>
+      </c>
+      <c r="S10" t="s">
         <v>262</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>194</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3047,13 +3536,13 @@
       <c r="N11" t="s">
         <v>253</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>263</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>264</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3076,10 +3565,10 @@
       <c r="N12" t="s">
         <v>254</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>105</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3102,10 +3591,10 @@
       <c r="N13" t="s">
         <v>259</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>331</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3128,10 +3617,10 @@
       <c r="N14" t="s">
         <v>255</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>106</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3151,16 +3640,16 @@
       <c r="N15" t="s">
         <v>256</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>107</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>364</v>
+        <v>422</v>
       </c>
       <c r="C16" t="s">
         <v>63</v>
@@ -3174,16 +3663,16 @@
       <c r="N16" t="s">
         <v>257</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>78</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>418</v>
+        <v>364</v>
       </c>
       <c r="C17" t="s">
         <v>64</v>
@@ -3194,13 +3683,13 @@
       <c r="I17" t="s">
         <v>46</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>418</v>
       </c>
       <c r="C18" t="s">
         <v>261</v>
@@ -3211,13 +3700,13 @@
       <c r="I18" t="s">
         <v>412</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
         <v>65</v>
@@ -3228,13 +3717,13 @@
       <c r="I19" t="s">
         <v>88</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
         <v>326</v>
@@ -3245,13 +3734,13 @@
       <c r="I20" t="s">
         <v>47</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
         <v>66</v>
@@ -3262,13 +3751,13 @@
       <c r="I21" t="s">
         <v>48</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>232</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
         <v>230</v>
@@ -3276,18 +3765,21 @@
       <c r="E22" t="s">
         <v>304</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="s">
+        <v>232</v>
+      </c>
       <c r="C23" t="s">
         <v>231</v>
       </c>
       <c r="E23" t="s">
         <v>295</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3298,7 +3790,7 @@
       <c r="E24" t="s">
         <v>284</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3309,7 +3801,7 @@
       <c r="E25" t="s">
         <v>79</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3320,7 +3812,7 @@
       <c r="E26" t="s">
         <v>287</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3331,7 +3823,7 @@
       <c r="E27" t="s">
         <v>271</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>332</v>
       </c>
     </row>
@@ -3342,7 +3834,7 @@
       <c r="E28" t="s">
         <v>288</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3353,7 +3845,7 @@
       <c r="E29" t="s">
         <v>289</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3364,7 +3856,7 @@
       <c r="E30" t="s">
         <v>221</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3375,7 +3867,7 @@
       <c r="E31" t="s">
         <v>280</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3383,7 +3875,7 @@
       <c r="E32" t="s">
         <v>290</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3391,7 +3883,7 @@
       <c r="E33" t="s">
         <v>265</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3399,7 +3891,7 @@
       <c r="E34" t="s">
         <v>335</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3407,7 +3899,7 @@
       <c r="E35" t="s">
         <v>312</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3415,7 +3907,7 @@
       <c r="E36" t="s">
         <v>266</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
         <v>343</v>
       </c>
     </row>
@@ -3423,7 +3915,7 @@
       <c r="E37" t="s">
         <v>313</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>413</v>
       </c>
     </row>
@@ -3431,7 +3923,7 @@
       <c r="E38" t="s">
         <v>272</v>
       </c>
-      <c r="R38" t="s">
+      <c r="S38" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3439,7 +3931,7 @@
       <c r="E39" t="s">
         <v>81</v>
       </c>
-      <c r="R39" t="s">
+      <c r="S39" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3447,7 +3939,7 @@
       <c r="E40" t="s">
         <v>217</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3455,7 +3947,7 @@
       <c r="E41" t="s">
         <v>294</v>
       </c>
-      <c r="R41" t="s">
+      <c r="S41" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3463,7 +3955,7 @@
       <c r="E42" t="s">
         <v>305</v>
       </c>
-      <c r="R42" t="s">
+      <c r="S42" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3471,7 +3963,7 @@
       <c r="E43" t="s">
         <v>306</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3479,7 +3971,7 @@
       <c r="E44" t="s">
         <v>348</v>
       </c>
-      <c r="R44" t="s">
+      <c r="S44" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3487,7 +3979,7 @@
       <c r="E45" t="s">
         <v>347</v>
       </c>
-      <c r="R45" t="s">
+      <c r="S45" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3495,7 +3987,7 @@
       <c r="E46" t="s">
         <v>216</v>
       </c>
-      <c r="R46" t="s">
+      <c r="S46" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3503,7 +3995,7 @@
       <c r="E47" t="s">
         <v>325</v>
       </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3511,7 +4003,7 @@
       <c r="E48" t="s">
         <v>344</v>
       </c>
-      <c r="R48" t="s">
+      <c r="S48" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3519,7 +4011,7 @@
       <c r="E49" t="s">
         <v>375</v>
       </c>
-      <c r="R49" t="s">
+      <c r="S49" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3527,7 +4019,7 @@
       <c r="E50" t="s">
         <v>307</v>
       </c>
-      <c r="R50" t="s">
+      <c r="S50" t="s">
         <v>351</v>
       </c>
     </row>
@@ -3535,412 +4027,409 @@
       <c r="E51" t="s">
         <v>361</v>
       </c>
-      <c r="R51" t="s">
+      <c r="S51" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>362</v>
-      </c>
-      <c r="R52" t="s">
+        <v>336</v>
+      </c>
+      <c r="S52" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>363</v>
-      </c>
-      <c r="R53" t="s">
+        <v>273</v>
+      </c>
+      <c r="S53" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>336</v>
-      </c>
-      <c r="R54" t="s">
+        <v>297</v>
+      </c>
+      <c r="S54" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>273</v>
-      </c>
-      <c r="R55" t="s">
+        <v>298</v>
+      </c>
+      <c r="S55" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>297</v>
-      </c>
-      <c r="R56" t="s">
+        <v>299</v>
+      </c>
+      <c r="S56" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>298</v>
-      </c>
-      <c r="R57" t="s">
+        <v>308</v>
+      </c>
+      <c r="S57" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>299</v>
-      </c>
-      <c r="R58" t="s">
+        <v>317</v>
+      </c>
+      <c r="S58" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>308</v>
-      </c>
-      <c r="R59" t="s">
+        <v>342</v>
+      </c>
+      <c r="S59" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>317</v>
-      </c>
-      <c r="R60" t="s">
+        <v>314</v>
+      </c>
+      <c r="S60" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>342</v>
-      </c>
-      <c r="R61" t="s">
+        <v>315</v>
+      </c>
+      <c r="S61" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>314</v>
-      </c>
-      <c r="R62" t="s">
+        <v>376</v>
+      </c>
+      <c r="S62" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>315</v>
-      </c>
-      <c r="R63" t="s">
+        <v>377</v>
+      </c>
+      <c r="S63" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>376</v>
-      </c>
-      <c r="R64" t="s">
+        <v>350</v>
+      </c>
+      <c r="S64" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>377</v>
-      </c>
-      <c r="R65" t="s">
+        <v>318</v>
+      </c>
+      <c r="S65" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>350</v>
-      </c>
-      <c r="R66" t="s">
+        <v>274</v>
+      </c>
+      <c r="S66" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>318</v>
-      </c>
-      <c r="R67" t="s">
+        <v>358</v>
+      </c>
+      <c r="S67" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>274</v>
-      </c>
-      <c r="R68" t="s">
+        <v>319</v>
+      </c>
+      <c r="S68" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>358</v>
-      </c>
-      <c r="R69" t="s">
+        <v>309</v>
+      </c>
+      <c r="S69" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>319</v>
-      </c>
-      <c r="R70" t="s">
+        <v>423</v>
+      </c>
+      <c r="S70" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>309</v>
-      </c>
-      <c r="R71" t="s">
+        <v>267</v>
+      </c>
+      <c r="S71" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>267</v>
-      </c>
-      <c r="R72" t="s">
+        <v>349</v>
+      </c>
+      <c r="S72" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>349</v>
-      </c>
-      <c r="R73" t="s">
+        <v>285</v>
+      </c>
+      <c r="S73" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>285</v>
-      </c>
-      <c r="R74" t="s">
+        <v>291</v>
+      </c>
+      <c r="S74" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>291</v>
-      </c>
-      <c r="R75" t="s">
+        <v>296</v>
+      </c>
+      <c r="S75" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>296</v>
-      </c>
-      <c r="R76" t="s">
+        <v>337</v>
+      </c>
+      <c r="S76" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>337</v>
-      </c>
-      <c r="R77" t="s">
+        <v>275</v>
+      </c>
+      <c r="S77" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>275</v>
-      </c>
-      <c r="R78" t="s">
+        <v>286</v>
+      </c>
+      <c r="S78" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>286</v>
-      </c>
-      <c r="R79" t="s">
+        <v>292</v>
+      </c>
+      <c r="S79" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>292</v>
-      </c>
-      <c r="R80" t="s">
+        <v>281</v>
+      </c>
+      <c r="S80" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>281</v>
-      </c>
-      <c r="R81" t="s">
+        <v>276</v>
+      </c>
+      <c r="S81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>276</v>
-      </c>
-      <c r="R82" t="s">
+        <v>293</v>
+      </c>
+      <c r="S82" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>293</v>
-      </c>
-      <c r="R83" t="s">
+        <v>277</v>
+      </c>
+      <c r="S83" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>277</v>
-      </c>
-      <c r="R84" t="s">
+        <v>278</v>
+      </c>
+      <c r="S84" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>278</v>
-      </c>
-      <c r="R85" t="s">
+        <v>310</v>
+      </c>
+      <c r="S85" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>310</v>
-      </c>
-      <c r="R86" t="s">
+        <v>316</v>
+      </c>
+      <c r="S86" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>316</v>
-      </c>
-      <c r="R87" t="s">
+        <v>300</v>
+      </c>
+      <c r="S87" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>300</v>
-      </c>
-      <c r="R88" t="s">
+        <v>345</v>
+      </c>
+      <c r="S88" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>345</v>
-      </c>
-      <c r="R89" t="s">
+        <v>282</v>
+      </c>
+      <c r="S89" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>282</v>
-      </c>
-      <c r="R90" t="s">
+        <v>283</v>
+      </c>
+      <c r="S90" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="91">
-      <c r="E91" t="s">
-        <v>283</v>
-      </c>
-      <c r="R91" t="s">
+      <c r="S91" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="92">
-      <c r="R92" t="s">
+      <c r="S92" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="93">
-      <c r="R93" t="s">
+      <c r="S93" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="94">
-      <c r="R94" t="s">
+      <c r="S94" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="95">
-      <c r="R95" t="s">
+      <c r="S95" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="96">
-      <c r="R96" t="s">
+      <c r="S96" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="97">
-      <c r="R97" t="s">
+      <c r="S97" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="98">
-      <c r="R98" t="s">
+      <c r="S98" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="99">
-      <c r="R99" t="s">
+      <c r="S99" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="100">
-      <c r="R100" t="s">
+      <c r="S100" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="101">
-      <c r="R101" t="s">
+      <c r="S101" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="102">
-      <c r="R102" t="s">
+      <c r="S102" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="103">
-      <c r="R103" t="s">
+      <c r="S103" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="104">
-      <c r="R104" t="s">
+      <c r="S104" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="105">
-      <c r="R105" t="s">
+      <c r="S105" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="106">
-      <c r="R106" t="s">
+      <c r="S106" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="107">
-      <c r="R107" t="s">
+      <c r="S107" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="108">
-      <c r="R108" t="s">
+      <c r="S108" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3953,7 +4442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P997"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="true">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>

--- a/artifact/script/ws-01.xlsx
+++ b/artifact/script/ws-01.xlsx
@@ -18,11 +18,11 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$31</definedName>
+    <definedName name="base">'#system'!$C$2:$C$32</definedName>
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$90</definedName>
+    <definedName name="desktop">'#system'!$E$2:$E$91</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
@@ -35,16 +35,17 @@
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$M$2:$M$14</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$6</definedName>
-    <definedName name="ssh">'#system'!$Q$2:$Q$9</definedName>
-    <definedName name="target">'#system'!$A$2:$A$23</definedName>
-    <definedName name="web">'#system'!$S$2:$S$108</definedName>
-    <definedName name="webalert">'#system'!$T$2:$T$6</definedName>
-    <definedName name="webcookie">'#system'!$U$2:$U$8</definedName>
-    <definedName name="ws">'#system'!$V$2:$V$16</definedName>
-    <definedName name="xml">'#system'!$W$2:$W$11</definedName>
-    <definedName name="step">'#system'!$R$2:$R$4</definedName>
+    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
+    <definedName name="ssh">'#system'!$R$2:$R$9</definedName>
+    <definedName name="target">'#system'!$A$2:$A$24</definedName>
+    <definedName name="web">'#system'!$T$2:$T$108</definedName>
+    <definedName name="webalert">'#system'!$U$2:$U$6</definedName>
+    <definedName name="webcookie">'#system'!$V$2:$V$8</definedName>
+    <definedName name="ws">'#system'!$W$2:$W$16</definedName>
+    <definedName name="xml">'#system'!$X$2:$X$11</definedName>
+    <definedName name="step">'#system'!$S$2:$S$4</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
+    <definedName name="sound">'#system'!$Q$2:$Q$3</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="441">
   <si>
     <t>jira</t>
   </si>
@@ -1446,13 +1447,37 @@
   <si>
     <t>storeKeys(var,profile,keyPattern)</t>
   </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>clear(vars)</t>
+  </si>
+  <si>
+    <t>saveRowCount(var)</t>
+  </si>
+  <si>
+    <t>send(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,min,max)</t>
+  </si>
+  <si>
+    <t>saveResults(db,sqls,outputDir)</t>
+  </si>
+  <si>
+    <t>lazer(repeats)</t>
+  </si>
+  <si>
+    <t>warp(repeats)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1696,8 +1721,84 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="46">
+  <fills count="67">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1954,8 +2055,127 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="43">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -2381,6 +2601,200 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2388,7 +2802,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="75">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2561,40 +2975,76 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="27" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="33" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="36" fontId="30" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="39" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="39" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="48" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="54" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="57" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="60" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="60" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="66" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2949,7 +3399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X108"/>
+  <dimension ref="A1:Y108"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -3010,24 +3460,27 @@
         <v>422</v>
       </c>
       <c r="Q1" t="s">
+        <v>433</v>
+      </c>
+      <c r="R1" t="s">
         <v>364</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>418</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>57</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>58</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>59</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>60</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3066,10 +3519,10 @@
         <v>89</v>
       </c>
       <c r="L2" t="s">
-        <v>201</v>
+        <v>436</v>
       </c>
       <c r="M2" t="s">
-        <v>414</v>
+        <v>437</v>
       </c>
       <c r="N2" t="s">
         <v>258</v>
@@ -3081,24 +3534,27 @@
         <v>424</v>
       </c>
       <c r="Q2" t="s">
+        <v>439</v>
+      </c>
+      <c r="R2" t="s">
         <v>388</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>419</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>100</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>175</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>180</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>187</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3149,24 +3605,27 @@
         <v>425</v>
       </c>
       <c r="Q3" t="s">
+        <v>440</v>
+      </c>
+      <c r="R3" t="s">
         <v>389</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>420</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>101</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>176</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>181</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>371</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>234</v>
       </c>
     </row>
@@ -3213,25 +3672,25 @@
       <c r="P4" t="s">
         <v>426</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>365</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>421</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>359</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>177</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>182</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>188</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3272,22 +3731,22 @@
       <c r="P5" t="s">
         <v>427</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>366</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>360</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>178</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>183</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>189</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3325,22 +3784,22 @@
       <c r="P6" t="s">
         <v>428</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>368</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>102</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>179</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>184</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>190</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3372,22 +3831,25 @@
       <c r="N7" t="s">
         <v>249</v>
       </c>
+      <c r="O7" t="s">
+        <v>438</v>
+      </c>
       <c r="P7" t="s">
         <v>429</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>367</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>103</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>185</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>191</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>238</v>
       </c>
     </row>
@@ -3422,19 +3884,19 @@
       <c r="P8" t="s">
         <v>430</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>369</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>104</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>186</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>192</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3466,16 +3928,16 @@
       <c r="P9" t="s">
         <v>431</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>370</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>214</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>193</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3504,13 +3966,13 @@
       <c r="P10" t="s">
         <v>432</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>262</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>194</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3536,13 +3998,13 @@
       <c r="N11" t="s">
         <v>253</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>263</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>264</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3565,10 +4027,10 @@
       <c r="N12" t="s">
         <v>254</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>105</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3591,10 +4053,10 @@
       <c r="N13" t="s">
         <v>259</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>331</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3617,10 +4079,10 @@
       <c r="N14" t="s">
         <v>255</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>106</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3640,10 +4102,10 @@
       <c r="N15" t="s">
         <v>256</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>107</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3652,7 +4114,7 @@
         <v>422</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>434</v>
       </c>
       <c r="E16" t="s">
         <v>322</v>
@@ -3663,19 +4125,19 @@
       <c r="N16" t="s">
         <v>257</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>78</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>364</v>
+        <v>433</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
         <v>92</v>
@@ -3683,16 +4145,16 @@
       <c r="I17" t="s">
         <v>46</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>418</v>
+        <v>364</v>
       </c>
       <c r="C18" t="s">
-        <v>261</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
         <v>93</v>
@@ -3700,16 +4162,16 @@
       <c r="I18" t="s">
         <v>412</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>418</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>261</v>
       </c>
       <c r="E19" t="s">
         <v>301</v>
@@ -3717,16 +4179,16 @@
       <c r="I19" t="s">
         <v>88</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>326</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
         <v>302</v>
@@ -3734,16 +4196,16 @@
       <c r="I20" t="s">
         <v>47</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>326</v>
       </c>
       <c r="E21" t="s">
         <v>303</v>
@@ -3751,131 +4213,137 @@
       <c r="I21" t="s">
         <v>48</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>230</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
         <v>304</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>232</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E23" t="s">
         <v>295</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="s">
+        <v>232</v>
+      </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>231</v>
       </c>
       <c r="E24" t="s">
         <v>284</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="25">
       <c r="C25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
         <v>79</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="26">
       <c r="C26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
         <v>287</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
         <v>271</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" t="s">
         <v>288</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s">
         <v>289</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" t="s">
         <v>221</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" t="s">
         <v>280</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="32">
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
       <c r="E32" t="s">
         <v>290</v>
       </c>
-      <c r="S32" t="s">
+      <c r="T32" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3883,7 +4351,7 @@
       <c r="E33" t="s">
         <v>265</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3891,7 +4359,7 @@
       <c r="E34" t="s">
         <v>335</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3899,7 +4367,7 @@
       <c r="E35" t="s">
         <v>312</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3907,7 +4375,7 @@
       <c r="E36" t="s">
         <v>266</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
         <v>343</v>
       </c>
     </row>
@@ -3915,7 +4383,7 @@
       <c r="E37" t="s">
         <v>313</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>413</v>
       </c>
     </row>
@@ -3923,7 +4391,7 @@
       <c r="E38" t="s">
         <v>272</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3931,7 +4399,7 @@
       <c r="E39" t="s">
         <v>81</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3939,7 +4407,7 @@
       <c r="E40" t="s">
         <v>217</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3947,7 +4415,7 @@
       <c r="E41" t="s">
         <v>294</v>
       </c>
-      <c r="S41" t="s">
+      <c r="T41" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3955,7 +4423,7 @@
       <c r="E42" t="s">
         <v>305</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3963,7 +4431,7 @@
       <c r="E43" t="s">
         <v>306</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3971,7 +4439,7 @@
       <c r="E44" t="s">
         <v>348</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3979,7 +4447,7 @@
       <c r="E45" t="s">
         <v>347</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3987,7 +4455,7 @@
       <c r="E46" t="s">
         <v>216</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3995,7 +4463,7 @@
       <c r="E47" t="s">
         <v>325</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4003,7 +4471,7 @@
       <c r="E48" t="s">
         <v>344</v>
       </c>
-      <c r="S48" t="s">
+      <c r="T48" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4011,7 +4479,7 @@
       <c r="E49" t="s">
         <v>375</v>
       </c>
-      <c r="S49" t="s">
+      <c r="T49" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4019,7 +4487,7 @@
       <c r="E50" t="s">
         <v>307</v>
       </c>
-      <c r="S50" t="s">
+      <c r="T50" t="s">
         <v>351</v>
       </c>
     </row>
@@ -4027,7 +4495,7 @@
       <c r="E51" t="s">
         <v>361</v>
       </c>
-      <c r="S51" t="s">
+      <c r="T51" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4035,7 +4503,7 @@
       <c r="E52" t="s">
         <v>336</v>
       </c>
-      <c r="S52" t="s">
+      <c r="T52" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4043,7 +4511,7 @@
       <c r="E53" t="s">
         <v>273</v>
       </c>
-      <c r="S53" t="s">
+      <c r="T53" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4051,7 +4519,7 @@
       <c r="E54" t="s">
         <v>297</v>
       </c>
-      <c r="S54" t="s">
+      <c r="T54" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4059,7 +4527,7 @@
       <c r="E55" t="s">
         <v>298</v>
       </c>
-      <c r="S55" t="s">
+      <c r="T55" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4067,7 +4535,7 @@
       <c r="E56" t="s">
         <v>299</v>
       </c>
-      <c r="S56" t="s">
+      <c r="T56" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4075,7 +4543,7 @@
       <c r="E57" t="s">
         <v>308</v>
       </c>
-      <c r="S57" t="s">
+      <c r="T57" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4083,7 +4551,7 @@
       <c r="E58" t="s">
         <v>317</v>
       </c>
-      <c r="S58" t="s">
+      <c r="T58" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4091,7 +4559,7 @@
       <c r="E59" t="s">
         <v>342</v>
       </c>
-      <c r="S59" t="s">
+      <c r="T59" t="s">
         <v>396</v>
       </c>
     </row>
@@ -4099,7 +4567,7 @@
       <c r="E60" t="s">
         <v>314</v>
       </c>
-      <c r="S60" t="s">
+      <c r="T60" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4107,7 +4575,7 @@
       <c r="E61" t="s">
         <v>315</v>
       </c>
-      <c r="S61" t="s">
+      <c r="T61" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4115,7 +4583,7 @@
       <c r="E62" t="s">
         <v>376</v>
       </c>
-      <c r="S62" t="s">
+      <c r="T62" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4123,7 +4591,7 @@
       <c r="E63" t="s">
         <v>377</v>
       </c>
-      <c r="S63" t="s">
+      <c r="T63" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4131,7 +4599,7 @@
       <c r="E64" t="s">
         <v>350</v>
       </c>
-      <c r="S64" t="s">
+      <c r="T64" t="s">
         <v>202</v>
       </c>
     </row>
@@ -4139,7 +4607,7 @@
       <c r="E65" t="s">
         <v>318</v>
       </c>
-      <c r="S65" t="s">
+      <c r="T65" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4147,7 +4615,7 @@
       <c r="E66" t="s">
         <v>274</v>
       </c>
-      <c r="S66" t="s">
+      <c r="T66" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4155,7 +4623,7 @@
       <c r="E67" t="s">
         <v>358</v>
       </c>
-      <c r="S67" t="s">
+      <c r="T67" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4163,273 +4631,276 @@
       <c r="E68" t="s">
         <v>319</v>
       </c>
-      <c r="S68" t="s">
+      <c r="T68" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>309</v>
-      </c>
-      <c r="S69" t="s">
+        <v>435</v>
+      </c>
+      <c r="T69" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>423</v>
-      </c>
-      <c r="S70" t="s">
+        <v>309</v>
+      </c>
+      <c r="T70" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>267</v>
-      </c>
-      <c r="S71" t="s">
+        <v>423</v>
+      </c>
+      <c r="T71" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>349</v>
-      </c>
-      <c r="S72" t="s">
+        <v>267</v>
+      </c>
+      <c r="T72" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>285</v>
-      </c>
-      <c r="S73" t="s">
+        <v>349</v>
+      </c>
+      <c r="T73" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>291</v>
-      </c>
-      <c r="S74" t="s">
+        <v>285</v>
+      </c>
+      <c r="T74" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>296</v>
-      </c>
-      <c r="S75" t="s">
+        <v>291</v>
+      </c>
+      <c r="T75" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>337</v>
-      </c>
-      <c r="S76" t="s">
+        <v>296</v>
+      </c>
+      <c r="T76" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>275</v>
-      </c>
-      <c r="S77" t="s">
+        <v>337</v>
+      </c>
+      <c r="T77" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>286</v>
-      </c>
-      <c r="S78" t="s">
+        <v>275</v>
+      </c>
+      <c r="T78" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>292</v>
-      </c>
-      <c r="S79" t="s">
+        <v>286</v>
+      </c>
+      <c r="T79" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>281</v>
-      </c>
-      <c r="S80" t="s">
+        <v>292</v>
+      </c>
+      <c r="T80" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>276</v>
-      </c>
-      <c r="S81" t="s">
+        <v>281</v>
+      </c>
+      <c r="T81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>293</v>
-      </c>
-      <c r="S82" t="s">
+        <v>276</v>
+      </c>
+      <c r="T82" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>277</v>
-      </c>
-      <c r="S83" t="s">
+        <v>293</v>
+      </c>
+      <c r="T83" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>278</v>
-      </c>
-      <c r="S84" t="s">
+        <v>277</v>
+      </c>
+      <c r="T84" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>310</v>
-      </c>
-      <c r="S85" t="s">
+        <v>278</v>
+      </c>
+      <c r="T85" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>316</v>
-      </c>
-      <c r="S86" t="s">
+        <v>310</v>
+      </c>
+      <c r="T86" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>300</v>
-      </c>
-      <c r="S87" t="s">
+        <v>316</v>
+      </c>
+      <c r="T87" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>345</v>
-      </c>
-      <c r="S88" t="s">
+        <v>300</v>
+      </c>
+      <c r="T88" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>282</v>
-      </c>
-      <c r="S89" t="s">
+        <v>345</v>
+      </c>
+      <c r="T89" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
+        <v>282</v>
+      </c>
+      <c r="T90" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="E91" t="s">
         <v>283</v>
       </c>
-      <c r="S90" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="S91" t="s">
+      <c r="T91" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="92">
-      <c r="S92" t="s">
+      <c r="T92" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="93">
-      <c r="S93" t="s">
+      <c r="T93" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="94">
-      <c r="S94" t="s">
+      <c r="T94" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="95">
-      <c r="S95" t="s">
+      <c r="T95" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="96">
-      <c r="S96" t="s">
+      <c r="T96" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="97">
-      <c r="S97" t="s">
+      <c r="T97" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="98">
-      <c r="S98" t="s">
+      <c r="T98" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="99">
-      <c r="S99" t="s">
+      <c r="T99" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="100">
-      <c r="S100" t="s">
+      <c r="T100" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="101">
-      <c r="S101" t="s">
+      <c r="T101" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="102">
-      <c r="S102" t="s">
+      <c r="T102" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="103">
-      <c r="S103" t="s">
+      <c r="T103" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="104">
-      <c r="S104" t="s">
+      <c r="T104" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="105">
-      <c r="S105" t="s">
+      <c r="T105" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="106">
-      <c r="S106" t="s">
+      <c r="T106" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="107">
-      <c r="S107" t="s">
+      <c r="T107" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="108">
-      <c r="S108" t="s">
+      <c r="T108" t="s">
         <v>174</v>
       </c>
     </row>

--- a/artifact/script/ws-01.xlsx
+++ b/artifact/script/ws-01.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10214"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10502"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/ep/sentry/tutorial-workspace/artifact/script/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr documentId="13_ncr:1_{18192CB3-8659-B74E-9010-4F501045E3A5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33"/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="20460" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="14100" windowWidth="38400" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-14100" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -18,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$32</definedName>
+    <definedName name="base">'#system'!$C$2:$C$33</definedName>
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -36,16 +37,16 @@
     <definedName name="number">'#system'!$M$2:$M$14</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
+    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
+    <definedName name="sound">'#system'!$Q$2:$Q$5</definedName>
     <definedName name="ssh">'#system'!$R$2:$R$9</definedName>
+    <definedName name="step">'#system'!$S$2:$S$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$24</definedName>
     <definedName name="web">'#system'!$T$2:$T$108</definedName>
     <definedName name="webalert">'#system'!$U$2:$U$6</definedName>
     <definedName name="webcookie">'#system'!$V$2:$V$8</definedName>
     <definedName name="ws">'#system'!$W$2:$W$16</definedName>
     <definedName name="xml">'#system'!$X$2:$X$11</definedName>
-    <definedName name="step">'#system'!$S$2:$S$4</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sound">'#system'!$Q$2:$Q$3</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -60,13 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="441">
-  <si>
-    <t>jira</t>
-  </si>
-  <si>
-    <t>zephyr</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="438">
   <si>
     <t>description</t>
   </si>
@@ -215,9 +210,6 @@
     <t>the description of this test scenario goes here…</t>
   </si>
   <si>
-    <t>your name</t>
-  </si>
-  <si>
     <t>clear(file,worksheet,range)</t>
   </si>
   <si>
@@ -665,9 +657,6 @@
     <t>mail</t>
   </si>
   <si>
-    <t>send(to,subject,body)</t>
-  </si>
-  <si>
     <t>open(url)</t>
   </si>
   <si>
@@ -1146,12 +1135,6 @@
   </si>
   <si>
     <t>getRowCount(var)</t>
-  </si>
-  <si>
-    <t>getTableRows(var,beginRow,endRow)</t>
-  </si>
-  <si>
-    <t>getTableRowsAll(var)</t>
   </si>
   <si>
     <t>ssh</t>
@@ -1370,9 +1353,6 @@
     <t>assertTextNotPresent(text)</t>
   </si>
   <si>
-    <t>assertBetween(num,lower,upper)</t>
-  </si>
-  <si>
     <r>
       <t>Ping=</t>
     </r>
@@ -1466,10 +1446,22 @@
     <t>saveResults(db,sqls,outputDir)</t>
   </si>
   <si>
-    <t>lazer(repeats)</t>
-  </si>
-  <si>
-    <t>warp(repeats)</t>
+    <t>laser(repeats)</t>
+  </si>
+  <si>
+    <t>play(audio)</t>
+  </si>
+  <si>
+    <t>speak(text)</t>
+  </si>
+  <si>
+    <t>speakNoWait(text)</t>
+  </si>
+  <si>
+    <t>automike</t>
+  </si>
+  <si>
+    <t>section(steps)</t>
   </si>
 </sst>
 </file>
@@ -1477,7 +1469,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1583,155 +1575,21 @@
       <u val="none"/>
     </font>
     <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
       <name val="Tahoma"/>
       <sz val="11.0"/>
       <color rgb="287389"/>
       <u val="none"/>
     </font>
     <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
       <u val="none"/>
     </font>
     <font>
       <name val="Consolas"/>
       <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
       <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
       <u val="none"/>
     </font>
     <font>
@@ -1798,7 +1656,7 @@
       <u val="none"/>
     </font>
   </fonts>
-  <fills count="67">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1836,240 +1694,36 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
+        <bgColor rgb="DCE1E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
+        <bgColor rgb="E6D7D7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
       </patternFill>
     </fill>
     <fill>
@@ -2175,7 +1829,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="63">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -2279,7 +1933,7 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin">
-        <color rgb="DCDCDC"/>
+        <color rgb="BEC8CD"/>
       </top>
       <bottom style="thin"/>
     </border>
@@ -2287,43 +1941,43 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin">
-        <color rgb="DCDCDC"/>
+        <color rgb="BEC8CD"/>
       </top>
       <bottom style="thin">
-        <color rgb="DCDCDC"/>
+        <color rgb="BEC8CD"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="DCDCDC"/>
+        <color rgb="BEC8CD"/>
       </left>
       <right style="thin"/>
       <top style="thin">
-        <color rgb="DCDCDC"/>
+        <color rgb="BEC8CD"/>
       </top>
       <bottom style="thin">
-        <color rgb="DCDCDC"/>
+        <color rgb="BEC8CD"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="DCDCDC"/>
+        <color rgb="BEC8CD"/>
       </left>
       <right style="thin">
-        <color rgb="DCDCDC"/>
+        <color rgb="BEC8CD"/>
       </right>
       <top style="thin">
-        <color rgb="DCDCDC"/>
+        <color rgb="BEC8CD"/>
       </top>
       <bottom style="thin">
-        <color rgb="DCDCDC"/>
+        <color rgb="BEC8CD"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin">
-        <color rgb="CDCDCD"/>
+        <color rgb="CDC3C3"/>
       </top>
       <bottom style="thin"/>
     </border>
@@ -2331,336 +1985,36 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin">
-        <color rgb="CDCDCD"/>
+        <color rgb="CDC3C3"/>
       </top>
       <bottom style="thin">
-        <color rgb="CDCDCD"/>
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="CDCDCD"/>
+        <color rgb="CDC3C3"/>
       </left>
       <right style="thin"/>
       <top style="thin">
-        <color rgb="CDCDCD"/>
+        <color rgb="CDC3C3"/>
       </top>
       <bottom style="thin">
-        <color rgb="CDCDCD"/>
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="CDCDCD"/>
+        <color rgb="CDC3C3"/>
       </left>
       <right style="thin">
-        <color rgb="CDCDCD"/>
+        <color rgb="CDC3C3"/>
       </right>
       <top style="thin">
-        <color rgb="CDCDCD"/>
+        <color rgb="CDC3C3"/>
       </top>
       <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -2802,7 +2156,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="54">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2939,112 +2293,49 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="13" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="9" fontId="15" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="12" fontId="17" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="15" fontId="18" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="19" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="20" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="21" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="22" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="23" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="25" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="27" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="33" fontId="29" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="36" fontId="30" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="39" fontId="31" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="39" fontId="32" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="33" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="34" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="35" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="48" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="54" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="57" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="60" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="60" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="66" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3401,7 +2692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y108"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3412,1496 +2703,1505 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>334</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" t="s">
+        <v>240</v>
+      </c>
+      <c r="O1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>426</v>
+      </c>
+      <c r="R1" t="s">
+        <v>358</v>
+      </c>
+      <c r="S1" t="s">
+        <v>411</v>
+      </c>
+      <c r="T1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
-        <v>352</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>338</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>200</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="U1" t="s">
         <v>55</v>
       </c>
-      <c r="N1" t="s">
-        <v>244</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="V1" t="s">
         <v>56</v>
       </c>
-      <c r="P1" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>433</v>
-      </c>
-      <c r="R1" t="s">
-        <v>364</v>
-      </c>
-      <c r="S1" t="s">
-        <v>418</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>57</v>
       </c>
-      <c r="U1" t="s">
-        <v>58</v>
-      </c>
-      <c r="V1" t="s">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s">
-        <v>60</v>
-      </c>
       <c r="X1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="J2" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L2" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="M2" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="N2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="O2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P2" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="Q2" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="R2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="S2" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="T2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="U2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="V2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="W2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="X2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>380</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="I3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="J3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="O3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P3" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="Q3" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="R3" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="S3" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="T3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="U3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="W3" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="X3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H4" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="I4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="K4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="O4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="P4" t="s">
-        <v>426</v>
+        <v>419</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>434</v>
       </c>
       <c r="R4" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="S4" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="T4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="U4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="V4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="W4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="X4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="O5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P5" t="s">
-        <v>427</v>
+        <v>420</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>435</v>
       </c>
       <c r="R5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="T5" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="U5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="V5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="W5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="X5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C6" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E6" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F6" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N6" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="O6" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="P6" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="R6" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="T6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="W6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="X6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="O7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="P7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="R7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="T7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="V7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="W7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="X7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B8" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C8" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E8" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="F8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N8" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P8" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="R8" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="T8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="V8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="W8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="X8" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C9" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E9" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I9" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="K9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N9" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P9" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="R9" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="T9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="W9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="X9" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C10" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E10" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N10" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P10" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="T10" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="W10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="X10" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E11" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="T11" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="W11" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="X11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="T12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="W12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N13" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="T13" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="W13" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C14" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="E14" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="N14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="T14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="W14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E15" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N15" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="T15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="W15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C16" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E16" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="I16" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="N16" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="T16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="W16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I18" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="T18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C19" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E19" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="I19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E21" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="T22" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E23" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="T23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C24" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E24" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="T24" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
       <c r="C25" t="s">
-        <v>67</v>
+        <v>437</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="T25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
       <c r="C26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="T26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="T27" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="T28" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="T29" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="T30" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="T31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="T32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
       <c r="E33" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="T33" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="T34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="T35" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="T36" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="T37" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="T38" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="T39" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="T40" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="T41" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="T42" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="T43" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="T44" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="T45" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="T46" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="T47" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="T48" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="T49" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="T50" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="T51" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="T52" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="T53" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="T54" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="T55" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="T56" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="T57" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T58" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="T59" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="T60" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="T61" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="T62" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="T63" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="T64" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="T65" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="T66" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="T67" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="T68" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="T69" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="T70" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="T71" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="T72" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="T73" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="T74" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="T75" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="T76" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="T77" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="T78" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="T79" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="T80" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="T81" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="T82" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="T83" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="T84" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="T85" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="T86" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="T87" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="T88" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="T89" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="T90" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="T91" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="92">
       <c r="T92" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93">
       <c r="T93" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94">
       <c r="T94" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95">
       <c r="T95" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96">
       <c r="T96" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97">
       <c r="T97" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98">
       <c r="T98" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="99">
       <c r="T99" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100">
       <c r="T100" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="101">
       <c r="T101" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="102">
       <c r="T102" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="103">
       <c r="T103" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="104">
       <c r="T104" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105">
       <c r="T105" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="106">
       <c r="T106" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="107">
       <c r="T107" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108">
       <c r="T108" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4913,7 +4213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P997"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="true">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -4925,9 +4225,8 @@
     <col min="3" max="3" customWidth="true" style="14" width="10.83203125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="25.83203125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="10" width="37.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="35.83203125" collapsed="true"/>
-    <col min="7" max="9" customWidth="true" style="10" width="18.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="23" width="18.33203125" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="10" width="14.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="14.5" collapsed="true"/>
     <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
     <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
     <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
@@ -4938,30 +4237,30 @@
   <sheetData>
     <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
       <c r="E1" s="24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="3"/>
       <c r="L1" s="35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M1" s="35"/>
       <c r="N1" s="35"/>
@@ -4969,7 +4268,7 @@
     </row>
     <row customHeight="1" ht="33" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -4979,7 +4278,7 @@
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
       <c r="I2" s="26" t="s">
-        <v>51</v>
+        <v>436</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
@@ -5007,70 +4306,70 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="G4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="H4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>8</v>
-      </c>
       <c r="I4" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="18" t="s">
         <v>9</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>11</v>
       </c>
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -5084,16 +4383,16 @@
     <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -16364,13 +15663,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="12.83203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="14.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="19.33203125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="14" width="10.83203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="25.5" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="10" width="75.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="35.83203125" collapsed="true"/>
-    <col min="7" max="9" customWidth="true" style="10" width="18.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="23" width="18.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="19.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="10" width="74.1640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="31.83203125" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="10" width="16.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="16.5" collapsed="true"/>
     <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
     <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
     <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
@@ -16381,38 +15680,38 @@
   <sheetData>
     <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
       <c r="E1" s="29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="3"/>
       <c r="L1" s="35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M1" s="35"/>
       <c r="N1" s="35"/>
       <c r="O1" s="36"/>
     </row>
-    <row customHeight="1" ht="140" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="85" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -16422,7 +15721,7 @@
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
       <c r="I2" s="26" t="s">
-        <v>51</v>
+        <v>436</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
@@ -16450,67 +15749,67 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="G4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="H4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>8</v>
-      </c>
       <c r="I4" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="18" t="s">
         <v>9</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>11</v>
       </c>
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -16525,22 +15824,22 @@
     <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -16555,13 +15854,13 @@
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>

--- a/artifact/script/ws-01.xlsx
+++ b/artifact/script/ws-01.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{18192CB3-8659-B74E-9010-4F501045E3A5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="14100" windowWidth="38400" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-14100" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="14100" windowWidth="38400" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-14100"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -23,30 +23,32 @@
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$91</definedName>
+    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$21</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$11</definedName>
+    <definedName name="json">'#system'!$K$2:$K$12</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$14</definedName>
+    <definedName name="number">'#system'!$M$2:$M$15</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sound">'#system'!$Q$2:$Q$5</definedName>
-    <definedName name="ssh">'#system'!$R$2:$R$9</definedName>
-    <definedName name="step">'#system'!$S$2:$S$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$24</definedName>
-    <definedName name="web">'#system'!$T$2:$T$108</definedName>
-    <definedName name="webalert">'#system'!$U$2:$U$6</definedName>
-    <definedName name="webcookie">'#system'!$V$2:$V$8</definedName>
-    <definedName name="ws">'#system'!$W$2:$W$16</definedName>
-    <definedName name="xml">'#system'!$X$2:$X$11</definedName>
+    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
+    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
+    <definedName name="step">'#system'!$T$2:$T$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$26</definedName>
+    <definedName name="web">'#system'!$U$2:$U$109</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
+    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
+    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -61,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="453">
   <si>
     <t>description</t>
   </si>
@@ -1463,13 +1465,58 @@
   <si>
     <t>section(steps)</t>
   </si>
+  <si>
+    <t>sms</t>
+  </si>
+  <si>
+    <t>ws.async</t>
+  </si>
+  <si>
+    <t>sendKeysToTextBox(name,text1,text2,text3,text4)</t>
+  </si>
+  <si>
+    <t>addOrReplace(json,jsonpath,input,var)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,minNum,maxNum)</t>
+  </si>
+  <si>
+    <t>assertEqual(num1,num2)</t>
+  </si>
+  <si>
+    <t>decrement(var,amount)</t>
+  </si>
+  <si>
+    <t>sendText(phones,text)</t>
+  </si>
+  <si>
+    <t>assertTextMatches(text,minMatch,scrollTo)</t>
+  </si>
+  <si>
+    <t>delete(url,body,output)</t>
+  </si>
+  <si>
+    <t>get(url,queryString,output)</t>
+  </si>
+  <si>
+    <t>head(url,output)</t>
+  </si>
+  <si>
+    <t>patch(url,body,output)</t>
+  </si>
+  <si>
+    <t>post(url,body,output)</t>
+  </si>
+  <si>
+    <t>put(url,body,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1655,8 +1702,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1828,8 +1969,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -2149,6 +2443,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2156,7 +2732,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="69">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2293,49 +2869,94 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="13" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="15" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="16" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="18" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="24" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="24" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="45" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="48" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2690,9 +3311,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y108"/>
+  <dimension ref="A1:AA109"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -2751,27 +3372,33 @@
         <v>415</v>
       </c>
       <c r="Q1" t="s">
+        <v>438</v>
+      </c>
+      <c r="R1" t="s">
         <v>426</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>358</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>411</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>54</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>55</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>56</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>57</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
+        <v>439</v>
+      </c>
+      <c r="Z1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2807,13 +3434,13 @@
         <v>385</v>
       </c>
       <c r="K2" t="s">
-        <v>86</v>
+        <v>441</v>
       </c>
       <c r="L2" t="s">
         <v>429</v>
       </c>
       <c r="M2" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="N2" t="s">
         <v>254</v>
@@ -2825,27 +3452,33 @@
         <v>417</v>
       </c>
       <c r="Q2" t="s">
+        <v>445</v>
+      </c>
+      <c r="R2" t="s">
         <v>432</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>382</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>412</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>97</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>172</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>177</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>184</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z2" t="s">
         <v>229</v>
       </c>
     </row>
@@ -2881,10 +3514,10 @@
         <v>335</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s">
-        <v>316</v>
+        <v>443</v>
       </c>
       <c r="N3" t="s">
         <v>241</v>
@@ -2895,28 +3528,31 @@
       <c r="P3" t="s">
         <v>418</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>433</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>383</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>413</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>98</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>173</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>178</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>365</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z3" t="s">
         <v>230</v>
       </c>
     </row>
@@ -2949,7 +3585,7 @@
         <v>336</v>
       </c>
       <c r="K4" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="M4" t="s">
         <v>26</v>
@@ -2963,28 +3599,31 @@
       <c r="P4" t="s">
         <v>419</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>434</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>359</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>414</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>355</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>174</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>179</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>185</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
+        <v>448</v>
+      </c>
+      <c r="Z4" t="s">
         <v>231</v>
       </c>
     </row>
@@ -3011,7 +3650,7 @@
         <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="M5" t="s">
         <v>30</v>
@@ -3025,25 +3664,28 @@
       <c r="P5" t="s">
         <v>420</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>435</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>360</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>356</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>175</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>180</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>186</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
+        <v>449</v>
+      </c>
+      <c r="Z5" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3067,7 +3709,7 @@
         <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s">
         <v>31</v>
@@ -3081,22 +3723,25 @@
       <c r="P6" t="s">
         <v>421</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>362</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>99</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>176</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>181</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>187</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
+        <v>450</v>
+      </c>
+      <c r="Z6" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3120,7 +3765,7 @@
         <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M7" t="s">
         <v>33</v>
@@ -3134,19 +3779,22 @@
       <c r="P7" t="s">
         <v>422</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>361</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>100</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>182</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>188</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
+        <v>451</v>
+      </c>
+      <c r="Z7" t="s">
         <v>234</v>
       </c>
     </row>
@@ -3170,7 +3818,7 @@
         <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M8" t="s">
         <v>91</v>
@@ -3181,19 +3829,22 @@
       <c r="P8" t="s">
         <v>423</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>363</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>101</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>183</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>189</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
+        <v>452</v>
+      </c>
+      <c r="Z8" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3214,7 +3865,7 @@
         <v>391</v>
       </c>
       <c r="K9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
         <v>92</v>
@@ -3225,16 +3876,16 @@
       <c r="P9" t="s">
         <v>424</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>364</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>210</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>190</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Z9" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3252,10 +3903,10 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M10" t="s">
-        <v>93</v>
+        <v>444</v>
       </c>
       <c r="N10" t="s">
         <v>248</v>
@@ -3263,13 +3914,13 @@
       <c r="P10" t="s">
         <v>425</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>258</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>191</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Z10" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3287,21 +3938,21 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M11" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="N11" t="s">
         <v>249</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>259</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>260</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Z11" t="s">
         <v>238</v>
       </c>
     </row>
@@ -3318,16 +3969,19 @@
       <c r="I12" t="s">
         <v>81</v>
       </c>
+      <c r="K12" t="s">
+        <v>43</v>
+      </c>
       <c r="M12" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="N12" t="s">
         <v>250</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>102</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3345,15 +3999,15 @@
         <v>82</v>
       </c>
       <c r="M13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N13" t="s">
         <v>255</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>327</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3371,15 +4025,15 @@
         <v>83</v>
       </c>
       <c r="M14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N14" t="s">
         <v>251</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>103</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3396,13 +4050,16 @@
       <c r="I15" t="s">
         <v>84</v>
       </c>
+      <c r="M15" t="s">
+        <v>96</v>
+      </c>
       <c r="N15" t="s">
         <v>252</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>104</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3422,16 +4079,16 @@
       <c r="N16" t="s">
         <v>253</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>75</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="C17" t="s">
         <v>60</v>
@@ -3442,13 +4099,13 @@
       <c r="I17" t="s">
         <v>44</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>358</v>
+        <v>426</v>
       </c>
       <c r="C18" t="s">
         <v>61</v>
@@ -3459,13 +4116,13 @@
       <c r="I18" t="s">
         <v>406</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>411</v>
+        <v>358</v>
       </c>
       <c r="C19" t="s">
         <v>257</v>
@@ -3476,13 +4133,13 @@
       <c r="I19" t="s">
         <v>85</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>411</v>
       </c>
       <c r="C20" t="s">
         <v>62</v>
@@ -3493,13 +4150,13 @@
       <c r="I20" t="s">
         <v>45</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
         <v>322</v>
@@ -3510,13 +4167,13 @@
       <c r="I21" t="s">
         <v>46</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
         <v>63</v>
@@ -3524,13 +4181,13 @@
       <c r="E22" t="s">
         <v>300</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
         <v>226</v>
@@ -3538,13 +4195,13 @@
       <c r="E23" t="s">
         <v>291</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>228</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
         <v>227</v>
@@ -3552,29 +4209,35 @@
       <c r="E24" t="s">
         <v>280</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="s">
+        <v>439</v>
+      </c>
       <c r="C25" t="s">
         <v>437</v>
       </c>
       <c r="E25" t="s">
         <v>76</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="s">
+        <v>228</v>
+      </c>
       <c r="C26" t="s">
         <v>64</v>
       </c>
       <c r="E26" t="s">
         <v>283</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3585,7 +4248,7 @@
       <c r="E27" t="s">
         <v>267</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>328</v>
       </c>
     </row>
@@ -3596,7 +4259,7 @@
       <c r="E28" t="s">
         <v>284</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3607,7 +4270,7 @@
       <c r="E29" t="s">
         <v>285</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3618,7 +4281,7 @@
       <c r="E30" t="s">
         <v>217</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3629,7 +4292,7 @@
       <c r="E31" t="s">
         <v>276</v>
       </c>
-      <c r="T31" t="s">
+      <c r="U31" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3640,7 +4303,7 @@
       <c r="E32" t="s">
         <v>286</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3651,7 +4314,7 @@
       <c r="E33" t="s">
         <v>261</v>
       </c>
-      <c r="T33" t="s">
+      <c r="U33" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3659,7 +4322,7 @@
       <c r="E34" t="s">
         <v>331</v>
       </c>
-      <c r="T34" t="s">
+      <c r="U34" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3667,7 +4330,7 @@
       <c r="E35" t="s">
         <v>308</v>
       </c>
-      <c r="T35" t="s">
+      <c r="U35" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3675,7 +4338,7 @@
       <c r="E36" t="s">
         <v>262</v>
       </c>
-      <c r="T36" t="s">
+      <c r="U36" t="s">
         <v>339</v>
       </c>
     </row>
@@ -3683,524 +4346,532 @@
       <c r="E37" t="s">
         <v>309</v>
       </c>
-      <c r="T37" t="s">
-        <v>407</v>
+      <c r="U37" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
         <v>268</v>
       </c>
-      <c r="T38" t="s">
-        <v>122</v>
+      <c r="U38" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
         <v>78</v>
       </c>
-      <c r="T39" t="s">
-        <v>123</v>
+      <c r="U39" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
         <v>213</v>
       </c>
-      <c r="T40" t="s">
-        <v>124</v>
+      <c r="U40" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
         <v>290</v>
       </c>
-      <c r="T41" t="s">
-        <v>125</v>
+      <c r="U41" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
         <v>301</v>
       </c>
-      <c r="T42" t="s">
-        <v>126</v>
+      <c r="U42" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
         <v>302</v>
       </c>
-      <c r="T43" t="s">
-        <v>127</v>
+      <c r="U43" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
         <v>344</v>
       </c>
-      <c r="T44" t="s">
-        <v>214</v>
+      <c r="U44" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
         <v>343</v>
       </c>
-      <c r="T45" t="s">
-        <v>77</v>
+      <c r="U45" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
         <v>212</v>
       </c>
-      <c r="T46" t="s">
-        <v>128</v>
+      <c r="U46" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
         <v>321</v>
       </c>
-      <c r="T47" t="s">
-        <v>129</v>
+      <c r="U47" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
         <v>340</v>
       </c>
-      <c r="T48" t="s">
-        <v>130</v>
+      <c r="U48" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
         <v>369</v>
       </c>
-      <c r="T49" t="s">
-        <v>131</v>
+      <c r="U49" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
         <v>303</v>
       </c>
-      <c r="T50" t="s">
-        <v>347</v>
+      <c r="U50" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
         <v>357</v>
       </c>
-      <c r="T51" t="s">
-        <v>132</v>
+      <c r="U51" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
         <v>332</v>
       </c>
-      <c r="T52" t="s">
-        <v>133</v>
+      <c r="U52" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
         <v>269</v>
       </c>
-      <c r="T53" t="s">
-        <v>134</v>
+      <c r="U53" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
         <v>293</v>
       </c>
-      <c r="T54" t="s">
-        <v>135</v>
+      <c r="U54" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
         <v>294</v>
       </c>
-      <c r="T55" t="s">
-        <v>136</v>
+      <c r="U55" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
         <v>295</v>
       </c>
-      <c r="T56" t="s">
-        <v>137</v>
+      <c r="U56" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
         <v>304</v>
       </c>
-      <c r="T57" t="s">
-        <v>138</v>
+      <c r="U57" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
         <v>313</v>
       </c>
-      <c r="T58" t="s">
-        <v>215</v>
+      <c r="U58" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
         <v>338</v>
       </c>
-      <c r="T59" t="s">
-        <v>390</v>
+      <c r="U59" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
         <v>310</v>
       </c>
-      <c r="T60" t="s">
-        <v>139</v>
+      <c r="U60" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
         <v>311</v>
       </c>
-      <c r="T61" t="s">
-        <v>140</v>
+      <c r="U61" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
         <v>370</v>
       </c>
-      <c r="T62" t="s">
-        <v>141</v>
+      <c r="U62" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
         <v>371</v>
       </c>
-      <c r="T63" t="s">
-        <v>142</v>
+      <c r="U63" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
         <v>346</v>
       </c>
-      <c r="T64" t="s">
-        <v>198</v>
+      <c r="U64" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
         <v>314</v>
       </c>
-      <c r="T65" t="s">
-        <v>199</v>
+      <c r="U65" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
         <v>270</v>
       </c>
-      <c r="T66" t="s">
-        <v>143</v>
+      <c r="U66" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
         <v>354</v>
       </c>
-      <c r="T67" t="s">
-        <v>144</v>
+      <c r="U67" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
         <v>315</v>
       </c>
-      <c r="T68" t="s">
-        <v>145</v>
+      <c r="U68" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
         <v>428</v>
       </c>
-      <c r="T69" t="s">
-        <v>146</v>
+      <c r="U69" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
         <v>305</v>
       </c>
-      <c r="T70" t="s">
-        <v>147</v>
+      <c r="U70" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
         <v>416</v>
       </c>
-      <c r="T71" t="s">
-        <v>200</v>
+      <c r="U71" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
         <v>263</v>
       </c>
-      <c r="T72" t="s">
-        <v>201</v>
+      <c r="U72" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
         <v>345</v>
       </c>
-      <c r="T73" t="s">
-        <v>202</v>
+      <c r="U73" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
         <v>281</v>
       </c>
-      <c r="T74" t="s">
-        <v>203</v>
+      <c r="U74" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
         <v>287</v>
       </c>
-      <c r="T75" t="s">
-        <v>216</v>
+      <c r="U75" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
         <v>292</v>
       </c>
-      <c r="T76" t="s">
-        <v>148</v>
+      <c r="U76" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>333</v>
-      </c>
-      <c r="T77" t="s">
-        <v>204</v>
+        <v>440</v>
+      </c>
+      <c r="U77" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>271</v>
-      </c>
-      <c r="T78" t="s">
-        <v>149</v>
+        <v>333</v>
+      </c>
+      <c r="U78" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>282</v>
-      </c>
-      <c r="T79" t="s">
-        <v>205</v>
+        <v>271</v>
+      </c>
+      <c r="U79" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>288</v>
-      </c>
-      <c r="T80" t="s">
-        <v>206</v>
+        <v>282</v>
+      </c>
+      <c r="U80" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>277</v>
-      </c>
-      <c r="T81" t="s">
-        <v>207</v>
+        <v>288</v>
+      </c>
+      <c r="U81" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>272</v>
-      </c>
-      <c r="T82" t="s">
-        <v>208</v>
+        <v>277</v>
+      </c>
+      <c r="U82" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>289</v>
-      </c>
-      <c r="T83" t="s">
-        <v>224</v>
+        <v>272</v>
+      </c>
+      <c r="U83" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>273</v>
-      </c>
-      <c r="T84" t="s">
-        <v>209</v>
+        <v>289</v>
+      </c>
+      <c r="U84" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>274</v>
-      </c>
-      <c r="T85" t="s">
-        <v>150</v>
+        <v>273</v>
+      </c>
+      <c r="U85" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>306</v>
-      </c>
-      <c r="T86" t="s">
-        <v>384</v>
+        <v>274</v>
+      </c>
+      <c r="U86" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>312</v>
-      </c>
-      <c r="T87" t="s">
-        <v>151</v>
+        <v>306</v>
+      </c>
+      <c r="U87" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>296</v>
-      </c>
-      <c r="T88" t="s">
-        <v>152</v>
+        <v>312</v>
+      </c>
+      <c r="U88" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>341</v>
-      </c>
-      <c r="T89" t="s">
-        <v>153</v>
+        <v>296</v>
+      </c>
+      <c r="U89" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>278</v>
-      </c>
-      <c r="T90" t="s">
-        <v>154</v>
+        <v>341</v>
+      </c>
+      <c r="U90" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" t="s">
+        <v>278</v>
+      </c>
+      <c r="U91" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="E92" t="s">
         <v>279</v>
       </c>
-      <c r="T91" t="s">
+      <c r="U92" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="92">
-      <c r="T92" t="s">
+    <row r="93">
+      <c r="U93" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="93">
-      <c r="T93" t="s">
+    <row r="94">
+      <c r="U94" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="94">
-      <c r="T94" t="s">
+    <row r="95">
+      <c r="U95" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="95">
-      <c r="T95" t="s">
+    <row r="96">
+      <c r="U96" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="96">
-      <c r="T96" t="s">
+    <row r="97">
+      <c r="U97" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="97">
-      <c r="T97" t="s">
+    <row r="98">
+      <c r="U98" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="98">
-      <c r="T98" t="s">
+    <row r="99">
+      <c r="U99" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="99">
-      <c r="T99" t="s">
+    <row r="100">
+      <c r="U100" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="100">
-      <c r="T100" t="s">
+    <row r="101">
+      <c r="U101" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="101">
-      <c r="T101" t="s">
+    <row r="102">
+      <c r="U102" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="102">
-      <c r="T102" t="s">
+    <row r="103">
+      <c r="U103" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="103">
-      <c r="T103" t="s">
+    <row r="104">
+      <c r="U104" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="104">
-      <c r="T104" t="s">
+    <row r="105">
+      <c r="U105" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="105">
-      <c r="T105" t="s">
+    <row r="106">
+      <c r="U106" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="106">
-      <c r="T106" t="s">
+    <row r="107">
+      <c r="U107" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="107">
-      <c r="T107" t="s">
+    <row r="108">
+      <c r="U108" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="108">
-      <c r="T108" t="s">
+    <row r="109">
+      <c r="U109" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4213,7 +4884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P997"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="true">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>

--- a/artifact/script/ws-01.xlsx
+++ b/artifact/script/ws-01.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$109</definedName>
+    <definedName name="web">'#system'!$U$2:$U$111</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3162" uniqueCount="457">
   <si>
     <t>description</t>
   </si>
@@ -1510,13 +1510,25 @@
   <si>
     <t>put(url,body,output)</t>
   </si>
+  <si>
+    <t>jsSelect(locator,text)</t>
+  </si>
+  <si>
+    <t>savePageAsFile(sessionIdName,url,file)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,file)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="103" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1796,8 +1808,384 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2122,8 +2510,620 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="171">
     <border>
       <left/>
       <right/>
@@ -2725,6 +3725,1134 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2732,7 +4860,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="129">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2914,49 +5042,229 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="33" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="36" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="39" fontId="31" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="33" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="45" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="45" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="48" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="48" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="60" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="63" fontId="45" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="66" fontId="46" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="48" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="72" fontId="50" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="75" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="60" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="61" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="63" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="99" fontId="65" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="102" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="68" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="73" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="75" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="76" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="78" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="126" fontId="80" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="129" fontId="81" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="82" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="83" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="153" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="156" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3311,7 +5619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA109"/>
+  <dimension ref="A1:AA111"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4555,7 +6863,7 @@
         <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>141</v>
+        <v>453</v>
       </c>
     </row>
     <row r="64">
@@ -4563,7 +6871,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65">
@@ -4571,7 +6879,7 @@
         <v>314</v>
       </c>
       <c r="U65" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66">
@@ -4579,7 +6887,7 @@
         <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67">
@@ -4587,7 +6895,7 @@
         <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68">
@@ -4595,7 +6903,7 @@
         <v>315</v>
       </c>
       <c r="U68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69">
@@ -4603,7 +6911,7 @@
         <v>428</v>
       </c>
       <c r="U69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70">
@@ -4611,7 +6919,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71">
@@ -4619,7 +6927,7 @@
         <v>416</v>
       </c>
       <c r="U71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72">
@@ -4627,7 +6935,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73">
@@ -4635,7 +6943,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74">
@@ -4643,7 +6951,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75">
@@ -4651,7 +6959,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76">
@@ -4659,7 +6967,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77">
@@ -4667,7 +6975,7 @@
         <v>440</v>
       </c>
       <c r="U77" t="s">
-        <v>148</v>
+        <v>216</v>
       </c>
     </row>
     <row r="78">
@@ -4675,7 +6983,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79">
@@ -4683,7 +6991,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>149</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80">
@@ -4691,7 +6999,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>205</v>
+        <v>454</v>
       </c>
     </row>
     <row r="81">
@@ -4699,7 +7007,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>206</v>
+        <v>456</v>
       </c>
     </row>
     <row r="82">
@@ -4707,7 +7015,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83">
@@ -4715,7 +7023,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="84">
@@ -4723,7 +7031,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85">
@@ -4731,7 +7039,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86">
@@ -4739,7 +7047,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>150</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87">
@@ -4747,7 +7055,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>384</v>
+        <v>209</v>
       </c>
     </row>
     <row r="88">
@@ -4755,7 +7063,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89">
@@ -4763,7 +7071,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>152</v>
+        <v>384</v>
       </c>
     </row>
     <row r="90">
@@ -4771,7 +7079,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91">
@@ -4779,7 +7087,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92">
@@ -4787,91 +7095,101 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="U110" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="U111" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/ws-01.xlsx
+++ b/artifact/script/ws-01.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="web">'#system'!$U$2:$U$112</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3162" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4058" uniqueCount="458">
   <si>
     <t>description</t>
   </si>
@@ -1522,13 +1522,16 @@
   <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
   </si>
+  <si>
+    <t>dragAndDrop(fromLocator,toLocator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="103" x14ac:knownFonts="1">
+  <fonts count="133" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2184,8 +2187,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3122,8 +3313,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="171">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -4853,6 +5350,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4860,7 +5921,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="159">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5222,49 +6283,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="90" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="91" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="93" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="153" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="153" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="156" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="156" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="105" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="106" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="108" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="180" fontId="110" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="183" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="112" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="113" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="114" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="207" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="210" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5619,7 +6770,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6831,7 +7982,7 @@
         <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>215</v>
+        <v>457</v>
       </c>
     </row>
     <row r="60">
@@ -6839,7 +7990,7 @@
         <v>310</v>
       </c>
       <c r="U60" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61">
@@ -6847,7 +7998,7 @@
         <v>311</v>
       </c>
       <c r="U61" t="s">
-        <v>139</v>
+        <v>390</v>
       </c>
     </row>
     <row r="62">
@@ -6855,7 +8006,7 @@
         <v>370</v>
       </c>
       <c r="U62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63">
@@ -6863,7 +8014,7 @@
         <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>453</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64">
@@ -6871,7 +8022,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>141</v>
+        <v>453</v>
       </c>
     </row>
     <row r="65">
@@ -6879,7 +8030,7 @@
         <v>314</v>
       </c>
       <c r="U65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66">
@@ -6887,7 +8038,7 @@
         <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67">
@@ -6895,7 +8046,7 @@
         <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68">
@@ -6903,7 +8054,7 @@
         <v>315</v>
       </c>
       <c r="U68" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69">
@@ -6911,7 +8062,7 @@
         <v>428</v>
       </c>
       <c r="U69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70">
@@ -6919,7 +8070,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71">
@@ -6927,7 +8078,7 @@
         <v>416</v>
       </c>
       <c r="U71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72">
@@ -6935,7 +8086,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73">
@@ -6943,7 +8094,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74">
@@ -6951,7 +8102,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75">
@@ -6959,7 +8110,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76">
@@ -6967,7 +8118,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77">
@@ -6975,7 +8126,7 @@
         <v>440</v>
       </c>
       <c r="U77" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78">
@@ -6983,7 +8134,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>148</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79">
@@ -6991,7 +8142,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80">
@@ -6999,7 +8150,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>454</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81">
@@ -7007,7 +8158,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="82">
@@ -7015,7 +8166,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>205</v>
+        <v>456</v>
       </c>
     </row>
     <row r="83">
@@ -7023,7 +8174,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84">
@@ -7031,7 +8182,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85">
@@ -7039,7 +8190,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86">
@@ -7047,7 +8198,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87">
@@ -7055,7 +8206,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88">
@@ -7063,7 +8214,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89">
@@ -7071,7 +8222,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90">
@@ -7079,7 +8230,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="91">
@@ -7087,7 +8238,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92">
@@ -7095,101 +8246,106 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="U112" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/ws-01.xlsx
+++ b/artifact/script/ws-01.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$112</definedName>
+    <definedName name="web">'#system'!$U$2:$U$113</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4058" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4507" uniqueCount="460">
   <si>
     <t>description</t>
   </si>
@@ -1525,13 +1525,19 @@
   <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
+  <si>
+    <t>checkAll(locator)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="133" x14ac:knownFonts="1">
+  <fonts count="148" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2375,8 +2381,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3619,8 +3719,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="255">
     <border>
       <left/>
       <right/>
@@ -5914,6 +6167,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5921,7 +6456,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="174">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6373,49 +6908,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="120" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="121" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="123" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="207" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="207" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="210" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="210" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6770,7 +7350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA113"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7870,7 +8450,7 @@
         <v>343</v>
       </c>
       <c r="U45" t="s">
-        <v>214</v>
+        <v>458</v>
       </c>
     </row>
     <row r="46">
@@ -7878,7 +8458,7 @@
         <v>212</v>
       </c>
       <c r="U46" t="s">
-        <v>77</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47">
@@ -7886,7 +8466,7 @@
         <v>321</v>
       </c>
       <c r="U47" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48">
@@ -7894,7 +8474,7 @@
         <v>340</v>
       </c>
       <c r="U48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49">
@@ -7902,7 +8482,7 @@
         <v>369</v>
       </c>
       <c r="U49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50">
@@ -7910,7 +8490,7 @@
         <v>303</v>
       </c>
       <c r="U50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51">
@@ -7918,7 +8498,7 @@
         <v>357</v>
       </c>
       <c r="U51" t="s">
-        <v>347</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52">
@@ -7926,7 +8506,7 @@
         <v>332</v>
       </c>
       <c r="U52" t="s">
-        <v>132</v>
+        <v>347</v>
       </c>
     </row>
     <row r="53">
@@ -7934,7 +8514,7 @@
         <v>269</v>
       </c>
       <c r="U53" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54">
@@ -7942,7 +8522,7 @@
         <v>293</v>
       </c>
       <c r="U54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55">
@@ -7950,7 +8530,7 @@
         <v>294</v>
       </c>
       <c r="U55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56">
@@ -7958,7 +8538,7 @@
         <v>295</v>
       </c>
       <c r="U56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57">
@@ -7966,7 +8546,7 @@
         <v>304</v>
       </c>
       <c r="U57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58">
@@ -7974,7 +8554,7 @@
         <v>313</v>
       </c>
       <c r="U58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59">
@@ -7982,7 +8562,7 @@
         <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>457</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60">
@@ -7990,7 +8570,7 @@
         <v>310</v>
       </c>
       <c r="U60" t="s">
-        <v>215</v>
+        <v>457</v>
       </c>
     </row>
     <row r="61">
@@ -7998,7 +8578,7 @@
         <v>311</v>
       </c>
       <c r="U61" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62">
@@ -8006,7 +8586,7 @@
         <v>370</v>
       </c>
       <c r="U62" t="s">
-        <v>139</v>
+        <v>390</v>
       </c>
     </row>
     <row r="63">
@@ -8014,7 +8594,7 @@
         <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64">
@@ -8022,7 +8602,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>453</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65">
@@ -8306,46 +8886,51 @@
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>164</v>
+        <v>459</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="U113" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/ws-01.xlsx
+++ b/artifact/script/ws-01.xlsx
@@ -20,16 +20,16 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$4</definedName>
+    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$21</definedName>
+    <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$12</definedName>
+    <definedName name="json">'#system'!$K$2:$K$13</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -42,8 +42,8 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$113</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4507" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5872" uniqueCount="466">
   <si>
     <t>description</t>
   </si>
@@ -1531,13 +1531,31 @@
   <si>
     <t>uncheckAll(locator)</t>
   </si>
+  <si>
+    <t>fromExcel(excel,worksheet,csvFile)</t>
+  </si>
+  <si>
+    <t>writeFileAsIs(file,content,append)</t>
+  </si>
+  <si>
+    <t>fromCsv(csv,header,jsonFile)</t>
+  </si>
+  <si>
+    <t>focus(locator)</t>
+  </si>
+  <si>
+    <t>replyCancel(text)</t>
+  </si>
+  <si>
+    <t>replyOK(text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="148" x14ac:knownFonts="1">
+  <fonts count="193" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2475,8 +2493,290 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="328">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3872,8 +4172,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="255">
+  <borders count="339">
     <border>
       <left/>
       <right/>
@@ -6449,6 +7208,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6456,7 +8061,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="219">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6953,49 +8558,184 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="135" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="136" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="138" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="234" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="237" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="249" fontId="148" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="149" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="252" fontId="150" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="255" fontId="151" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="152" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="153" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="261" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="264" fontId="156" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="157" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="158" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="159" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="161" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="276" fontId="163" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="164" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="279" fontId="165" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="282" fontId="166" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="167" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="168" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="169" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="288" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="291" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="173" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="174" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="176" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="303" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="306" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="309" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="315" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="318" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="321" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="321" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7350,7 +9090,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA113"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7676,6 +9416,9 @@
       <c r="C5" t="s">
         <v>225</v>
       </c>
+      <c r="D5" t="s">
+        <v>460</v>
+      </c>
       <c r="E5" t="s">
         <v>337</v>
       </c>
@@ -7769,7 +9512,7 @@
         <v>99</v>
       </c>
       <c r="V6" t="s">
-        <v>176</v>
+        <v>464</v>
       </c>
       <c r="W6" t="s">
         <v>181</v>
@@ -7824,6 +9567,9 @@
       <c r="U7" t="s">
         <v>100</v>
       </c>
+      <c r="V7" t="s">
+        <v>465</v>
+      </c>
       <c r="W7" t="s">
         <v>182</v>
       </c>
@@ -7874,6 +9620,9 @@
       <c r="U8" t="s">
         <v>101</v>
       </c>
+      <c r="V8" t="s">
+        <v>176</v>
+      </c>
       <c r="W8" t="s">
         <v>183</v>
       </c>
@@ -7942,7 +9691,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>462</v>
       </c>
       <c r="M10" t="s">
         <v>444</v>
@@ -7977,7 +9726,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
         <v>93</v>
@@ -8009,7 +9758,7 @@
         <v>81</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -8037,6 +9786,9 @@
       <c r="I13" t="s">
         <v>82</v>
       </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
       <c r="M13" t="s">
         <v>94</v>
       </c>
@@ -8187,7 +9939,7 @@
         <v>298</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>461</v>
       </c>
       <c r="U20" t="s">
         <v>108</v>
@@ -8204,7 +9956,7 @@
         <v>299</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U21" t="s">
         <v>109</v>
@@ -8220,6 +9972,9 @@
       <c r="E22" t="s">
         <v>300</v>
       </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
       <c r="U22" t="s">
         <v>110</v>
       </c>
@@ -8594,7 +10349,7 @@
         <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>139</v>
+        <v>463</v>
       </c>
     </row>
     <row r="64">
@@ -8602,7 +10357,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65">
@@ -8610,7 +10365,7 @@
         <v>314</v>
       </c>
       <c r="U65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66">
@@ -8618,7 +10373,7 @@
         <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67">
@@ -8626,7 +10381,7 @@
         <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68">
@@ -8634,7 +10389,7 @@
         <v>315</v>
       </c>
       <c r="U68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69">
@@ -8642,7 +10397,7 @@
         <v>428</v>
       </c>
       <c r="U69" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70">
@@ -8650,7 +10405,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71">
@@ -8658,7 +10413,7 @@
         <v>416</v>
       </c>
       <c r="U71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72">
@@ -8666,7 +10421,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73">
@@ -8674,7 +10429,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74">
@@ -8682,7 +10437,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75">
@@ -8690,7 +10445,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76">
@@ -8698,7 +10453,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77">
@@ -8706,7 +10461,7 @@
         <v>440</v>
       </c>
       <c r="U77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78">
@@ -8714,7 +10469,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79">
@@ -8722,7 +10477,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>148</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80">
@@ -8730,7 +10485,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81">
@@ -8738,7 +10493,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>454</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82">
@@ -8746,7 +10501,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="83">
@@ -8754,7 +10509,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>205</v>
+        <v>456</v>
       </c>
     </row>
     <row r="84">
@@ -8762,7 +10517,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85">
@@ -8770,7 +10525,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86">
@@ -8778,7 +10533,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87">
@@ -8786,7 +10541,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88">
@@ -8794,7 +10549,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89">
@@ -8802,7 +10557,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90">
@@ -8810,7 +10565,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91">
@@ -8818,7 +10573,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="92">
@@ -8826,111 +10581,116 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>459</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>164</v>
+        <v>459</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="U114" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/ws-01.xlsx
+++ b/artifact/script/ws-01.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5872" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6327" uniqueCount="466">
   <si>
     <t>description</t>
   </si>
@@ -1555,7 +1555,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="193" x14ac:knownFonts="1">
+  <fonts count="208" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2775,8 +2775,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="328">
+  <fills count="355">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4631,8 +4725,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="339">
+  <borders count="367">
     <border>
       <left/>
       <right/>
@@ -8054,6 +8301,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8061,7 +8590,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="234">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8693,49 +9222,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="303" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="303" fontId="178" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="179" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="306" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="306" fontId="180" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="309" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="309" fontId="181" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="182" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="183" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="315" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="315" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="318" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="318" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="321" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="321" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="189" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="190" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="342" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="345" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/artifact/script/ws-01.xlsx
+++ b/artifact/script/ws-01.xlsx
@@ -24,12 +24,12 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$8</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$13</definedName>
+    <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6327" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7241" uniqueCount="468">
   <si>
     <t>description</t>
   </si>
@@ -1549,13 +1549,19 @@
   <si>
     <t>replyOK(text)</t>
   </si>
+  <si>
+    <t>csv(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>json(file,worksheet,range,header,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="208" x14ac:knownFonts="1">
+  <fonts count="238" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2869,8 +2875,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="355">
+  <fills count="409">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4878,8 +5072,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="367">
+  <borders count="423">
     <border>
       <left/>
       <right/>
@@ -8583,6 +9083,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8590,7 +9654,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="264">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9267,49 +10331,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="330" fontId="193" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="333" fontId="195" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="336" fontId="196" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="197" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="198" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="342" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="342" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="345" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="345" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="348" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="348" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="205" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="206" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="207" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="357" fontId="208" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="209" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="360" fontId="210" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="363" fontId="211" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="212" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="213" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="214" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="369" fontId="215" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="372" fontId="216" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="375" fontId="217" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="375" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="219" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="221" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="222" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="384" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="387" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="390" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="396" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="399" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="402" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="402" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9852,7 +11006,7 @@
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>329</v>
+        <v>466</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -9926,7 +11080,7 @@
         <v>388</v>
       </c>
       <c r="F4" t="s">
-        <v>330</v>
+        <v>467</v>
       </c>
       <c r="H4" t="s">
         <v>352</v>
@@ -9997,7 +11151,7 @@
         <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="H5" t="s">
         <v>349</v>
@@ -10059,7 +11213,7 @@
         <v>389</v>
       </c>
       <c r="F6" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -10115,13 +11269,13 @@
         <v>367</v>
       </c>
       <c r="F7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I7" t="s">
         <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>316</v>
       </c>
       <c r="M7" t="s">
         <v>33</v>
@@ -10171,13 +11325,13 @@
         <v>368</v>
       </c>
       <c r="F8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
         <v>91</v>
@@ -10223,11 +11377,14 @@
       <c r="E9" t="s">
         <v>307</v>
       </c>
+      <c r="F9" t="s">
+        <v>325</v>
+      </c>
       <c r="I9" t="s">
         <v>391</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
         <v>92</v>
@@ -10261,11 +11418,14 @@
       <c r="E10" t="s">
         <v>353</v>
       </c>
+      <c r="F10" t="s">
+        <v>326</v>
+      </c>
       <c r="I10" t="s">
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>462</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
         <v>444</v>
@@ -10300,7 +11460,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>462</v>
       </c>
       <c r="M11" t="s">
         <v>93</v>
@@ -10332,7 +11492,7 @@
         <v>81</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -10361,7 +11521,7 @@
         <v>82</v>
       </c>
       <c r="K13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M13" t="s">
         <v>94</v>
@@ -10388,6 +11548,9 @@
       </c>
       <c r="I14" t="s">
         <v>83</v>
+      </c>
+      <c r="K14" t="s">
+        <v>43</v>
       </c>
       <c r="M14" t="s">
         <v>95</v>

--- a/artifact/script/ws-01.xlsx
+++ b/artifact/script/ws-01.xlsx
@@ -19,12 +19,12 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$33</definedName>
+    <definedName name="base">'#system'!$C$2:$C$34</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7241" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7703" uniqueCount="473">
   <si>
     <t>description</t>
   </si>
@@ -1555,13 +1555,28 @@
   <si>
     <t>json(file,worksheet,range,header,output)</t>
   </si>
+  <si>
+    <t>saveCount(text,regex,saveVar)</t>
+  </si>
+  <si>
+    <t>assertPassword(file)</t>
+  </si>
+  <si>
+    <t>clearPassword(file,password)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,output)</t>
+  </si>
+  <si>
+    <t>setPassword(file,password)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="238" x14ac:knownFonts="1">
+  <fonts count="253" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3063,8 +3078,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="409">
+  <fills count="436">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5378,8 +5487,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="423">
+  <borders count="451">
     <border>
       <left/>
       <right/>
@@ -9647,6 +9909,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9654,7 +10198,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="264">
+  <cellXfs count="279">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10421,49 +10965,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="222" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="384" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="384" fontId="223" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="224" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="387" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="387" fontId="225" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="390" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="390" fontId="226" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="227" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="228" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="396" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="396" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="399" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="399" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="402" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="402" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="402" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="402" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="235" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="236" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="237" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="411" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="414" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="417" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="423" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="426" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10926,7 +11515,7 @@
         <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>469</v>
       </c>
       <c r="G2" t="s">
         <v>79</v>
@@ -11006,7 +11595,7 @@
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>466</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -11080,7 +11669,7 @@
         <v>388</v>
       </c>
       <c r="F4" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="H4" t="s">
         <v>352</v>
@@ -11151,7 +11740,7 @@
         <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>329</v>
+        <v>471</v>
       </c>
       <c r="H5" t="s">
         <v>349</v>
@@ -11213,7 +11802,7 @@
         <v>389</v>
       </c>
       <c r="F6" t="s">
-        <v>330</v>
+        <v>467</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -11269,7 +11858,7 @@
         <v>367</v>
       </c>
       <c r="F7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="I7" t="s">
         <v>80</v>
@@ -11325,7 +11914,7 @@
         <v>368</v>
       </c>
       <c r="F8" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -11378,7 +11967,7 @@
         <v>307</v>
       </c>
       <c r="F9" t="s">
-        <v>325</v>
+        <v>472</v>
       </c>
       <c r="I9" t="s">
         <v>391</v>
@@ -11419,7 +12008,7 @@
         <v>353</v>
       </c>
       <c r="F10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -11456,6 +12045,9 @@
       <c r="E11" t="s">
         <v>275</v>
       </c>
+      <c r="F11" t="s">
+        <v>324</v>
+      </c>
       <c r="I11" t="s">
         <v>42</v>
       </c>
@@ -11488,6 +12080,9 @@
       <c r="E12" t="s">
         <v>264</v>
       </c>
+      <c r="F12" t="s">
+        <v>325</v>
+      </c>
       <c r="I12" t="s">
         <v>81</v>
       </c>
@@ -11517,6 +12112,9 @@
       <c r="E13" t="s">
         <v>317</v>
       </c>
+      <c r="F13" t="s">
+        <v>326</v>
+      </c>
       <c r="I13" t="s">
         <v>82</v>
       </c>
@@ -11721,7 +12319,7 @@
         <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>226</v>
+        <v>468</v>
       </c>
       <c r="E23" t="s">
         <v>291</v>
@@ -11735,7 +12333,7 @@
         <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E24" t="s">
         <v>280</v>
@@ -11749,7 +12347,7 @@
         <v>439</v>
       </c>
       <c r="C25" t="s">
-        <v>437</v>
+        <v>227</v>
       </c>
       <c r="E25" t="s">
         <v>76</v>
@@ -11763,7 +12361,7 @@
         <v>228</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>437</v>
       </c>
       <c r="E26" t="s">
         <v>283</v>
@@ -11774,7 +12372,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
         <v>267</v>
@@ -11785,7 +12383,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28" t="s">
         <v>284</v>
@@ -11796,7 +12394,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
         <v>285</v>
@@ -11807,7 +12405,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E30" t="s">
         <v>217</v>
@@ -11818,7 +12416,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E31" t="s">
         <v>276</v>
@@ -11829,7 +12427,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s">
         <v>286</v>
@@ -11840,7 +12438,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E33" t="s">
         <v>261</v>
@@ -11850,6 +12448,9 @@
       </c>
     </row>
     <row r="34">
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
       <c r="E34" t="s">
         <v>331</v>
       </c>

--- a/artifact/script/ws-01.xlsx
+++ b/artifact/script/ws-01.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="web">'#system'!$U$2:$U$115</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7703" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8629" uniqueCount="475">
   <si>
     <t>description</t>
   </si>
@@ -1570,13 +1570,19 @@
   <si>
     <t>setPassword(file,password)</t>
   </si>
+  <si>
+    <t>saveDivsAsCsv(headerCellsLoc,rowLocator,cellLocator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="253" x14ac:knownFonts="1">
+  <fonts count="283" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3172,8 +3178,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="436">
+  <fills count="490">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5640,8 +5834,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="451">
+  <borders count="507">
     <border>
       <left/>
       <right/>
@@ -10191,6 +10691,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10198,7 +11262,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="279">
+  <cellXfs count="309">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11010,49 +12074,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="237" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="411" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="411" fontId="238" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="239" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="414" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="414" fontId="240" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="417" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="417" fontId="241" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="242" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="243" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="244" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="423" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="423" fontId="245" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="426" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="426" fontId="246" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="429" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="429" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="250" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="251" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="252" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="438" fontId="253" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="254" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="441" fontId="255" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="444" fontId="256" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="257" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="258" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="259" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="450" fontId="260" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="453" fontId="261" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="456" fontId="262" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="456" fontId="263" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="264" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="265" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="266" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="267" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="465" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="468" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="471" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="477" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="480" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11407,7 +12561,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -12799,7 +13953,7 @@
         <v>440</v>
       </c>
       <c r="U77" t="s">
-        <v>202</v>
+        <v>474</v>
       </c>
     </row>
     <row r="78">
@@ -12807,7 +13961,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79">
@@ -12815,7 +13969,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80">
@@ -12823,7 +13977,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>148</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81">
@@ -12831,7 +13985,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82">
@@ -12839,7 +13993,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>454</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83">
@@ -12847,7 +14001,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="84">
@@ -12855,7 +14009,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>205</v>
+        <v>456</v>
       </c>
     </row>
     <row r="85">
@@ -12863,7 +14017,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86">
@@ -12871,7 +14025,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87">
@@ -12879,7 +14033,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88">
@@ -12887,7 +14041,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89">
@@ -12895,7 +14049,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90">
@@ -12903,7 +14057,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91">
@@ -12911,7 +14065,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92">
@@ -12919,116 +14073,121 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>459</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>164</v>
+        <v>459</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="U115" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/ws-01.xlsx
+++ b/artifact/script/ws-01.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$115</definedName>
+    <definedName name="web">'#system'!$U$2:$U$116</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8629" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9093" uniqueCount="476">
   <si>
     <t>description</t>
   </si>
@@ -1576,13 +1576,16 @@
   <si>
     <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
   </si>
+  <si>
+    <t>openHttpBasic(url,username,password)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="283" x14ac:knownFonts="1">
+  <fonts count="298" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3366,8 +3369,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="490">
+  <fills count="517">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6140,8 +6237,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="507">
+  <borders count="535">
     <border>
       <left/>
       <right/>
@@ -11255,6 +11505,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11262,7 +11794,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="309">
+  <cellXfs count="324">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12164,49 +12696,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="267" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="465" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="465" fontId="268" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="269" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="270" fillId="468" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="468" fontId="270" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="271" fillId="471" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="471" fontId="271" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="272" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="273" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="273" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="274" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="275" fillId="477" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="477" fontId="275" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="276" fillId="480" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="480" fontId="276" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="277" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="483" fontId="277" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="483" fontId="278" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="279" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="280" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="281" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="282" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="492" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="495" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="498" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="504" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="507" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12561,7 +13138,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -13897,7 +14474,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>143</v>
+        <v>475</v>
       </c>
     </row>
     <row r="71">
@@ -13905,7 +14482,7 @@
         <v>416</v>
       </c>
       <c r="U71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72">
@@ -13913,7 +14490,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73">
@@ -13921,7 +14498,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74">
@@ -13929,7 +14506,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75">
@@ -13937,7 +14514,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76">
@@ -13945,7 +14522,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77">
@@ -13953,7 +14530,7 @@
         <v>440</v>
       </c>
       <c r="U77" t="s">
-        <v>474</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78">
@@ -13961,7 +14538,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>202</v>
+        <v>474</v>
       </c>
     </row>
     <row r="79">
@@ -13969,7 +14546,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80">
@@ -13977,7 +14554,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81">
@@ -13985,7 +14562,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>148</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82">
@@ -13993,7 +14570,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83">
@@ -14001,7 +14578,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>454</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84">
@@ -14009,7 +14586,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="85">
@@ -14017,7 +14594,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>205</v>
+        <v>456</v>
       </c>
     </row>
     <row r="86">
@@ -14025,7 +14602,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87">
@@ -14033,7 +14610,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88">
@@ -14041,7 +14618,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89">
@@ -14049,7 +14626,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90">
@@ -14057,7 +14634,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91">
@@ -14065,7 +14642,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="92">
@@ -14073,121 +14650,126 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>459</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>164</v>
+        <v>459</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="U116" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/ws-01.xlsx
+++ b/artifact/script/ws-01.xlsx
@@ -24,7 +24,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9093" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9558" uniqueCount="477">
   <si>
     <t>description</t>
   </si>
@@ -1579,13 +1579,16 @@
   <si>
     <t>openHttpBasic(url,username,password)</t>
   </si>
+  <si>
+    <t>columnarCsv(file,worksheet,ranges,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="298" x14ac:knownFonts="1">
+  <fonts count="313" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3463,8 +3466,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="517">
+  <fills count="544">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6390,8 +6487,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="535">
+  <borders count="563">
     <border>
       <left/>
       <right/>
@@ -11787,6 +12037,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11794,7 +12326,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="324">
+  <cellXfs count="339">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12741,49 +13273,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="282" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="492" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="492" fontId="283" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="284" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="495" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="495" fontId="285" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="498" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="498" fontId="286" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="287" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="288" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="289" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="504" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="504" fontId="290" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="507" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="507" fontId="291" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="510" fontId="292" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="510" fontId="293" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="295" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="296" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="297" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="519" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="522" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="525" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="531" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="534" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13471,7 +14048,7 @@
         <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="H5" t="s">
         <v>349</v>
@@ -13533,7 +14110,7 @@
         <v>389</v>
       </c>
       <c r="F6" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -13589,7 +14166,7 @@
         <v>367</v>
       </c>
       <c r="F7" t="s">
-        <v>329</v>
+        <v>467</v>
       </c>
       <c r="I7" t="s">
         <v>80</v>
@@ -13645,7 +14222,7 @@
         <v>368</v>
       </c>
       <c r="F8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -13698,7 +14275,7 @@
         <v>307</v>
       </c>
       <c r="F9" t="s">
-        <v>472</v>
+        <v>330</v>
       </c>
       <c r="I9" t="s">
         <v>391</v>
@@ -13739,7 +14316,7 @@
         <v>353</v>
       </c>
       <c r="F10" t="s">
-        <v>323</v>
+        <v>472</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -13777,7 +14354,7 @@
         <v>275</v>
       </c>
       <c r="F11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I11" t="s">
         <v>42</v>
@@ -13812,7 +14389,7 @@
         <v>264</v>
       </c>
       <c r="F12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I12" t="s">
         <v>81</v>
@@ -13844,7 +14421,7 @@
         <v>317</v>
       </c>
       <c r="F13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I13" t="s">
         <v>82</v>
@@ -13874,6 +14451,9 @@
       </c>
       <c r="E14" t="s">
         <v>265</v>
+      </c>
+      <c r="F14" t="s">
+        <v>326</v>
       </c>
       <c r="I14" t="s">
         <v>83</v>

--- a/artifact/script/ws-01.xlsx
+++ b/artifact/script/ws-01.xlsx
@@ -27,7 +27,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$22</definedName>
+    <definedName name="io">'#system'!$I$2:$I$23</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9558" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10490" uniqueCount="478">
   <si>
     <t>description</t>
   </si>
@@ -1582,13 +1582,16 @@
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
+  <si>
+    <t>rename(target,newName)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="313" x14ac:knownFonts="1">
+  <fonts count="343" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3560,8 +3563,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="544">
+  <fills count="598">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6640,8 +6831,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="563">
+  <borders count="619">
     <border>
       <left/>
       <right/>
@@ -12319,6 +12816,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12326,7 +13387,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="339">
+  <cellXfs count="369">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13318,49 +14379,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="297" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="519" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="519" fontId="298" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="299" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="300" fillId="522" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="522" fontId="300" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="301" fillId="525" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="525" fontId="301" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="302" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="303" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="304" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="305" fillId="531" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="531" fontId="305" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="534" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="534" fontId="306" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="537" fontId="307" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="308" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="537" fontId="308" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="309" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="309" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="310" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="543" fontId="310" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="311" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="311" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="312" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="546" fontId="313" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="314" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="549" fontId="315" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="552" fontId="316" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="317" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="318" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="319" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="558" fontId="320" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="561" fontId="321" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="564" fontId="322" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="564" fontId="323" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="567" fontId="324" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="570" fontId="325" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="567" fontId="326" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="327" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="573" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="576" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="579" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="585" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="588" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="591" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="591" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14456,7 +15607,7 @@
         <v>326</v>
       </c>
       <c r="I14" t="s">
-        <v>83</v>
+        <v>477</v>
       </c>
       <c r="K14" t="s">
         <v>43</v>
@@ -14485,7 +15636,7 @@
         <v>266</v>
       </c>
       <c r="I15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M15" t="s">
         <v>96</v>
@@ -14511,7 +15662,7 @@
         <v>318</v>
       </c>
       <c r="I16" t="s">
-        <v>381</v>
+        <v>84</v>
       </c>
       <c r="N16" t="s">
         <v>253</v>
@@ -14534,7 +15685,7 @@
         <v>89</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>381</v>
       </c>
       <c r="U17" t="s">
         <v>105</v>
@@ -14551,7 +15702,7 @@
         <v>90</v>
       </c>
       <c r="I18" t="s">
-        <v>406</v>
+        <v>44</v>
       </c>
       <c r="U18" t="s">
         <v>106</v>
@@ -14568,7 +15719,7 @@
         <v>297</v>
       </c>
       <c r="I19" t="s">
-        <v>85</v>
+        <v>406</v>
       </c>
       <c r="U19" t="s">
         <v>107</v>
@@ -14585,7 +15736,7 @@
         <v>298</v>
       </c>
       <c r="I20" t="s">
-        <v>461</v>
+        <v>85</v>
       </c>
       <c r="U20" t="s">
         <v>108</v>
@@ -14602,7 +15753,7 @@
         <v>299</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>461</v>
       </c>
       <c r="U21" t="s">
         <v>109</v>
@@ -14619,7 +15770,7 @@
         <v>300</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U22" t="s">
         <v>110</v>
@@ -14634,6 +15785,9 @@
       </c>
       <c r="E23" t="s">
         <v>291</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
       </c>
       <c r="U23" t="s">
         <v>111</v>

--- a/artifact/script/ws-01.xlsx
+++ b/artifact/script/ws-01.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$34</definedName>
+    <definedName name="base">'#system'!$C$2:$C$36</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10490" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11426" uniqueCount="480">
   <si>
     <t>description</t>
   </si>
@@ -1585,13 +1585,19 @@
   <si>
     <t>rename(target,newName)</t>
   </si>
+  <si>
+    <t>assertArrayContain(array,expected)</t>
+  </si>
+  <si>
+    <t>assertArrayNotContain(array,unexpected)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="343" x14ac:knownFonts="1">
+  <fonts count="373" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3751,8 +3757,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="598">
+  <fills count="652">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7137,8 +7331,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="619">
+  <borders count="675">
     <border>
       <left/>
       <right/>
@@ -13380,6 +13880,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13387,7 +14451,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="369">
+  <cellXfs count="399">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14469,49 +15533,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="327" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="573" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="573" fontId="328" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="329" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="576" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="576" fontId="330" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="579" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="579" fontId="331" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="332" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="333" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="334" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="585" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="585" fontId="335" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="588" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="588" fontId="336" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="591" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="591" fontId="337" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="591" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="591" fontId="338" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="339" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="597" fontId="340" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="341" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="342" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="600" fontId="343" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="344" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="603" fontId="345" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="606" fontId="346" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="347" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="348" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="349" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="612" fontId="350" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="615" fontId="351" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="618" fontId="352" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="618" fontId="353" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="621" fontId="354" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="624" fontId="355" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="621" fontId="356" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="357" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="627" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="630" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="633" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="639" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="642" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="645" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="645" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15045,7 +16199,7 @@
         <v>374</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>478</v>
       </c>
       <c r="D3" t="s">
         <v>366</v>
@@ -15119,7 +16273,7 @@
         <v>375</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>73</v>
@@ -15190,7 +16344,7 @@
         <v>376</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>479</v>
       </c>
       <c r="D5" t="s">
         <v>460</v>
@@ -15255,7 +16409,7 @@
         <v>377</v>
       </c>
       <c r="C6" t="s">
-        <v>319</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>389</v>
@@ -15311,7 +16465,7 @@
         <v>378</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="E7" t="s">
         <v>367</v>
@@ -15367,7 +16521,7 @@
         <v>379</v>
       </c>
       <c r="C8" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E8" t="s">
         <v>368</v>
@@ -15420,7 +16574,7 @@
         <v>380</v>
       </c>
       <c r="C9" t="s">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>307</v>
@@ -15461,7 +16615,7 @@
         <v>334</v>
       </c>
       <c r="C10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E10" t="s">
         <v>353</v>
@@ -15499,7 +16653,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>342</v>
+        <v>256</v>
       </c>
       <c r="E11" t="s">
         <v>275</v>
@@ -15534,7 +16688,7 @@
         <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>320</v>
       </c>
       <c r="E12" t="s">
         <v>264</v>
@@ -15566,7 +16720,7 @@
         <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>342</v>
       </c>
       <c r="E13" t="s">
         <v>317</v>
@@ -15598,7 +16752,7 @@
         <v>240</v>
       </c>
       <c r="C14" t="s">
-        <v>386</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
         <v>265</v>
@@ -15630,7 +16784,7 @@
         <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>387</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
         <v>266</v>
@@ -15656,7 +16810,7 @@
         <v>415</v>
       </c>
       <c r="C16" t="s">
-        <v>427</v>
+        <v>386</v>
       </c>
       <c r="E16" t="s">
         <v>318</v>
@@ -15679,7 +16833,7 @@
         <v>438</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>387</v>
       </c>
       <c r="E17" t="s">
         <v>89</v>
@@ -15696,7 +16850,7 @@
         <v>426</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>427</v>
       </c>
       <c r="E18" t="s">
         <v>90</v>
@@ -15713,7 +16867,7 @@
         <v>358</v>
       </c>
       <c r="C19" t="s">
-        <v>257</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
         <v>297</v>
@@ -15730,7 +16884,7 @@
         <v>411</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
         <v>298</v>
@@ -15747,7 +16901,7 @@
         <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>322</v>
+        <v>257</v>
       </c>
       <c r="E21" t="s">
         <v>299</v>
@@ -15764,7 +16918,7 @@
         <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
         <v>300</v>
@@ -15781,7 +16935,7 @@
         <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>468</v>
+        <v>322</v>
       </c>
       <c r="E23" t="s">
         <v>291</v>
@@ -15798,7 +16952,7 @@
         <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>226</v>
+        <v>63</v>
       </c>
       <c r="E24" t="s">
         <v>280</v>
@@ -15812,7 +16966,7 @@
         <v>439</v>
       </c>
       <c r="C25" t="s">
-        <v>227</v>
+        <v>468</v>
       </c>
       <c r="E25" t="s">
         <v>76</v>
@@ -15826,7 +16980,7 @@
         <v>228</v>
       </c>
       <c r="C26" t="s">
-        <v>437</v>
+        <v>226</v>
       </c>
       <c r="E26" t="s">
         <v>283</v>
@@ -15837,7 +16991,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>64</v>
+        <v>227</v>
       </c>
       <c r="E27" t="s">
         <v>267</v>
@@ -15848,7 +17002,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>65</v>
+        <v>437</v>
       </c>
       <c r="E28" t="s">
         <v>284</v>
@@ -15859,7 +17013,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
         <v>285</v>
@@ -15870,7 +17024,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E30" t="s">
         <v>217</v>
@@ -15881,7 +17035,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E31" t="s">
         <v>276</v>
@@ -15892,7 +17046,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E32" t="s">
         <v>286</v>
@@ -15903,7 +17057,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E33" t="s">
         <v>261</v>
@@ -15914,7 +17068,7 @@
     </row>
     <row r="34">
       <c r="C34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E34" t="s">
         <v>331</v>
@@ -15924,6 +17078,9 @@
       </c>
     </row>
     <row r="35">
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
       <c r="E35" t="s">
         <v>308</v>
       </c>
@@ -15932,6 +17089,9 @@
       </c>
     </row>
     <row r="36">
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
       <c r="E36" t="s">
         <v>262</v>
       </c>

--- a/artifact/script/ws-01.xlsx
+++ b/artifact/script/ws-01.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11426" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11895" uniqueCount="481">
   <si>
     <t>description</t>
   </si>
@@ -1591,13 +1591,16 @@
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
   </si>
+  <si>
+    <t>deselect(locator,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="373" x14ac:knownFonts="1">
+  <fonts count="388" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3945,8 +3948,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="652">
+  <fills count="679">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7637,8 +7734,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="675">
+  <borders count="703">
     <border>
       <left/>
       <right/>
@@ -14444,6 +14694,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -14451,7 +14983,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="399">
+  <cellXfs count="414">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15623,49 +16155,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="357" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="627" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="627" fontId="358" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="359" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="360" fillId="630" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="630" fontId="360" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="361" fillId="633" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="633" fontId="361" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="362" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="363" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="363" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="364" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="639" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="639" fontId="365" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="366" fillId="642" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="642" fontId="366" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="367" fillId="645" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="645" fontId="367" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="368" fillId="645" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="645" fontId="368" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="369" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="648" fontId="369" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="370" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="651" fontId="370" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="371" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="648" fontId="371" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="372" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="654" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="657" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="660" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="666" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="669" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="672" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="672" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="675" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="675" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16020,7 +16597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -17232,7 +17809,7 @@
         <v>269</v>
       </c>
       <c r="U53" t="s">
-        <v>132</v>
+        <v>480</v>
       </c>
     </row>
     <row r="54">
@@ -17240,7 +17817,7 @@
         <v>293</v>
       </c>
       <c r="U54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55">
@@ -17248,7 +17825,7 @@
         <v>294</v>
       </c>
       <c r="U55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56">
@@ -17256,7 +17833,7 @@
         <v>295</v>
       </c>
       <c r="U56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57">
@@ -17264,7 +17841,7 @@
         <v>304</v>
       </c>
       <c r="U57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58">
@@ -17272,7 +17849,7 @@
         <v>313</v>
       </c>
       <c r="U58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59">
@@ -17280,7 +17857,7 @@
         <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60">
@@ -17288,7 +17865,7 @@
         <v>310</v>
       </c>
       <c r="U60" t="s">
-        <v>457</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61">
@@ -17296,7 +17873,7 @@
         <v>311</v>
       </c>
       <c r="U61" t="s">
-        <v>215</v>
+        <v>457</v>
       </c>
     </row>
     <row r="62">
@@ -17304,7 +17881,7 @@
         <v>370</v>
       </c>
       <c r="U62" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63">
@@ -17312,7 +17889,7 @@
         <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>463</v>
+        <v>390</v>
       </c>
     </row>
     <row r="64">
@@ -17320,7 +17897,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>139</v>
+        <v>463</v>
       </c>
     </row>
     <row r="65">
@@ -17328,7 +17905,7 @@
         <v>314</v>
       </c>
       <c r="U65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66">
@@ -17336,7 +17913,7 @@
         <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67">
@@ -17344,7 +17921,7 @@
         <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68">
@@ -17352,7 +17929,7 @@
         <v>315</v>
       </c>
       <c r="U68" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69">
@@ -17360,7 +17937,7 @@
         <v>428</v>
       </c>
       <c r="U69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70">
@@ -17368,7 +17945,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>475</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71">
@@ -17376,7 +17953,7 @@
         <v>416</v>
       </c>
       <c r="U71" t="s">
-        <v>143</v>
+        <v>475</v>
       </c>
     </row>
     <row r="72">
@@ -17384,7 +17961,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73">
@@ -17392,7 +17969,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74">
@@ -17400,7 +17977,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75">
@@ -17408,7 +17985,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76">
@@ -17416,7 +17993,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77">
@@ -17424,7 +18001,7 @@
         <v>440</v>
       </c>
       <c r="U77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78">
@@ -17432,7 +18009,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>474</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79">
@@ -17440,7 +18017,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>202</v>
+        <v>474</v>
       </c>
     </row>
     <row r="80">
@@ -17448,7 +18025,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81">
@@ -17456,7 +18033,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82">
@@ -17464,7 +18041,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>148</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83">
@@ -17472,7 +18049,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84">
@@ -17480,7 +18057,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>454</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85">
@@ -17488,7 +18065,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="86">
@@ -17496,7 +18073,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>205</v>
+        <v>456</v>
       </c>
     </row>
     <row r="87">
@@ -17504,7 +18081,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88">
@@ -17512,7 +18089,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89">
@@ -17520,7 +18097,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90">
@@ -17528,7 +18105,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91">
@@ -17536,7 +18113,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92">
@@ -17544,126 +18121,131 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>459</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>164</v>
+        <v>459</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="116">
       <c r="U116" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="U117" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/ws-01.xlsx
+++ b/artifact/script/ws-01.xlsx
@@ -19,36 +19,37 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$36</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
+    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
-    <definedName name="external">'#system'!$G$2:$G$3</definedName>
-    <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
-    <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$14</definedName>
-    <definedName name="mail">'#system'!$L$2:$L$2</definedName>
+    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
+    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
+    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
+    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$15</definedName>
-    <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
-    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
-    <definedName name="step">'#system'!$T$2:$T$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$117</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
-    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
-    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="number">'#system'!$N$2:$N$15</definedName>
+    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
+    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
+    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
+    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
+    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
+    <definedName name="step">'#system'!$U$2:$U$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$27</definedName>
+    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
+    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
+    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
+    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11895" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12371" uniqueCount="487">
   <si>
     <t>description</t>
   </si>
@@ -1594,13 +1595,31 @@
   <si>
     <t>deselect(locator,text)</t>
   </si>
+  <si>
+    <t>aws.ses</t>
+  </si>
+  <si>
+    <t>sendHtmlMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendTextMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>clickWithKeys(locator,keys)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="388" x14ac:knownFonts="1">
+  <fonts count="404" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4042,8 +4061,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="679">
+  <fills count="706">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7887,8 +8007,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="703">
+  <borders count="731">
     <border>
       <left/>
       <right/>
@@ -14976,6 +15249,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -14983,7 +15538,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="414">
+  <cellXfs count="430">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16200,49 +16755,97 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="372" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="654" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="682" fillId="654" fontId="373" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="374" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="657" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="657" fontId="375" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="376" fillId="660" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="660" fontId="376" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="377" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="378" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="378" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="379" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="666" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="694" fillId="666" fontId="380" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="669" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="669" fontId="381" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="672" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="672" fontId="382" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="672" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="672" fontId="383" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="675" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="675" fontId="384" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="678" fontId="385" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="675" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="675" fontId="386" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="387" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="681" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="684" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="687" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="690" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="696" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="699" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="705" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16597,7 +17200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -16616,75 +17219,78 @@
         <v>372</v>
       </c>
       <c r="C1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>348</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>334</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>197</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>52</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>240</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>53</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>415</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>438</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>426</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>358</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>411</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>54</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>55</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>56</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>57</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>439</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -16696,1556 +17302,1576 @@
         <v>373</v>
       </c>
       <c r="C2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>72</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>74</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>469</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>79</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>350</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>316</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>385</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>441</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>429</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>442</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>254</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>218</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>417</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>445</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>432</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>382</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>412</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>97</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>172</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>177</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>184</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>447</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>481</v>
       </c>
       <c r="B3" t="s">
         <v>374</v>
       </c>
       <c r="C3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D3" t="s">
         <v>478</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>366</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>88</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>49</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>351</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>342</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>335</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>86</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>443</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>241</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>219</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>418</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>433</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>383</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>413</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>98</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>173</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>178</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>365</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>185</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>375</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>73</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>388</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>470</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>352</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>239</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>336</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>242</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>220</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>419</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>434</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>359</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>414</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>355</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>174</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>179</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>185</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>448</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
         <v>376</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>479</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>460</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>337</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>476</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>349</v>
       </c>
-      <c r="I5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
+        <v>484</v>
+      </c>
+      <c r="L5" t="s">
         <v>87</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>30</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>243</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>221</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>420</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>435</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>360</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>356</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>175</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>180</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>186</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>449</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>377</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>389</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>471</v>
       </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>31</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>244</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>392</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>421</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>362</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>99</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>464</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>181</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>187</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>450</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>378</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>225</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>367</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>467</v>
       </c>
-      <c r="I7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
         <v>316</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>33</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>245</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>431</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>422</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>361</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>100</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>465</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>182</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>188</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>451</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>348</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>379</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>319</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>368</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>329</v>
       </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>91</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>246</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>423</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>363</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>101</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>176</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>183</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>189</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>452</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>348</v>
       </c>
       <c r="B9" t="s">
         <v>380</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>307</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>330</v>
       </c>
-      <c r="I9" t="s">
-        <v>391</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>92</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>247</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>424</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>364</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>210</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>190</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>316</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>353</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>472</v>
       </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" t="s">
+        <v>391</v>
+      </c>
+      <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>444</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>248</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>425</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>258</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>191</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
+        <v>334</v>
+      </c>
+      <c r="D11" t="s">
         <v>256</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>275</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>323</v>
       </c>
-      <c r="I11" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
         <v>462</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>93</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>249</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>259</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>260</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>320</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>264</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>324</v>
       </c>
-      <c r="I12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" t="s">
         <v>39</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>41</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>250</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>102</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" t="s">
         <v>342</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>317</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>325</v>
       </c>
-      <c r="I13" t="s">
-        <v>82</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J13" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" t="s">
         <v>40</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>94</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>255</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>327</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>240</v>
-      </c>
-      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>265</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>326</v>
       </c>
-      <c r="I14" t="s">
-        <v>477</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="J14" t="s">
+        <v>82</v>
+      </c>
+      <c r="L14" t="s">
         <v>43</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>95</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>251</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>103</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" t="s">
         <v>59</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>266</v>
       </c>
-      <c r="I15" t="s">
-        <v>83</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="J15" t="s">
+        <v>477</v>
+      </c>
+      <c r="N15" t="s">
         <v>96</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>252</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>104</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>415</v>
-      </c>
-      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
         <v>386</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>318</v>
       </c>
-      <c r="I16" t="s">
-        <v>84</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="J16" t="s">
+        <v>83</v>
+      </c>
+      <c r="O16" t="s">
         <v>253</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>75</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>438</v>
-      </c>
-      <c r="C17" t="s">
+        <v>415</v>
+      </c>
+      <c r="D17" t="s">
         <v>387</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>89</v>
       </c>
-      <c r="I17" t="s">
-        <v>381</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="J17" t="s">
+        <v>84</v>
+      </c>
+      <c r="V17" t="s">
         <v>105</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>426</v>
-      </c>
-      <c r="C18" t="s">
+        <v>438</v>
+      </c>
+      <c r="D18" t="s">
         <v>427</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>90</v>
       </c>
-      <c r="I18" t="s">
-        <v>44</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="J18" t="s">
+        <v>381</v>
+      </c>
+      <c r="V18" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>358</v>
-      </c>
-      <c r="C19" t="s">
+        <v>426</v>
+      </c>
+      <c r="D19" t="s">
         <v>60</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>297</v>
       </c>
-      <c r="I19" t="s">
-        <v>406</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+      <c r="V19" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>411</v>
-      </c>
-      <c r="C20" t="s">
+        <v>358</v>
+      </c>
+      <c r="D20" t="s">
         <v>61</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>298</v>
       </c>
-      <c r="I20" t="s">
-        <v>85</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="J20" t="s">
+        <v>406</v>
+      </c>
+      <c r="V20" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" t="s">
+        <v>411</v>
+      </c>
+      <c r="D21" t="s">
         <v>257</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>299</v>
       </c>
-      <c r="I21" t="s">
-        <v>461</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="J21" t="s">
+        <v>85</v>
+      </c>
+      <c r="V21" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
         <v>62</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>300</v>
       </c>
-      <c r="I22" t="s">
-        <v>45</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="J22" t="s">
+        <v>461</v>
+      </c>
+      <c r="V22" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
         <v>322</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>291</v>
       </c>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+      <c r="V23" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
         <v>63</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>280</v>
       </c>
-      <c r="U24" t="s">
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+      <c r="V24" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>439</v>
-      </c>
-      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
         <v>468</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>76</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>439</v>
+      </c>
+      <c r="D26" t="s">
+        <v>226</v>
+      </c>
+      <c r="F26" t="s">
+        <v>283</v>
+      </c>
+      <c r="V26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>228</v>
       </c>
-      <c r="C26" t="s">
-        <v>226</v>
-      </c>
-      <c r="E26" t="s">
-        <v>283</v>
-      </c>
-      <c r="U26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>227</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>267</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>437</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>284</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>64</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>285</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>65</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>217</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>66</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>276</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>67</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>286</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>68</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>261</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>69</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>331</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>70</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>308</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>71</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>262</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>309</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>268</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>78</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>213</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="41">
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>290</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>301</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>302</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>344</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>343</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>212</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>321</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="48">
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>340</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="49">
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>369</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>303</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>357</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="F52" t="s">
+        <v>332</v>
+      </c>
+      <c r="V52" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="52">
-      <c r="E52" t="s">
-        <v>332</v>
-      </c>
-      <c r="U52" t="s">
+    <row r="53">
+      <c r="F53" t="s">
+        <v>269</v>
+      </c>
+      <c r="V53" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="53">
-      <c r="E53" t="s">
-        <v>269</v>
-      </c>
-      <c r="U53" t="s">
+    <row r="54">
+      <c r="F54" t="s">
+        <v>293</v>
+      </c>
+      <c r="V54" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="54">
-      <c r="E54" t="s">
-        <v>293</v>
-      </c>
-      <c r="U54" t="s">
+    <row r="55">
+      <c r="F55" t="s">
+        <v>294</v>
+      </c>
+      <c r="V55" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="55">
-      <c r="E55" t="s">
-        <v>294</v>
-      </c>
-      <c r="U55" t="s">
+    <row r="56">
+      <c r="F56" t="s">
+        <v>295</v>
+      </c>
+      <c r="V56" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="56">
-      <c r="E56" t="s">
-        <v>295</v>
-      </c>
-      <c r="U56" t="s">
+    <row r="57">
+      <c r="F57" t="s">
+        <v>304</v>
+      </c>
+      <c r="V57" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="57">
-      <c r="E57" t="s">
-        <v>304</v>
-      </c>
-      <c r="U57" t="s">
+    <row r="58">
+      <c r="F58" t="s">
+        <v>313</v>
+      </c>
+      <c r="V58" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="58">
-      <c r="E58" t="s">
-        <v>313</v>
-      </c>
-      <c r="U58" t="s">
+    <row r="59">
+      <c r="F59" t="s">
+        <v>338</v>
+      </c>
+      <c r="V59" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="59">
-      <c r="E59" t="s">
-        <v>338</v>
-      </c>
-      <c r="U59" t="s">
+    <row r="60">
+      <c r="F60" t="s">
+        <v>310</v>
+      </c>
+      <c r="V60" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="60">
-      <c r="E60" t="s">
-        <v>310</v>
-      </c>
-      <c r="U60" t="s">
+    <row r="61">
+      <c r="F61" t="s">
+        <v>311</v>
+      </c>
+      <c r="V61" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="61">
-      <c r="E61" t="s">
-        <v>311</v>
-      </c>
-      <c r="U61" t="s">
+    <row r="62">
+      <c r="F62" t="s">
+        <v>370</v>
+      </c>
+      <c r="V62" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="62">
-      <c r="E62" t="s">
-        <v>370</v>
-      </c>
-      <c r="U62" t="s">
+    <row r="63">
+      <c r="F63" t="s">
+        <v>371</v>
+      </c>
+      <c r="V63" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="63">
-      <c r="E63" t="s">
-        <v>371</v>
-      </c>
-      <c r="U63" t="s">
+    <row r="64">
+      <c r="F64" t="s">
+        <v>346</v>
+      </c>
+      <c r="V64" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="64">
-      <c r="E64" t="s">
-        <v>346</v>
-      </c>
-      <c r="U64" t="s">
+    <row r="65">
+      <c r="F65" t="s">
+        <v>314</v>
+      </c>
+      <c r="V65" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="65">
-      <c r="E65" t="s">
-        <v>314</v>
-      </c>
-      <c r="U65" t="s">
+    <row r="66">
+      <c r="F66" t="s">
+        <v>270</v>
+      </c>
+      <c r="V66" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="66">
-      <c r="E66" t="s">
-        <v>270</v>
-      </c>
-      <c r="U66" t="s">
+    <row r="67">
+      <c r="F67" t="s">
+        <v>354</v>
+      </c>
+      <c r="V67" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="67">
-      <c r="E67" t="s">
-        <v>354</v>
-      </c>
-      <c r="U67" t="s">
+    <row r="68">
+      <c r="F68" t="s">
+        <v>315</v>
+      </c>
+      <c r="V68" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="68">
-      <c r="E68" t="s">
-        <v>315</v>
-      </c>
-      <c r="U68" t="s">
+    <row r="69">
+      <c r="F69" t="s">
+        <v>428</v>
+      </c>
+      <c r="V69" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="69">
-      <c r="E69" t="s">
-        <v>428</v>
-      </c>
-      <c r="U69" t="s">
+    <row r="70">
+      <c r="F70" t="s">
+        <v>305</v>
+      </c>
+      <c r="V70" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="70">
-      <c r="E70" t="s">
-        <v>305</v>
-      </c>
-      <c r="U70" t="s">
+    <row r="71">
+      <c r="F71" t="s">
+        <v>416</v>
+      </c>
+      <c r="V71" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="71">
-      <c r="E71" t="s">
-        <v>416</v>
-      </c>
-      <c r="U71" t="s">
+    <row r="72">
+      <c r="F72" t="s">
+        <v>263</v>
+      </c>
+      <c r="V72" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="72">
-      <c r="E72" t="s">
-        <v>263</v>
-      </c>
-      <c r="U72" t="s">
+    <row r="73">
+      <c r="F73" t="s">
+        <v>345</v>
+      </c>
+      <c r="V73" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="73">
-      <c r="E73" t="s">
-        <v>345</v>
-      </c>
-      <c r="U73" t="s">
+    <row r="74">
+      <c r="F74" t="s">
+        <v>281</v>
+      </c>
+      <c r="V74" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="74">
-      <c r="E74" t="s">
-        <v>281</v>
-      </c>
-      <c r="U74" t="s">
+    <row r="75">
+      <c r="F75" t="s">
+        <v>287</v>
+      </c>
+      <c r="V75" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="75">
-      <c r="E75" t="s">
-        <v>287</v>
-      </c>
-      <c r="U75" t="s">
+    <row r="76">
+      <c r="F76" t="s">
+        <v>292</v>
+      </c>
+      <c r="V76" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="76">
-      <c r="E76" t="s">
-        <v>292</v>
-      </c>
-      <c r="U76" t="s">
+    <row r="77">
+      <c r="F77" t="s">
+        <v>440</v>
+      </c>
+      <c r="V77" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="77">
-      <c r="E77" t="s">
-        <v>440</v>
-      </c>
-      <c r="U77" t="s">
+    <row r="78">
+      <c r="F78" t="s">
+        <v>333</v>
+      </c>
+      <c r="V78" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="78">
-      <c r="E78" t="s">
-        <v>333</v>
-      </c>
-      <c r="U78" t="s">
+    <row r="79">
+      <c r="F79" t="s">
+        <v>271</v>
+      </c>
+      <c r="V79" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="79">
-      <c r="E79" t="s">
-        <v>271</v>
-      </c>
-      <c r="U79" t="s">
+    <row r="80">
+      <c r="F80" t="s">
+        <v>282</v>
+      </c>
+      <c r="V80" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="80">
-      <c r="E80" t="s">
-        <v>282</v>
-      </c>
-      <c r="U80" t="s">
+    <row r="81">
+      <c r="F81" t="s">
+        <v>288</v>
+      </c>
+      <c r="V81" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="81">
-      <c r="E81" t="s">
-        <v>288</v>
-      </c>
-      <c r="U81" t="s">
+    <row r="82">
+      <c r="F82" t="s">
+        <v>277</v>
+      </c>
+      <c r="V82" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="82">
-      <c r="E82" t="s">
-        <v>277</v>
-      </c>
-      <c r="U82" t="s">
+    <row r="83">
+      <c r="F83" t="s">
+        <v>272</v>
+      </c>
+      <c r="V83" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="83">
-      <c r="E83" t="s">
-        <v>272</v>
-      </c>
-      <c r="U83" t="s">
+    <row r="84">
+      <c r="F84" t="s">
+        <v>289</v>
+      </c>
+      <c r="V84" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="84">
-      <c r="E84" t="s">
-        <v>289</v>
-      </c>
-      <c r="U84" t="s">
+    <row r="85">
+      <c r="F85" t="s">
+        <v>273</v>
+      </c>
+      <c r="V85" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="85">
-      <c r="E85" t="s">
-        <v>273</v>
-      </c>
-      <c r="U85" t="s">
+    <row r="86">
+      <c r="F86" t="s">
+        <v>274</v>
+      </c>
+      <c r="V86" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="86">
-      <c r="E86" t="s">
-        <v>274</v>
-      </c>
-      <c r="U86" t="s">
+    <row r="87">
+      <c r="F87" t="s">
+        <v>306</v>
+      </c>
+      <c r="V87" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="87">
-      <c r="E87" t="s">
-        <v>306</v>
-      </c>
-      <c r="U87" t="s">
+    <row r="88">
+      <c r="F88" t="s">
+        <v>312</v>
+      </c>
+      <c r="V88" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="88">
-      <c r="E88" t="s">
-        <v>312</v>
-      </c>
-      <c r="U88" t="s">
+    <row r="89">
+      <c r="F89" t="s">
+        <v>296</v>
+      </c>
+      <c r="V89" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="89">
-      <c r="E89" t="s">
-        <v>296</v>
-      </c>
-      <c r="U89" t="s">
+    <row r="90">
+      <c r="F90" t="s">
+        <v>341</v>
+      </c>
+      <c r="V90" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="90">
-      <c r="E90" t="s">
-        <v>341</v>
-      </c>
-      <c r="U90" t="s">
+    <row r="91">
+      <c r="F91" t="s">
+        <v>278</v>
+      </c>
+      <c r="V91" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="91">
-      <c r="E91" t="s">
-        <v>278</v>
-      </c>
-      <c r="U91" t="s">
+    <row r="92">
+      <c r="F92" t="s">
+        <v>279</v>
+      </c>
+      <c r="V92" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="92">
-      <c r="E92" t="s">
-        <v>279</v>
-      </c>
-      <c r="U92" t="s">
+    <row r="93">
+      <c r="V93" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="93">
-      <c r="U93" t="s">
+    <row r="94">
+      <c r="V94" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="94">
-      <c r="U94" t="s">
+    <row r="95">
+      <c r="V95" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="95">
-      <c r="U95" t="s">
+    <row r="96">
+      <c r="V96" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="96">
-      <c r="U96" t="s">
+    <row r="97">
+      <c r="V97" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="97">
-      <c r="U97" t="s">
+    <row r="98">
+      <c r="V98" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="98">
-      <c r="U98" t="s">
+    <row r="99">
+      <c r="V99" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="99">
-      <c r="U99" t="s">
+    <row r="100">
+      <c r="V100" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="100">
-      <c r="U100" t="s">
+    <row r="101">
+      <c r="V101" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="101">
-      <c r="U101" t="s">
+    <row r="102">
+      <c r="V102" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="102">
-      <c r="U102" t="s">
+    <row r="103">
+      <c r="V103" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="103">
-      <c r="U103" t="s">
+    <row r="104">
+      <c r="V104" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="104">
-      <c r="U104" t="s">
+    <row r="105">
+      <c r="V105" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="105">
-      <c r="U105" t="s">
+    <row r="106">
+      <c r="V106" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="106">
-      <c r="U106" t="s">
+    <row r="107">
+      <c r="V107" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="107">
-      <c r="U107" t="s">
+    <row r="108">
+      <c r="V108" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="108">
-      <c r="U108" t="s">
+    <row r="109">
+      <c r="V109" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="109">
-      <c r="U109" t="s">
+    <row r="110">
+      <c r="V110" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="110">
-      <c r="U110" t="s">
+    <row r="111">
+      <c r="V111" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="111">
-      <c r="U111" t="s">
+    <row r="112">
+      <c r="V112" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="112">
-      <c r="U112" t="s">
+    <row r="113">
+      <c r="V113" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="113">
-      <c r="U113" t="s">
+    <row r="114">
+      <c r="V114" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="114">
-      <c r="U114" t="s">
+    <row r="115">
+      <c r="V115" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="115">
-      <c r="U115" t="s">
+    <row r="116">
+      <c r="V116" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="116">
-      <c r="U116" t="s">
+    <row r="117">
+      <c r="V117" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="117">
-      <c r="U117" t="s">
+    <row r="118">
+      <c r="V118" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/ws-01.xlsx
+++ b/artifact/script/ws-01.xlsx
@@ -26,7 +26,7 @@
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
-    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$24</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12371" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12848" uniqueCount="488">
   <si>
     <t>description</t>
   </si>
@@ -1613,13 +1613,16 @@
   <si>
     <t>upload(url,body,fileParams,var)</t>
   </si>
+  <si>
+    <t>colorbit(source,bit,saveTo)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="404" x14ac:knownFonts="1">
+  <fonts count="420" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4162,8 +4165,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="706">
+  <fills count="733">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8160,8 +8264,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="731">
+  <borders count="759">
     <border>
       <left/>
       <right/>
@@ -15531,6 +15788,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -15538,7 +16077,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="430">
+  <cellXfs count="446">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16800,52 +17339,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="387" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="388" fillId="681" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="710" fillId="681" fontId="388" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="389" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="684" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="714" fillId="684" fontId="390" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="687" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="687" fontId="391" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="690" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="690" fontId="392" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="393" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="394" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="693" fontId="394" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="395" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="396" fillId="696" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="696" fontId="396" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="397" fillId="699" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="726" fillId="699" fontId="397" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="702" fontId="398" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="399" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="702" fontId="399" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="400" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="400" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="401" fillId="705" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="705" fontId="401" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="402" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="402" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="403" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="708" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="711" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="714" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="717" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="720" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="723" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="726" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="729" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="729" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="732" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17320,7 +17907,7 @@
         <v>79</v>
       </c>
       <c r="I2" t="s">
-        <v>350</v>
+        <v>487</v>
       </c>
       <c r="J2" t="s">
         <v>316</v>
@@ -17403,7 +17990,7 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J3" t="s">
         <v>342</v>
@@ -17474,7 +18061,7 @@
         <v>470</v>
       </c>
       <c r="I4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J4" t="s">
         <v>239</v>
@@ -17545,7 +18132,7 @@
         <v>476</v>
       </c>
       <c r="I5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="J5" t="s">
         <v>484</v>
@@ -17605,6 +18192,9 @@
       </c>
       <c r="G6" t="s">
         <v>471</v>
+      </c>
+      <c r="I6" t="s">
+        <v>349</v>
       </c>
       <c r="J6" t="s">
         <v>72</v>

--- a/artifact/script/ws-01.xlsx
+++ b/artifact/script/ws-01.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -27,7 +27,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="web">'#system'!$V$2:$V$119</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12848" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13809" uniqueCount="492">
   <si>
     <t>description</t>
   </si>
@@ -1616,13 +1616,25 @@
   <si>
     <t>colorbit(source,bit,saveTo)</t>
   </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>openIgnoreTimeout(url)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="420" x14ac:knownFonts="1">
+  <fonts count="452" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4266,8 +4278,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="733">
+  <fills count="787">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8417,8 +8631,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="759">
+  <borders count="815">
     <border>
       <left/>
       <right/>
@@ -16070,6 +16590,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -16077,7 +17161,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="446">
+  <cellXfs count="478">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17387,52 +18471,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="403" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="708" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="708" fontId="404" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="405" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="711" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="742" fillId="711" fontId="406" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="407" fillId="714" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="714" fontId="407" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="408" fillId="717" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="717" fontId="408" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="409" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="410" fillId="720" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="720" fontId="410" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="411" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="412" fillId="723" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="750" fillId="723" fontId="412" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="413" fillId="726" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="726" fontId="413" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="414" fillId="729" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="729" fontId="414" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="415" fillId="729" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="729" fontId="415" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="416" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="416" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="417" fillId="732" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="732" fontId="417" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="418" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="418" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="419" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="419" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="766" fillId="735" fontId="420" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="421" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="770" fillId="738" fontId="422" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="741" fontId="423" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="744" fontId="424" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="425" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="747" fontId="426" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="427" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="778" fillId="750" fontId="428" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="782" fillId="753" fontId="429" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="756" fontId="430" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="756" fontId="431" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="432" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="759" fontId="433" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="434" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="435" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="762" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="765" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="768" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="771" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="774" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="777" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="780" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="783" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="783" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="786" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17787,7 +18967,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -18655,7 +19835,7 @@
         <v>297</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>491</v>
       </c>
       <c r="V19" t="s">
         <v>107</v>
@@ -18672,7 +19852,7 @@
         <v>298</v>
       </c>
       <c r="J20" t="s">
-        <v>406</v>
+        <v>44</v>
       </c>
       <c r="V20" t="s">
         <v>108</v>
@@ -18689,7 +19869,7 @@
         <v>299</v>
       </c>
       <c r="J21" t="s">
-        <v>85</v>
+        <v>406</v>
       </c>
       <c r="V21" t="s">
         <v>109</v>
@@ -18706,7 +19886,7 @@
         <v>300</v>
       </c>
       <c r="J22" t="s">
-        <v>461</v>
+        <v>85</v>
       </c>
       <c r="V22" t="s">
         <v>110</v>
@@ -18723,7 +19903,7 @@
         <v>291</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>461</v>
       </c>
       <c r="V23" t="s">
         <v>111</v>
@@ -18740,7 +19920,7 @@
         <v>280</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V24" t="s">
         <v>112</v>
@@ -18756,6 +19936,9 @@
       <c r="F25" t="s">
         <v>76</v>
       </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
       <c r="V25" t="s">
         <v>113</v>
       </c>
@@ -18790,7 +19973,7 @@
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>437</v>
+        <v>488</v>
       </c>
       <c r="F28" t="s">
         <v>284</v>
@@ -18801,7 +19984,7 @@
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>64</v>
+        <v>489</v>
       </c>
       <c r="F29" t="s">
         <v>285</v>
@@ -18812,7 +19995,7 @@
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>65</v>
+        <v>437</v>
       </c>
       <c r="F30" t="s">
         <v>217</v>
@@ -18823,7 +20006,7 @@
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F31" t="s">
         <v>276</v>
@@ -18834,7 +20017,7 @@
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F32" t="s">
         <v>286</v>
@@ -18845,7 +20028,7 @@
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F33" t="s">
         <v>261</v>
@@ -18856,7 +20039,7 @@
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F34" t="s">
         <v>331</v>
@@ -18867,7 +20050,7 @@
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F35" t="s">
         <v>308</v>
@@ -18878,7 +20061,7 @@
     </row>
     <row r="36">
       <c r="D36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
         <v>262</v>
@@ -18888,6 +20071,9 @@
       </c>
     </row>
     <row r="37">
+      <c r="D37" t="s">
+        <v>70</v>
+      </c>
       <c r="F37" t="s">
         <v>309</v>
       </c>
@@ -18896,6 +20082,9 @@
       </c>
     </row>
     <row r="38">
+      <c r="D38" t="s">
+        <v>71</v>
+      </c>
       <c r="F38" t="s">
         <v>268</v>
       </c>
@@ -19180,7 +20369,7 @@
         <v>345</v>
       </c>
       <c r="V73" t="s">
-        <v>143</v>
+        <v>490</v>
       </c>
     </row>
     <row r="74">
@@ -19188,7 +20377,7 @@
         <v>281</v>
       </c>
       <c r="V74" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75">
@@ -19196,7 +20385,7 @@
         <v>287</v>
       </c>
       <c r="V75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76">
@@ -19204,7 +20393,7 @@
         <v>292</v>
       </c>
       <c r="V76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77">
@@ -19212,7 +20401,7 @@
         <v>440</v>
       </c>
       <c r="V77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78">
@@ -19220,7 +20409,7 @@
         <v>333</v>
       </c>
       <c r="V78" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79">
@@ -19228,7 +20417,7 @@
         <v>271</v>
       </c>
       <c r="V79" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80">
@@ -19236,7 +20425,7 @@
         <v>282</v>
       </c>
       <c r="V80" t="s">
-        <v>474</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81">
@@ -19244,7 +20433,7 @@
         <v>288</v>
       </c>
       <c r="V81" t="s">
-        <v>202</v>
+        <v>474</v>
       </c>
     </row>
     <row r="82">
@@ -19252,7 +20441,7 @@
         <v>277</v>
       </c>
       <c r="V82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83">
@@ -19260,7 +20449,7 @@
         <v>272</v>
       </c>
       <c r="V83" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84">
@@ -19268,7 +20457,7 @@
         <v>289</v>
       </c>
       <c r="V84" t="s">
-        <v>148</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85">
@@ -19276,7 +20465,7 @@
         <v>273</v>
       </c>
       <c r="V85" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86">
@@ -19284,7 +20473,7 @@
         <v>274</v>
       </c>
       <c r="V86" t="s">
-        <v>454</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87">
@@ -19292,7 +20481,7 @@
         <v>306</v>
       </c>
       <c r="V87" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="88">
@@ -19300,7 +20489,7 @@
         <v>312</v>
       </c>
       <c r="V88" t="s">
-        <v>205</v>
+        <v>456</v>
       </c>
     </row>
     <row r="89">
@@ -19308,7 +20497,7 @@
         <v>296</v>
       </c>
       <c r="V89" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90">
@@ -19316,7 +20505,7 @@
         <v>341</v>
       </c>
       <c r="V90" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91">
@@ -19324,7 +20513,7 @@
         <v>278</v>
       </c>
       <c r="V91" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92">
@@ -19332,136 +20521,141 @@
         <v>279</v>
       </c>
       <c r="V92" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>459</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>164</v>
+        <v>459</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="V119" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/ws-01.xlsx
+++ b/artifact/script/ws-01.xlsx
@@ -25,31 +25,32 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$14</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="json">'#system'!$L$2:$L$16</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13809" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14303" uniqueCount="506">
   <si>
     <t>description</t>
   </si>
@@ -1628,13 +1629,55 @@
   <si>
     <t>searchAndReplace(file,config,saveAs)</t>
   </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>beautify(json,var)</t>
+  </si>
+  <si>
+    <t>minify(json,var)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="452" x14ac:knownFonts="1">
+  <fonts count="468" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4480,8 +4523,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="787">
+  <fills count="814">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8937,8 +9081,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="815">
+  <borders count="843">
     <border>
       <left/>
       <right/>
@@ -17154,6 +17451,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -17161,7 +17740,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="478">
+  <cellXfs count="494">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18567,52 +19146,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="435" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="436" fillId="762" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="794" fillId="762" fontId="436" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="437" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="437" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="438" fillId="765" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="798" fillId="765" fontId="438" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="439" fillId="768" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="768" fontId="439" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="440" fillId="771" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="771" fontId="440" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="441" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="442" fillId="774" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="774" fontId="442" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="443" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="444" fillId="777" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="806" fillId="777" fontId="444" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="445" fillId="780" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="810" fillId="780" fontId="445" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="446" fillId="783" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="783" fontId="446" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="447" fillId="783" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="783" fontId="447" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="448" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="448" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="449" fillId="786" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="786" fontId="449" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="450" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="450" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="451" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="789" borderId="822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="792" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="795" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="798" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="801" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="804" borderId="834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="461" fillId="807" borderId="838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="810" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="463" fillId="810" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="813" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="467" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18967,7 +19594,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -19016,48 +19643,51 @@
         <v>24</v>
       </c>
       <c r="M1" t="s">
+        <v>492</v>
+      </c>
+      <c r="N1" t="s">
         <v>197</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>52</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>240</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>415</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>438</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>426</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>358</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>411</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>54</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>55</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>439</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -19099,48 +19729,51 @@
         <v>441</v>
       </c>
       <c r="M2" t="s">
+        <v>497</v>
+      </c>
+      <c r="N2" t="s">
         <v>429</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>442</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>254</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>218</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>417</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>445</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>432</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>382</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>412</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>97</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>172</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>177</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>184</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>447</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>229</v>
       </c>
     </row>
@@ -19167,7 +19800,7 @@
         <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>493</v>
       </c>
       <c r="I3" t="s">
         <v>350</v>
@@ -19181,43 +19814,46 @@
       <c r="L3" t="s">
         <v>86</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>498</v>
+      </c>
+      <c r="O3" t="s">
         <v>443</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>241</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>219</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>418</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>433</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>383</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>413</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>98</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>173</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>178</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>365</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>185</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>230</v>
       </c>
     </row>
@@ -19240,6 +19876,9 @@
       <c r="G4" t="s">
         <v>470</v>
       </c>
+      <c r="H4" t="s">
+        <v>494</v>
+      </c>
       <c r="I4" t="s">
         <v>351</v>
       </c>
@@ -19252,43 +19891,46 @@
       <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>499</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>242</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>220</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>419</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>434</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>359</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>414</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>355</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>174</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>179</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>185</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>448</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>231</v>
       </c>
     </row>
@@ -19320,40 +19962,40 @@
       <c r="L5" t="s">
         <v>87</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>30</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>243</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>221</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>420</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>435</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>360</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>356</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>175</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>180</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>186</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>449</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>232</v>
       </c>
     </row>
@@ -19382,37 +20024,37 @@
       <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>31</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>244</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>392</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>421</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>362</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>99</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>464</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>181</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>187</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>450</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>233</v>
       </c>
     </row>
@@ -19438,37 +20080,37 @@
       <c r="L7" t="s">
         <v>316</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>33</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>245</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>431</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>422</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>361</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>100</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>465</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>182</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>188</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>451</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>234</v>
       </c>
     </row>
@@ -19494,34 +20136,34 @@
       <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>91</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>246</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>423</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>363</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>101</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>176</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>183</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>189</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>452</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>235</v>
       </c>
     </row>
@@ -19547,26 +20189,26 @@
       <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>92</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>247</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>424</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>364</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>210</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>190</v>
       </c>
-      <c r="AA9" t="s">
-        <v>236</v>
+      <c r="AB9" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="10">
@@ -19588,23 +20230,23 @@
       <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>444</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>248</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>425</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>258</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>191</v>
       </c>
-      <c r="AA10" t="s">
-        <v>237</v>
+      <c r="AB10" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="11">
@@ -19624,22 +20266,22 @@
         <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>462</v>
-      </c>
-      <c r="N11" t="s">
+        <v>495</v>
+      </c>
+      <c r="O11" t="s">
         <v>93</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>249</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>259</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>260</v>
       </c>
-      <c r="AA11" t="s">
-        <v>238</v>
+      <c r="AB11" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="12">
@@ -19659,24 +20301,27 @@
         <v>42</v>
       </c>
       <c r="L12" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O12" t="s">
         <v>41</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>250</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>102</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>192</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>492</v>
       </c>
       <c r="D13" t="s">
         <v>342</v>
@@ -19691,24 +20336,27 @@
         <v>81</v>
       </c>
       <c r="L13" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13" t="s">
+        <v>496</v>
+      </c>
+      <c r="O13" t="s">
         <v>94</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>255</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>327</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>193</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -19723,24 +20371,24 @@
         <v>82</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
-      </c>
-      <c r="N14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" t="s">
         <v>95</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>251</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>103</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>240</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
         <v>59</v>
@@ -19751,22 +20399,25 @@
       <c r="J15" t="s">
         <v>477</v>
       </c>
-      <c r="N15" t="s">
+      <c r="L15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" t="s">
         <v>96</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>252</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>104</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>240</v>
       </c>
       <c r="D16" t="s">
         <v>386</v>
@@ -19777,19 +20428,22 @@
       <c r="J16" t="s">
         <v>83</v>
       </c>
-      <c r="O16" t="s">
+      <c r="L16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16" t="s">
         <v>253</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>75</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>415</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
         <v>387</v>
@@ -19800,16 +20454,16 @@
       <c r="J17" t="s">
         <v>84</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>105</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="D18" t="s">
         <v>427</v>
@@ -19820,13 +20474,13 @@
       <c r="J18" t="s">
         <v>381</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="D19" t="s">
         <v>60</v>
@@ -19837,13 +20491,13 @@
       <c r="J19" t="s">
         <v>491</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>358</v>
+        <v>426</v>
       </c>
       <c r="D20" t="s">
         <v>61</v>
@@ -19854,13 +20508,13 @@
       <c r="J20" t="s">
         <v>44</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>411</v>
+        <v>358</v>
       </c>
       <c r="D21" t="s">
         <v>257</v>
@@ -19871,13 +20525,13 @@
       <c r="J21" t="s">
         <v>406</v>
       </c>
-      <c r="V21" t="s">
-        <v>109</v>
+      <c r="W21" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>411</v>
       </c>
       <c r="D22" t="s">
         <v>62</v>
@@ -19888,13 +20542,13 @@
       <c r="J22" t="s">
         <v>85</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
         <v>322</v>
@@ -19905,13 +20559,13 @@
       <c r="J23" t="s">
         <v>461</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
         <v>63</v>
@@ -19922,13 +20576,13 @@
       <c r="J24" t="s">
         <v>45</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
         <v>468</v>
@@ -19939,13 +20593,13 @@
       <c r="J25" t="s">
         <v>46</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>439</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
         <v>226</v>
@@ -19953,13 +20607,13 @@
       <c r="F26" t="s">
         <v>283</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>228</v>
+        <v>439</v>
       </c>
       <c r="D27" t="s">
         <v>227</v>
@@ -19967,18 +20621,21 @@
       <c r="F27" t="s">
         <v>267</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>228</v>
+      </c>
       <c r="D28" t="s">
         <v>488</v>
       </c>
       <c r="F28" t="s">
         <v>284</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>115</v>
       </c>
     </row>
@@ -19989,7 +20646,7 @@
       <c r="F29" t="s">
         <v>285</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>116</v>
       </c>
     </row>
@@ -20000,7 +20657,7 @@
       <c r="F30" t="s">
         <v>217</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>117</v>
       </c>
     </row>
@@ -20011,7 +20668,7 @@
       <c r="F31" t="s">
         <v>276</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>118</v>
       </c>
     </row>
@@ -20022,7 +20679,7 @@
       <c r="F32" t="s">
         <v>286</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>119</v>
       </c>
     </row>
@@ -20033,7 +20690,7 @@
       <c r="F33" t="s">
         <v>261</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>120</v>
       </c>
     </row>
@@ -20044,7 +20701,7 @@
       <c r="F34" t="s">
         <v>331</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>211</v>
       </c>
     </row>
@@ -20055,7 +20712,7 @@
       <c r="F35" t="s">
         <v>308</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>121</v>
       </c>
     </row>
@@ -20066,7 +20723,7 @@
       <c r="F36" t="s">
         <v>262</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>339</v>
       </c>
     </row>
@@ -20077,7 +20734,7 @@
       <c r="F37" t="s">
         <v>309</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>446</v>
       </c>
     </row>
@@ -20088,7 +20745,7 @@
       <c r="F38" t="s">
         <v>268</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>407</v>
       </c>
     </row>
@@ -20096,7 +20753,7 @@
       <c r="F39" t="s">
         <v>78</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>122</v>
       </c>
     </row>
@@ -20104,7 +20761,7 @@
       <c r="F40" t="s">
         <v>213</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>123</v>
       </c>
     </row>
@@ -20112,7 +20769,7 @@
       <c r="F41" t="s">
         <v>290</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>124</v>
       </c>
     </row>
@@ -20120,7 +20777,7 @@
       <c r="F42" t="s">
         <v>301</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>125</v>
       </c>
     </row>
@@ -20128,7 +20785,7 @@
       <c r="F43" t="s">
         <v>302</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>126</v>
       </c>
     </row>
@@ -20136,7 +20793,7 @@
       <c r="F44" t="s">
         <v>344</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>127</v>
       </c>
     </row>
@@ -20144,7 +20801,7 @@
       <c r="F45" t="s">
         <v>343</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>458</v>
       </c>
     </row>
@@ -20152,7 +20809,7 @@
       <c r="F46" t="s">
         <v>212</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>214</v>
       </c>
     </row>
@@ -20160,7 +20817,7 @@
       <c r="F47" t="s">
         <v>321</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>77</v>
       </c>
     </row>
@@ -20168,7 +20825,7 @@
       <c r="F48" t="s">
         <v>340</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>128</v>
       </c>
     </row>
@@ -20176,7 +20833,7 @@
       <c r="F49" t="s">
         <v>369</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>129</v>
       </c>
     </row>
@@ -20184,7 +20841,7 @@
       <c r="F50" t="s">
         <v>303</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>130</v>
       </c>
     </row>
@@ -20192,470 +20849,485 @@
       <c r="F51" t="s">
         <v>357</v>
       </c>
-      <c r="V51" t="s">
-        <v>485</v>
+      <c r="W51" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>332</v>
       </c>
-      <c r="V52" t="s">
-        <v>131</v>
+      <c r="W52" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>269</v>
       </c>
-      <c r="V53" t="s">
-        <v>347</v>
+      <c r="W53" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>293</v>
       </c>
-      <c r="V54" t="s">
-        <v>480</v>
+      <c r="W54" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>294</v>
       </c>
-      <c r="V55" t="s">
-        <v>132</v>
+      <c r="W55" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>295</v>
       </c>
-      <c r="V56" t="s">
-        <v>133</v>
+      <c r="W56" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>304</v>
       </c>
-      <c r="V57" t="s">
-        <v>134</v>
+      <c r="W57" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>313</v>
       </c>
-      <c r="V58" t="s">
-        <v>135</v>
+      <c r="W58" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>338</v>
       </c>
-      <c r="V59" t="s">
-        <v>136</v>
+      <c r="W59" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>310</v>
       </c>
-      <c r="V60" t="s">
-        <v>137</v>
+      <c r="W60" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>311</v>
       </c>
-      <c r="V61" t="s">
-        <v>138</v>
+      <c r="W61" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>370</v>
       </c>
-      <c r="V62" t="s">
-        <v>457</v>
+      <c r="W62" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>371</v>
       </c>
-      <c r="V63" t="s">
-        <v>215</v>
+      <c r="W63" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>346</v>
       </c>
-      <c r="V64" t="s">
-        <v>390</v>
+      <c r="W64" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>314</v>
       </c>
-      <c r="V65" t="s">
-        <v>463</v>
+      <c r="W65" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>270</v>
       </c>
-      <c r="V66" t="s">
-        <v>139</v>
+      <c r="W66" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>354</v>
       </c>
-      <c r="V67" t="s">
-        <v>140</v>
+      <c r="W67" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>315</v>
       </c>
-      <c r="V68" t="s">
-        <v>141</v>
+      <c r="W68" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>428</v>
       </c>
-      <c r="V69" t="s">
-        <v>142</v>
+      <c r="W69" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>305</v>
       </c>
-      <c r="V70" t="s">
-        <v>198</v>
+      <c r="W70" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>416</v>
       </c>
-      <c r="V71" t="s">
-        <v>199</v>
+      <c r="W71" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>263</v>
       </c>
-      <c r="V72" t="s">
-        <v>475</v>
+      <c r="W72" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>345</v>
       </c>
-      <c r="V73" t="s">
-        <v>490</v>
+      <c r="W73" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>281</v>
       </c>
-      <c r="V74" t="s">
-        <v>143</v>
+      <c r="W74" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>287</v>
       </c>
-      <c r="V75" t="s">
-        <v>144</v>
+      <c r="W75" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>292</v>
       </c>
-      <c r="V76" t="s">
-        <v>145</v>
+      <c r="W76" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>440</v>
       </c>
-      <c r="V77" t="s">
-        <v>146</v>
+      <c r="W77" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>333</v>
       </c>
-      <c r="V78" t="s">
-        <v>147</v>
+      <c r="W78" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>271</v>
       </c>
-      <c r="V79" t="s">
-        <v>200</v>
+      <c r="W79" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>282</v>
       </c>
-      <c r="V80" t="s">
-        <v>201</v>
+      <c r="W80" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>288</v>
       </c>
-      <c r="V81" t="s">
-        <v>474</v>
+      <c r="W81" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>277</v>
       </c>
-      <c r="V82" t="s">
-        <v>202</v>
+      <c r="W82" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>272</v>
       </c>
-      <c r="V83" t="s">
-        <v>203</v>
+      <c r="W83" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>289</v>
       </c>
-      <c r="V84" t="s">
-        <v>216</v>
+      <c r="W84" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>273</v>
       </c>
-      <c r="V85" t="s">
-        <v>148</v>
+      <c r="W85" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>274</v>
       </c>
-      <c r="V86" t="s">
-        <v>204</v>
+      <c r="W86" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>306</v>
       </c>
-      <c r="V87" t="s">
-        <v>454</v>
+      <c r="W87" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>312</v>
       </c>
-      <c r="V88" t="s">
-        <v>456</v>
+      <c r="W88" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>296</v>
       </c>
-      <c r="V89" t="s">
-        <v>205</v>
+      <c r="W89" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>341</v>
       </c>
-      <c r="V90" t="s">
-        <v>206</v>
+      <c r="W90" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>278</v>
       </c>
-      <c r="V91" t="s">
-        <v>207</v>
+      <c r="W91" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>279</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="W94" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="W95" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="119">
-      <c r="V119" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/ws-01.xlsx
+++ b/artifact/script/ws-01.xlsx
@@ -19,38 +19,39 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14303" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15828" uniqueCount="523">
   <si>
     <t>description</t>
   </si>
@@ -1671,13 +1672,64 @@
   <si>
     <t>minify(xml,var)</t>
   </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="468" x14ac:knownFonts="1">
+  <fonts count="516" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4624,8 +4676,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="814">
+  <fills count="895">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9234,8 +9589,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="843">
+  <borders count="927">
     <border>
       <left/>
       <right/>
@@ -17733,6 +18547,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -17740,7 +19400,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="494">
+  <cellXfs count="542">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -19194,52 +20854,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="451" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="452" fillId="789" borderId="822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="822" fillId="789" fontId="452" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="453" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="453" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="454" fillId="792" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="826" fillId="792" fontId="454" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="455" fillId="795" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="795" fontId="455" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="456" fillId="798" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="798" fontId="456" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="457" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="458" fillId="801" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="801" fontId="458" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="459" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="460" fillId="804" borderId="834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="834" fillId="804" fontId="460" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="461" fillId="807" borderId="838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="838" fillId="807" fontId="461" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="462" fillId="810" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="810" fontId="462" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="463" fillId="810" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="810" fontId="463" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="464" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="464" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="465" fillId="813" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="813" fontId="465" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="466" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="466" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="467" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="467" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="850" fillId="816" fontId="468" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="469" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="854" fillId="819" fontId="470" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="822" fontId="471" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="825" fontId="472" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="473" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="828" fontId="474" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="475" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="862" fillId="831" fontId="476" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="866" fillId="834" fontId="477" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="837" fontId="478" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="837" fontId="479" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="480" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="840" fontId="481" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="482" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="483" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="878" fillId="843" fontId="484" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="485" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="882" fillId="846" fontId="486" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="886" fillId="849" fontId="487" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="886" fillId="852" fontId="488" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="489" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="855" fontId="490" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="491" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="890" fillId="858" fontId="492" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="894" fillId="861" fontId="493" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="864" fontId="494" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="864" fontId="495" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="852" fontId="496" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="867" fontId="497" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="852" fontId="498" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="499" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="870" borderId="906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="873" borderId="910" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="876" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="879" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="882" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="885" borderId="918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="888" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="891" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="891" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="894" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -19594,7 +21398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -19616,78 +21420,81 @@
         <v>481</v>
       </c>
       <c r="D1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>348</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>334</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>492</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>197</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>52</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>240</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>53</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>415</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>438</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>426</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>358</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>411</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>54</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>57</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>439</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -19702,79 +21509,82 @@
         <v>482</v>
       </c>
       <c r="D2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E2" t="s">
         <v>58</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>72</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>74</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>469</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>79</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>487</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>316</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>385</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>441</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>497</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>429</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>442</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>254</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>218</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>417</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>445</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>432</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>382</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>412</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>97</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>172</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>177</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>184</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>447</v>
       </c>
-      <c r="AB2" t="s">
-        <v>229</v>
+      <c r="AC2" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="3">
@@ -19788,1546 +21598,1595 @@
         <v>483</v>
       </c>
       <c r="D3" t="s">
+        <v>508</v>
+      </c>
+      <c r="E3" t="s">
         <v>478</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>366</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>88</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>49</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>493</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>350</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>342</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>335</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>86</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>498</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>443</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>241</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>219</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>418</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>433</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>383</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>413</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>98</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>173</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>178</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>365</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>185</v>
       </c>
-      <c r="AB3" t="s">
-        <v>230</v>
+      <c r="AC3" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>506</v>
       </c>
       <c r="B4" t="s">
         <v>375</v>
       </c>
       <c r="D4" t="s">
+        <v>509</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>73</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>388</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>470</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>494</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>351</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>239</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>336</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>499</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>242</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>220</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>419</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>434</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>359</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>414</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>355</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>174</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>179</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>185</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>448</v>
       </c>
-      <c r="AB4" t="s">
-        <v>231</v>
+      <c r="AC4" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>376</v>
       </c>
       <c r="D5" t="s">
+        <v>510</v>
+      </c>
+      <c r="E5" t="s">
         <v>479</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>460</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>337</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>476</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>352</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>484</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>87</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>30</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>243</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>221</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>420</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>435</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>360</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>356</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>175</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>180</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>186</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>449</v>
       </c>
-      <c r="AB5" t="s">
-        <v>232</v>
+      <c r="AC5" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
         <v>377</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>389</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>471</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>349</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>72</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>31</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>244</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>392</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>421</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>362</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>99</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>464</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>181</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>187</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>450</v>
       </c>
-      <c r="AB6" t="s">
-        <v>233</v>
+      <c r="AC6" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>378</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>225</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>367</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>467</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>16</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>316</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>33</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>245</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>431</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>422</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>361</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>100</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>465</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>182</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>188</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>451</v>
       </c>
-      <c r="AB7" t="s">
-        <v>234</v>
+      <c r="AC7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>379</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>319</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>368</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>329</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>80</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>91</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>246</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>423</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>363</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>101</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>176</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>183</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>189</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>452</v>
       </c>
-      <c r="AB8" t="s">
-        <v>235</v>
+      <c r="AC8" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>348</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>380</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>307</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>330</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>38</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>92</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>247</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>424</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>364</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>210</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>190</v>
       </c>
-      <c r="AB9" t="s">
-        <v>504</v>
+      <c r="AC9" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E10" t="s">
         <v>316</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>353</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>472</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>391</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>444</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>248</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>425</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>258</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>191</v>
       </c>
-      <c r="AB10" t="s">
-        <v>505</v>
+      <c r="AC10" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>334</v>
-      </c>
-      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>256</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>275</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>323</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>495</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>93</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>249</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>259</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>260</v>
       </c>
-      <c r="AB11" t="s">
-        <v>236</v>
+      <c r="AC11" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
+        <v>334</v>
+      </c>
+      <c r="E12" t="s">
         <v>320</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>264</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>324</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>42</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>462</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>41</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>250</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>102</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>192</v>
       </c>
-      <c r="AB12" t="s">
-        <v>237</v>
+      <c r="AC12" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>492</v>
-      </c>
-      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
         <v>342</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>317</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>325</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>81</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>496</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>94</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>255</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>327</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>193</v>
       </c>
-      <c r="AB13" t="s">
-        <v>238</v>
+      <c r="AC13" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14" t="s">
+        <v>492</v>
+      </c>
+      <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>265</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>326</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>82</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>95</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>251</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>103</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>194</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" t="s">
         <v>59</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>266</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>477</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="O15" t="s">
-        <v>96</v>
-      </c>
       <c r="P15" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q15" t="s">
         <v>252</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>104</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>195</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>240</v>
-      </c>
-      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" t="s">
         <v>386</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>318</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>83</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>43</v>
       </c>
       <c r="P16" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q16" t="s">
         <v>253</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>75</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>196</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" t="s">
         <v>387</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>89</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>84</v>
       </c>
-      <c r="W17" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z17" t="s">
+      <c r="X17" t="s">
+        <v>522</v>
+      </c>
+      <c r="AA17" t="s">
         <v>486</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>415</v>
-      </c>
-      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
         <v>427</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>90</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>381</v>
       </c>
-      <c r="W18" t="s">
-        <v>106</v>
+      <c r="X18" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>438</v>
-      </c>
-      <c r="D19" t="s">
+        <v>415</v>
+      </c>
+      <c r="E19" t="s">
         <v>60</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>297</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>491</v>
       </c>
-      <c r="W19" t="s">
-        <v>107</v>
+      <c r="X19" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>426</v>
-      </c>
-      <c r="D20" t="s">
+        <v>438</v>
+      </c>
+      <c r="E20" t="s">
         <v>61</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>298</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>44</v>
       </c>
-      <c r="W20" t="s">
-        <v>108</v>
+      <c r="X20" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>358</v>
-      </c>
-      <c r="D21" t="s">
+        <v>426</v>
+      </c>
+      <c r="E21" t="s">
         <v>257</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>299</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>406</v>
       </c>
-      <c r="W21" t="s">
-        <v>500</v>
+      <c r="X21" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>411</v>
-      </c>
-      <c r="D22" t="s">
+        <v>358</v>
+      </c>
+      <c r="E22" t="s">
         <v>62</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>300</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>85</v>
       </c>
-      <c r="W22" t="s">
-        <v>110</v>
+      <c r="X22" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" t="s">
+        <v>411</v>
+      </c>
+      <c r="E23" t="s">
         <v>322</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>291</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>461</v>
       </c>
-      <c r="W23" t="s">
-        <v>111</v>
+      <c r="X23" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" t="s">
         <v>63</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>280</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>45</v>
       </c>
-      <c r="W24" t="s">
-        <v>112</v>
+      <c r="X24" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" t="s">
         <v>468</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>76</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>46</v>
       </c>
-      <c r="W25" t="s">
-        <v>113</v>
+      <c r="X25" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" t="s">
         <v>226</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>283</v>
       </c>
-      <c r="W26" t="s">
-        <v>114</v>
+      <c r="X26" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>439</v>
-      </c>
-      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" t="s">
         <v>227</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>267</v>
       </c>
-      <c r="W27" t="s">
-        <v>328</v>
+      <c r="X27" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>439</v>
+      </c>
+      <c r="E28" t="s">
+        <v>488</v>
+      </c>
+      <c r="G28" t="s">
+        <v>284</v>
+      </c>
+      <c r="X28" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>228</v>
       </c>
-      <c r="D28" t="s">
-        <v>488</v>
-      </c>
-      <c r="F28" t="s">
-        <v>284</v>
-      </c>
-      <c r="W28" t="s">
+      <c r="E29" t="s">
+        <v>489</v>
+      </c>
+      <c r="G29" t="s">
+        <v>285</v>
+      </c>
+      <c r="X29" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29">
-      <c r="D29" t="s">
-        <v>489</v>
-      </c>
-      <c r="F29" t="s">
-        <v>285</v>
-      </c>
-      <c r="W29" t="s">
+    <row r="30">
+      <c r="E30" t="s">
+        <v>437</v>
+      </c>
+      <c r="G30" t="s">
+        <v>217</v>
+      </c>
+      <c r="X30" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="30">
-      <c r="D30" t="s">
-        <v>437</v>
-      </c>
-      <c r="F30" t="s">
-        <v>217</v>
-      </c>
-      <c r="W30" t="s">
+    <row r="31">
+      <c r="E31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" t="s">
+        <v>276</v>
+      </c>
+      <c r="X31" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="31">
-      <c r="D31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" t="s">
-        <v>276</v>
-      </c>
-      <c r="W31" t="s">
+    <row r="32">
+      <c r="E32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" t="s">
+        <v>286</v>
+      </c>
+      <c r="X32" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="32">
-      <c r="D32" t="s">
-        <v>65</v>
-      </c>
-      <c r="F32" t="s">
-        <v>286</v>
-      </c>
-      <c r="W32" t="s">
+    <row r="33">
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" t="s">
+        <v>261</v>
+      </c>
+      <c r="X33" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="33">
-      <c r="D33" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" t="s">
-        <v>261</v>
-      </c>
-      <c r="W33" t="s">
+    <row r="34">
+      <c r="E34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" t="s">
+        <v>331</v>
+      </c>
+      <c r="X34" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="34">
-      <c r="D34" t="s">
-        <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>331</v>
-      </c>
-      <c r="W34" t="s">
+    <row r="35">
+      <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" t="s">
+        <v>308</v>
+      </c>
+      <c r="X35" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="35">
-      <c r="D35" t="s">
-        <v>68</v>
-      </c>
-      <c r="F35" t="s">
-        <v>308</v>
-      </c>
-      <c r="W35" t="s">
+    <row r="36">
+      <c r="E36" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" t="s">
+        <v>262</v>
+      </c>
+      <c r="X36" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="36">
-      <c r="D36" t="s">
-        <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>262</v>
-      </c>
-      <c r="W36" t="s">
+    <row r="37">
+      <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" t="s">
+        <v>309</v>
+      </c>
+      <c r="X37" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="37">
-      <c r="D37" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" t="s">
-        <v>309</v>
-      </c>
-      <c r="W37" t="s">
+    <row r="38">
+      <c r="E38" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" t="s">
+        <v>268</v>
+      </c>
+      <c r="X38" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="38">
-      <c r="D38" t="s">
-        <v>71</v>
-      </c>
-      <c r="F38" t="s">
-        <v>268</v>
-      </c>
-      <c r="W38" t="s">
+    <row r="39">
+      <c r="G39" t="s">
+        <v>78</v>
+      </c>
+      <c r="X39" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="39">
-      <c r="F39" t="s">
-        <v>78</v>
-      </c>
-      <c r="W39" t="s">
+    <row r="40">
+      <c r="G40" t="s">
+        <v>213</v>
+      </c>
+      <c r="X40" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="40">
-      <c r="F40" t="s">
-        <v>213</v>
-      </c>
-      <c r="W40" t="s">
+    <row r="41">
+      <c r="G41" t="s">
+        <v>290</v>
+      </c>
+      <c r="X41" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="41">
-      <c r="F41" t="s">
-        <v>290</v>
-      </c>
-      <c r="W41" t="s">
+    <row r="42">
+      <c r="G42" t="s">
+        <v>301</v>
+      </c>
+      <c r="X42" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="42">
-      <c r="F42" t="s">
-        <v>301</v>
-      </c>
-      <c r="W42" t="s">
+    <row r="43">
+      <c r="G43" t="s">
+        <v>302</v>
+      </c>
+      <c r="X43" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="43">
-      <c r="F43" t="s">
-        <v>302</v>
-      </c>
-      <c r="W43" t="s">
+    <row r="44">
+      <c r="G44" t="s">
+        <v>344</v>
+      </c>
+      <c r="X44" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="44">
-      <c r="F44" t="s">
-        <v>344</v>
-      </c>
-      <c r="W44" t="s">
+    <row r="45">
+      <c r="G45" t="s">
+        <v>343</v>
+      </c>
+      <c r="X45" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="45">
-      <c r="F45" t="s">
-        <v>343</v>
-      </c>
-      <c r="W45" t="s">
+    <row r="46">
+      <c r="G46" t="s">
+        <v>212</v>
+      </c>
+      <c r="X46" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="46">
-      <c r="F46" t="s">
-        <v>212</v>
-      </c>
-      <c r="W46" t="s">
+    <row r="47">
+      <c r="G47" t="s">
+        <v>321</v>
+      </c>
+      <c r="X47" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="47">
-      <c r="F47" t="s">
-        <v>321</v>
-      </c>
-      <c r="W47" t="s">
+    <row r="48">
+      <c r="G48" t="s">
+        <v>340</v>
+      </c>
+      <c r="X48" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="48">
-      <c r="F48" t="s">
-        <v>340</v>
-      </c>
-      <c r="W48" t="s">
+    <row r="49">
+      <c r="G49" t="s">
+        <v>369</v>
+      </c>
+      <c r="X49" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="49">
-      <c r="F49" t="s">
-        <v>369</v>
-      </c>
-      <c r="W49" t="s">
+    <row r="50">
+      <c r="G50" t="s">
+        <v>303</v>
+      </c>
+      <c r="X50" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="50">
-      <c r="F50" t="s">
-        <v>303</v>
-      </c>
-      <c r="W50" t="s">
+    <row r="51">
+      <c r="G51" t="s">
+        <v>357</v>
+      </c>
+      <c r="X51" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="51">
-      <c r="F51" t="s">
-        <v>357</v>
-      </c>
-      <c r="W51" t="s">
+    <row r="52">
+      <c r="G52" t="s">
+        <v>332</v>
+      </c>
+      <c r="X52" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="52">
-      <c r="F52" t="s">
-        <v>332</v>
-      </c>
-      <c r="W52" t="s">
+    <row r="53">
+      <c r="G53" t="s">
+        <v>269</v>
+      </c>
+      <c r="X53" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="53">
-      <c r="F53" t="s">
-        <v>269</v>
-      </c>
-      <c r="W53" t="s">
+    <row r="54">
+      <c r="G54" t="s">
+        <v>293</v>
+      </c>
+      <c r="X54" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="54">
-      <c r="F54" t="s">
-        <v>293</v>
-      </c>
-      <c r="W54" t="s">
+    <row r="55">
+      <c r="G55" t="s">
+        <v>294</v>
+      </c>
+      <c r="X55" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="55">
-      <c r="F55" t="s">
-        <v>294</v>
-      </c>
-      <c r="W55" t="s">
+    <row r="56">
+      <c r="G56" t="s">
+        <v>295</v>
+      </c>
+      <c r="X56" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="56">
-      <c r="F56" t="s">
-        <v>295</v>
-      </c>
-      <c r="W56" t="s">
+    <row r="57">
+      <c r="G57" t="s">
+        <v>304</v>
+      </c>
+      <c r="X57" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="57">
-      <c r="F57" t="s">
-        <v>304</v>
-      </c>
-      <c r="W57" t="s">
+    <row r="58">
+      <c r="G58" t="s">
+        <v>313</v>
+      </c>
+      <c r="X58" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="58">
-      <c r="F58" t="s">
-        <v>313</v>
-      </c>
-      <c r="W58" t="s">
+    <row r="59">
+      <c r="G59" t="s">
+        <v>338</v>
+      </c>
+      <c r="X59" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="59">
-      <c r="F59" t="s">
-        <v>338</v>
-      </c>
-      <c r="W59" t="s">
+    <row r="60">
+      <c r="G60" t="s">
+        <v>310</v>
+      </c>
+      <c r="X60" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="60">
-      <c r="F60" t="s">
-        <v>310</v>
-      </c>
-      <c r="W60" t="s">
+    <row r="61">
+      <c r="G61" t="s">
+        <v>311</v>
+      </c>
+      <c r="X61" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="61">
-      <c r="F61" t="s">
-        <v>311</v>
-      </c>
-      <c r="W61" t="s">
+    <row r="62">
+      <c r="G62" t="s">
+        <v>370</v>
+      </c>
+      <c r="X62" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="62">
-      <c r="F62" t="s">
-        <v>370</v>
-      </c>
-      <c r="W62" t="s">
+    <row r="63">
+      <c r="G63" t="s">
+        <v>371</v>
+      </c>
+      <c r="X63" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="63">
-      <c r="F63" t="s">
-        <v>371</v>
-      </c>
-      <c r="W63" t="s">
+    <row r="64">
+      <c r="G64" t="s">
+        <v>346</v>
+      </c>
+      <c r="X64" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="64">
-      <c r="F64" t="s">
-        <v>346</v>
-      </c>
-      <c r="W64" t="s">
+    <row r="65">
+      <c r="G65" t="s">
+        <v>314</v>
+      </c>
+      <c r="X65" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="65">
-      <c r="F65" t="s">
-        <v>314</v>
-      </c>
-      <c r="W65" t="s">
+    <row r="66">
+      <c r="G66" t="s">
+        <v>270</v>
+      </c>
+      <c r="X66" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="66">
-      <c r="F66" t="s">
-        <v>270</v>
-      </c>
-      <c r="W66" t="s">
+    <row r="67">
+      <c r="G67" t="s">
+        <v>354</v>
+      </c>
+      <c r="X67" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="67">
-      <c r="F67" t="s">
-        <v>354</v>
-      </c>
-      <c r="W67" t="s">
+    <row r="68">
+      <c r="G68" t="s">
+        <v>315</v>
+      </c>
+      <c r="X68" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="68">
-      <c r="F68" t="s">
-        <v>315</v>
-      </c>
-      <c r="W68" t="s">
+    <row r="69">
+      <c r="G69" t="s">
+        <v>428</v>
+      </c>
+      <c r="X69" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="69">
-      <c r="F69" t="s">
-        <v>428</v>
-      </c>
-      <c r="W69" t="s">
+    <row r="70">
+      <c r="G70" t="s">
+        <v>305</v>
+      </c>
+      <c r="X70" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="70">
-      <c r="F70" t="s">
-        <v>305</v>
-      </c>
-      <c r="W70" t="s">
+    <row r="71">
+      <c r="G71" t="s">
+        <v>416</v>
+      </c>
+      <c r="X71" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="71">
-      <c r="F71" t="s">
-        <v>416</v>
-      </c>
-      <c r="W71" t="s">
+    <row r="72">
+      <c r="G72" t="s">
+        <v>263</v>
+      </c>
+      <c r="X72" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="72">
-      <c r="F72" t="s">
-        <v>263</v>
-      </c>
-      <c r="W72" t="s">
+    <row r="73">
+      <c r="G73" t="s">
+        <v>345</v>
+      </c>
+      <c r="X73" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="73">
-      <c r="F73" t="s">
-        <v>345</v>
-      </c>
-      <c r="W73" t="s">
+    <row r="74">
+      <c r="G74" t="s">
+        <v>281</v>
+      </c>
+      <c r="X74" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="74">
-      <c r="F74" t="s">
-        <v>281</v>
-      </c>
-      <c r="W74" t="s">
+    <row r="75">
+      <c r="G75" t="s">
+        <v>287</v>
+      </c>
+      <c r="X75" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="75">
-      <c r="F75" t="s">
-        <v>287</v>
-      </c>
-      <c r="W75" t="s">
+    <row r="76">
+      <c r="G76" t="s">
+        <v>292</v>
+      </c>
+      <c r="X76" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="76">
-      <c r="F76" t="s">
-        <v>292</v>
-      </c>
-      <c r="W76" t="s">
+    <row r="77">
+      <c r="G77" t="s">
+        <v>440</v>
+      </c>
+      <c r="X77" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="77">
-      <c r="F77" t="s">
-        <v>440</v>
-      </c>
-      <c r="W77" t="s">
+    <row r="78">
+      <c r="G78" t="s">
+        <v>333</v>
+      </c>
+      <c r="X78" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="78">
-      <c r="F78" t="s">
-        <v>333</v>
-      </c>
-      <c r="W78" t="s">
+    <row r="79">
+      <c r="G79" t="s">
+        <v>271</v>
+      </c>
+      <c r="X79" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="79">
-      <c r="F79" t="s">
-        <v>271</v>
-      </c>
-      <c r="W79" t="s">
+    <row r="80">
+      <c r="G80" t="s">
+        <v>282</v>
+      </c>
+      <c r="X80" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="G81" t="s">
+        <v>288</v>
+      </c>
+      <c r="X81" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="80">
-      <c r="F80" t="s">
-        <v>282</v>
-      </c>
-      <c r="W80" t="s">
+    <row r="82">
+      <c r="G82" t="s">
+        <v>277</v>
+      </c>
+      <c r="X82" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="81">
-      <c r="F81" t="s">
-        <v>288</v>
-      </c>
-      <c r="W81" t="s">
+    <row r="83">
+      <c r="G83" t="s">
+        <v>272</v>
+      </c>
+      <c r="X83" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="82">
-      <c r="F82" t="s">
-        <v>277</v>
-      </c>
-      <c r="W82" t="s">
+    <row r="84">
+      <c r="G84" t="s">
+        <v>289</v>
+      </c>
+      <c r="X84" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="83">
-      <c r="F83" t="s">
-        <v>272</v>
-      </c>
-      <c r="W83" t="s">
+    <row r="85">
+      <c r="G85" t="s">
+        <v>273</v>
+      </c>
+      <c r="X85" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="84">
-      <c r="F84" t="s">
-        <v>289</v>
-      </c>
-      <c r="W84" t="s">
+    <row r="86">
+      <c r="G86" t="s">
+        <v>274</v>
+      </c>
+      <c r="X86" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="85">
-      <c r="F85" t="s">
-        <v>273</v>
-      </c>
-      <c r="W85" t="s">
+    <row r="87">
+      <c r="G87" t="s">
+        <v>306</v>
+      </c>
+      <c r="X87" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="86">
-      <c r="F86" t="s">
-        <v>274</v>
-      </c>
-      <c r="W86" t="s">
+    <row r="88">
+      <c r="G88" t="s">
+        <v>312</v>
+      </c>
+      <c r="X88" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="87">
-      <c r="F87" t="s">
-        <v>306</v>
-      </c>
-      <c r="W87" t="s">
+    <row r="89">
+      <c r="G89" t="s">
+        <v>296</v>
+      </c>
+      <c r="X89" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="88">
-      <c r="F88" t="s">
-        <v>312</v>
-      </c>
-      <c r="W88" t="s">
+    <row r="90">
+      <c r="G90" t="s">
+        <v>341</v>
+      </c>
+      <c r="X90" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="89">
-      <c r="F89" t="s">
-        <v>296</v>
-      </c>
-      <c r="W89" t="s">
+    <row r="91">
+      <c r="G91" t="s">
+        <v>278</v>
+      </c>
+      <c r="X91" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="90">
-      <c r="F90" t="s">
-        <v>341</v>
-      </c>
-      <c r="W90" t="s">
+    <row r="92">
+      <c r="G92" t="s">
+        <v>279</v>
+      </c>
+      <c r="X92" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="91">
-      <c r="F91" t="s">
-        <v>278</v>
-      </c>
-      <c r="W91" t="s">
+    <row r="93">
+      <c r="X93" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="92">
-      <c r="F92" t="s">
-        <v>279</v>
-      </c>
-      <c r="W92" t="s">
+    <row r="94">
+      <c r="X94" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="93">
-      <c r="W93" t="s">
+    <row r="95">
+      <c r="X95" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="94">
-      <c r="W94" t="s">
+    <row r="96">
+      <c r="X96" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="95">
-      <c r="W95" t="s">
+    <row r="97">
+      <c r="X97" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="96">
-      <c r="W96" t="s">
+    <row r="98">
+      <c r="X98" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="97">
-      <c r="W97" t="s">
+    <row r="99">
+      <c r="X99" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="98">
-      <c r="W98" t="s">
+    <row r="100">
+      <c r="X100" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="99">
-      <c r="W99" t="s">
+    <row r="101">
+      <c r="X101" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="100">
-      <c r="W100" t="s">
+    <row r="102">
+      <c r="X102" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="101">
-      <c r="W101" t="s">
+    <row r="103">
+      <c r="X103" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="102">
-      <c r="W102" t="s">
+    <row r="104">
+      <c r="X104" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="103">
-      <c r="W103" t="s">
+    <row r="105">
+      <c r="X105" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="104">
-      <c r="W104" t="s">
+    <row r="106">
+      <c r="X106" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="105">
-      <c r="W105" t="s">
+    <row r="107">
+      <c r="X107" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="106">
-      <c r="W106" t="s">
+    <row r="108">
+      <c r="X108" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="107">
-      <c r="W107" t="s">
+    <row r="109">
+      <c r="X109" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="108">
-      <c r="W108" t="s">
+    <row r="110">
+      <c r="X110" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="109">
-      <c r="W109" t="s">
+    <row r="111">
+      <c r="X111" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="110">
-      <c r="W110" t="s">
+    <row r="112">
+      <c r="X112" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="111">
-      <c r="W111" t="s">
+    <row r="113">
+      <c r="X113" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="112">
-      <c r="W112" t="s">
+    <row r="114">
+      <c r="X114" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="113">
-      <c r="W113" t="s">
+    <row r="115">
+      <c r="X115" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="114">
-      <c r="W114" t="s">
+    <row r="116">
+      <c r="X116" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="115">
-      <c r="W115" t="s">
+    <row r="117">
+      <c r="X117" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="116">
-      <c r="W116" t="s">
+    <row r="118">
+      <c r="X118" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="117">
-      <c r="W117" t="s">
+    <row r="119">
+      <c r="X119" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="118">
-      <c r="W118" t="s">
+    <row r="120">
+      <c r="X120" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="119">
-      <c r="W119" t="s">
+    <row r="121">
+      <c r="X121" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="120">
-      <c r="W120" t="s">
+    <row r="122">
+      <c r="X122" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="121">
-      <c r="W121" t="s">
+    <row r="123">
+      <c r="X123" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="122">
-      <c r="W122" t="s">
+    <row r="124">
+      <c r="X124" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/ws-01.xlsx
+++ b/artifact/script/ws-01.xlsx
@@ -20,14 +20,14 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$O$2:$O$2</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15828" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16346" uniqueCount="530">
   <si>
     <t>description</t>
   </si>
@@ -1723,13 +1723,34 @@
   <si>
     <t>assertElementsPresent(prefix)</t>
   </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>saveValues(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="516" x14ac:knownFonts="1">
+  <fonts count="532" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4979,8 +5000,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="895">
+  <fills count="922">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10048,8 +10170,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="927">
+  <borders count="955">
     <border>
       <left/>
       <right/>
@@ -19393,6 +19668,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -19400,7 +19957,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="542">
+  <cellXfs count="558">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20998,52 +21555,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="499" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="500" fillId="870" borderId="906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="906" fillId="870" fontId="500" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="501" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="501" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="502" fillId="873" borderId="910" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="910" fillId="873" fontId="502" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="503" fillId="876" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="914" fillId="876" fontId="503" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="504" fillId="879" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="914" fillId="879" fontId="504" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="505" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="505" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="506" fillId="882" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="882" fontId="506" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="507" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="507" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="508" fillId="885" borderId="918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="918" fillId="885" fontId="508" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="509" fillId="888" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="922" fillId="888" fontId="509" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="510" fillId="891" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="891" fontId="510" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="511" fillId="891" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="891" fontId="511" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="512" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="879" fontId="512" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="513" fillId="894" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="894" fontId="513" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="514" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="879" fontId="514" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="515" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="515" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="897" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="900" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="903" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="906" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="912" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="915" borderId="950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="918" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="918" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="529" fillId="921" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -21398,7 +22003,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -21828,6 +22433,9 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
+      <c r="F6" t="s">
+        <v>523</v>
+      </c>
       <c r="G6" t="s">
         <v>389</v>
       </c>
@@ -21950,7 +22558,7 @@
         <v>329</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
+        <v>526</v>
       </c>
       <c r="M8" t="s">
         <v>34</v>
@@ -22003,7 +22611,7 @@
         <v>330</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="M9" t="s">
         <v>35</v>
@@ -22044,7 +22652,7 @@
         <v>472</v>
       </c>
       <c r="K10" t="s">
-        <v>391</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
         <v>36</v>
@@ -22082,7 +22690,7 @@
         <v>323</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>527</v>
       </c>
       <c r="M11" t="s">
         <v>495</v>
@@ -22117,7 +22725,7 @@
         <v>324</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>391</v>
       </c>
       <c r="M12" t="s">
         <v>462</v>
@@ -22152,7 +22760,7 @@
         <v>325</v>
       </c>
       <c r="K13" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
         <v>496</v>
@@ -22187,7 +22795,7 @@
         <v>326</v>
       </c>
       <c r="K14" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="M14" t="s">
         <v>39</v>
@@ -22219,7 +22827,7 @@
         <v>266</v>
       </c>
       <c r="K15" t="s">
-        <v>477</v>
+        <v>528</v>
       </c>
       <c r="M15" t="s">
         <v>40</v>
@@ -22251,7 +22859,7 @@
         <v>318</v>
       </c>
       <c r="K16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M16" t="s">
         <v>43</v>
@@ -22283,7 +22891,7 @@
         <v>89</v>
       </c>
       <c r="K17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="X17" t="s">
         <v>522</v>
@@ -22306,7 +22914,7 @@
         <v>90</v>
       </c>
       <c r="K18" t="s">
-        <v>381</v>
+        <v>477</v>
       </c>
       <c r="X18" t="s">
         <v>105</v>
@@ -22326,7 +22934,7 @@
         <v>297</v>
       </c>
       <c r="K19" t="s">
-        <v>491</v>
+        <v>83</v>
       </c>
       <c r="X19" t="s">
         <v>106</v>
@@ -22346,7 +22954,7 @@
         <v>298</v>
       </c>
       <c r="K20" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="X20" t="s">
         <v>107</v>
@@ -22366,7 +22974,7 @@
         <v>299</v>
       </c>
       <c r="K21" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="X21" t="s">
         <v>108</v>
@@ -22386,7 +22994,7 @@
         <v>300</v>
       </c>
       <c r="K22" t="s">
-        <v>85</v>
+        <v>491</v>
       </c>
       <c r="X22" t="s">
         <v>500</v>
@@ -22403,7 +23011,7 @@
         <v>291</v>
       </c>
       <c r="K23" t="s">
-        <v>461</v>
+        <v>44</v>
       </c>
       <c r="X23" t="s">
         <v>110</v>
@@ -22420,7 +23028,7 @@
         <v>280</v>
       </c>
       <c r="K24" t="s">
-        <v>45</v>
+        <v>406</v>
       </c>
       <c r="X24" t="s">
         <v>111</v>
@@ -22437,7 +23045,7 @@
         <v>76</v>
       </c>
       <c r="K25" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="X25" t="s">
         <v>112</v>
@@ -22453,6 +23061,9 @@
       <c r="G26" t="s">
         <v>283</v>
       </c>
+      <c r="K26" t="s">
+        <v>461</v>
+      </c>
       <c r="X26" t="s">
         <v>113</v>
       </c>
@@ -22467,6 +23078,9 @@
       <c r="G27" t="s">
         <v>267</v>
       </c>
+      <c r="K27" t="s">
+        <v>45</v>
+      </c>
       <c r="X27" t="s">
         <v>114</v>
       </c>
@@ -22481,6 +23095,9 @@
       <c r="G28" t="s">
         <v>284</v>
       </c>
+      <c r="K28" t="s">
+        <v>46</v>
+      </c>
       <c r="X28" t="s">
         <v>328</v>
       </c>
@@ -22537,7 +23154,7 @@
         <v>66</v>
       </c>
       <c r="G33" t="s">
-        <v>261</v>
+        <v>524</v>
       </c>
       <c r="X33" t="s">
         <v>119</v>
@@ -22548,7 +23165,7 @@
         <v>67</v>
       </c>
       <c r="G34" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="X34" t="s">
         <v>120</v>
@@ -22559,7 +23176,7 @@
         <v>68</v>
       </c>
       <c r="G35" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="X35" t="s">
         <v>211</v>
@@ -22570,7 +23187,7 @@
         <v>69</v>
       </c>
       <c r="G36" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="X36" t="s">
         <v>121</v>
@@ -22581,7 +23198,7 @@
         <v>70</v>
       </c>
       <c r="G37" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="X37" t="s">
         <v>339</v>
@@ -22592,7 +23209,7 @@
         <v>71</v>
       </c>
       <c r="G38" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="X38" t="s">
         <v>446</v>
@@ -22600,7 +23217,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="X39" t="s">
         <v>407</v>
@@ -22608,7 +23225,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="X40" t="s">
         <v>122</v>
@@ -22616,7 +23233,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>290</v>
+        <v>213</v>
       </c>
       <c r="X41" t="s">
         <v>123</v>
@@ -22624,7 +23241,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="X42" t="s">
         <v>124</v>
@@ -22632,7 +23249,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X43" t="s">
         <v>125</v>
@@ -22640,7 +23257,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="X44" t="s">
         <v>126</v>
@@ -22648,7 +23265,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="X45" t="s">
         <v>127</v>
@@ -22656,7 +23273,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>212</v>
+        <v>343</v>
       </c>
       <c r="X46" t="s">
         <v>458</v>
@@ -22664,7 +23281,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>321</v>
+        <v>212</v>
       </c>
       <c r="X47" t="s">
         <v>214</v>
@@ -22672,7 +23289,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="X48" t="s">
         <v>77</v>
@@ -22680,7 +23297,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="X49" t="s">
         <v>128</v>
@@ -22688,7 +23305,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="X50" t="s">
         <v>129</v>
@@ -22696,7 +23313,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="X51" t="s">
         <v>130</v>
@@ -22704,7 +23321,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="X52" t="s">
         <v>501</v>
@@ -22712,7 +23329,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="X53" t="s">
         <v>485</v>
@@ -22720,7 +23337,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="X54" t="s">
         <v>131</v>
@@ -22728,7 +23345,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X55" t="s">
         <v>347</v>
@@ -22736,7 +23353,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="X56" t="s">
         <v>480</v>
@@ -22744,7 +23361,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="X57" t="s">
         <v>132</v>
@@ -22752,7 +23369,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="X58" t="s">
         <v>133</v>
@@ -22760,7 +23377,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="X59" t="s">
         <v>134</v>
@@ -22768,7 +23385,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="X60" t="s">
         <v>135</v>
@@ -22776,7 +23393,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="X61" t="s">
         <v>136</v>
@@ -22784,7 +23401,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>370</v>
+        <v>311</v>
       </c>
       <c r="X62" t="s">
         <v>137</v>
@@ -22792,7 +23409,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="X63" t="s">
         <v>138</v>
@@ -22800,7 +23417,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="X64" t="s">
         <v>457</v>
@@ -22808,7 +23425,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="X65" t="s">
         <v>502</v>
@@ -22816,7 +23433,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="X66" t="s">
         <v>215</v>
@@ -22824,7 +23441,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>354</v>
+        <v>270</v>
       </c>
       <c r="X67" t="s">
         <v>390</v>
@@ -22832,7 +23449,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="X68" t="s">
         <v>463</v>
@@ -22840,7 +23457,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>428</v>
+        <v>315</v>
       </c>
       <c r="X69" t="s">
         <v>139</v>
@@ -22848,7 +23465,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>305</v>
+        <v>428</v>
       </c>
       <c r="X70" t="s">
         <v>140</v>
@@ -22856,7 +23473,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>416</v>
+        <v>305</v>
       </c>
       <c r="X71" t="s">
         <v>141</v>
@@ -22864,7 +23481,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>263</v>
+        <v>416</v>
       </c>
       <c r="X72" t="s">
         <v>142</v>
@@ -22872,7 +23489,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>345</v>
+        <v>263</v>
       </c>
       <c r="X73" t="s">
         <v>198</v>
@@ -22880,7 +23497,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>281</v>
+        <v>525</v>
       </c>
       <c r="X74" t="s">
         <v>199</v>
@@ -22888,7 +23505,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>287</v>
+        <v>345</v>
       </c>
       <c r="X75" t="s">
         <v>475</v>
@@ -22896,7 +23513,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="X76" t="s">
         <v>490</v>
@@ -22904,7 +23521,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>440</v>
+        <v>287</v>
       </c>
       <c r="X77" t="s">
         <v>143</v>
@@ -22912,7 +23529,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="X78" t="s">
         <v>144</v>
@@ -22920,7 +23537,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>271</v>
+        <v>440</v>
       </c>
       <c r="X79" t="s">
         <v>145</v>
@@ -22928,7 +23545,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="X80" t="s">
         <v>516</v>
@@ -22936,7 +23553,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="X81" t="s">
         <v>146</v>
@@ -22944,7 +23561,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="X82" t="s">
         <v>147</v>
@@ -22952,7 +23569,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="X83" t="s">
         <v>200</v>
@@ -22960,7 +23577,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="X84" t="s">
         <v>503</v>
@@ -22968,7 +23585,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X85" t="s">
         <v>201</v>
@@ -22976,7 +23593,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="X86" t="s">
         <v>474</v>
@@ -22984,7 +23601,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="X87" t="s">
         <v>202</v>
@@ -22992,7 +23609,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="X88" t="s">
         <v>203</v>
@@ -23000,7 +23617,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="X89" t="s">
         <v>216</v>
@@ -23008,7 +23625,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="X90" t="s">
         <v>148</v>
@@ -23016,7 +23633,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="X91" t="s">
         <v>204</v>
@@ -23024,18 +23641,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>279</v>
+        <v>341</v>
       </c>
       <c r="X92" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>278</v>
+      </c>
       <c r="X93" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>279</v>
+      </c>
       <c r="X94" t="s">
         <v>205</v>
       </c>
@@ -23067,126 +23690,131 @@
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>150</v>
+        <v>529</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>459</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>164</v>
+        <v>459</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="X125" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/ws-01.xlsx
+++ b/artifact/script/ws-01.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16346" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17386" uniqueCount="532">
   <si>
     <t>description</t>
   </si>
@@ -1744,13 +1744,19 @@
   <si>
     <t>saveValues(var,locator)</t>
   </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="532" x14ac:knownFonts="1">
+  <fonts count="564" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5101,8 +5107,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="922">
+  <fills count="982">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10323,8 +10531,348 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="955">
+  <borders count="1011">
     <border>
       <left/>
       <right/>
@@ -19950,6 +20498,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -19957,7 +21069,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="558">
+  <cellXfs count="590">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -21603,52 +22715,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="515" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="516" fillId="897" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="934" fillId="897" fontId="516" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="517" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="517" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="518" fillId="900" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="938" fillId="900" fontId="518" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="519" fillId="903" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="942" fillId="903" fontId="519" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="520" fillId="906" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="942" fillId="906" fontId="520" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="521" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="521" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="522" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="909" fontId="522" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="523" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="523" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="524" fillId="912" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="946" fillId="912" fontId="524" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="525" fillId="915" borderId="950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="950" fillId="915" fontId="525" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="526" fillId="918" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="954" fillId="918" fontId="526" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="527" fillId="918" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="954" fillId="918" fontId="527" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="528" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="906" fontId="528" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="529" fillId="921" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="921" fontId="529" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="530" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="906" fontId="530" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="531" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="531" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="962" fillId="924" fontId="532" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="533" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="966" fillId="927" fontId="534" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="970" fillId="930" fontId="535" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="970" fillId="933" fontId="536" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="537" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="936" fontId="538" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="539" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="974" fillId="939" fontId="540" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="978" fillId="942" fontId="541" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="982" fillId="945" fontId="542" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="982" fillId="945" fontId="543" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="933" fontId="544" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="948" fontId="545" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="933" fontId="546" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="951" fontId="547" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="954" borderId="990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="549" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="957" borderId="994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="551" fillId="960" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="552" fillId="963" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="553" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="966" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="555" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="556" fillId="969" borderId="1002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="557" fillId="972" borderId="1006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="558" fillId="975" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="559" fillId="975" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="963" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="561" fillId="978" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="963" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="563" fillId="981" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -22003,7 +23211,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -23695,126 +24903,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>150</v>
+        <v>530</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>151</v>
+        <v>531</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>152</v>
+        <v>384</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>459</v>
+        <v>162</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>165</v>
+        <v>459</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/ws-01.xlsx
+++ b/artifact/script/ws-01.xlsx
@@ -30,28 +30,29 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17386" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18442" uniqueCount="539">
   <si>
     <t>description</t>
   </si>
@@ -1750,13 +1751,34 @@
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
   </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="564" x14ac:knownFonts="1">
+  <fonts count="596" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5309,8 +5331,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="982">
+  <fills count="1042">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10871,8 +11095,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1011">
+  <borders count="1067">
     <border>
       <left/>
       <right/>
@@ -21062,6 +21626,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -21069,7 +22197,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="590">
+  <cellXfs count="622">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22811,52 +23939,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="951" fontId="547" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="548" fillId="954" borderId="990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="990" fillId="954" fontId="548" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="549" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="549" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="550" fillId="957" borderId="994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="994" fillId="957" fontId="550" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="551" fillId="960" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="998" fillId="960" fontId="551" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="552" fillId="963" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="998" fillId="963" fontId="552" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="553" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="553" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="554" fillId="966" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="966" fontId="554" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="555" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="555" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="556" fillId="969" borderId="1002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1002" fillId="969" fontId="556" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="557" fillId="972" borderId="1006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1006" fillId="972" fontId="557" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="558" fillId="975" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1010" fillId="975" fontId="558" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="559" fillId="975" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1010" fillId="975" fontId="559" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="560" fillId="963" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="963" fontId="560" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="561" fillId="978" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="978" fontId="561" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="562" fillId="963" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="963" fontId="562" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="563" fillId="981" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="981" fontId="563" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1018" fillId="984" fontId="564" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="565" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1022" fillId="987" fontId="566" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1026" fillId="990" fontId="567" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1026" fillId="993" fontId="568" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="569" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="996" fontId="570" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="571" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1030" fillId="999" fontId="572" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1034" fillId="1002" fontId="573" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1038" fillId="1005" fontId="574" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1038" fillId="1005" fontId="575" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="993" fontId="576" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1008" fontId="577" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="993" fontId="578" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1011" fontId="579" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="580" fillId="1014" borderId="1046" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="581" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="582" fillId="1017" borderId="1050" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="583" fillId="1020" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="584" fillId="1023" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="585" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="586" fillId="1026" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="587" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="588" fillId="1029" borderId="1058" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="589" fillId="1032" borderId="1062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="590" fillId="1035" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="591" fillId="1035" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="592" fillId="1023" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="593" fillId="1038" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="594" fillId="1023" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="595" fillId="1041" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -23211,7 +24435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -23263,51 +24487,54 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
+        <v>532</v>
+      </c>
+      <c r="O1" t="s">
         <v>492</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>197</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>240</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>53</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>415</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>438</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>426</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>358</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>411</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>439</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -23352,51 +24579,54 @@
         <v>441</v>
       </c>
       <c r="N2" t="s">
+        <v>533</v>
+      </c>
+      <c r="O2" t="s">
         <v>497</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>429</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>442</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>254</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>218</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>417</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>445</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>432</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>382</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>412</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>97</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>172</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>177</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>184</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>447</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>511</v>
       </c>
     </row>
@@ -23441,45 +24671,48 @@
         <v>86</v>
       </c>
       <c r="N3" t="s">
+        <v>534</v>
+      </c>
+      <c r="O3" t="s">
         <v>498</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>443</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>241</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>219</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>418</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>433</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>383</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>413</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>98</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>173</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>178</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>365</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>185</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -23521,45 +24754,48 @@
         <v>25</v>
       </c>
       <c r="N4" t="s">
+        <v>535</v>
+      </c>
+      <c r="O4" t="s">
         <v>499</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>242</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>220</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>419</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>434</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>359</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>414</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>355</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>174</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>179</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>185</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>448</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -23594,40 +24830,43 @@
       <c r="M5" t="s">
         <v>87</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q5" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>243</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>221</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>420</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>435</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>360</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>356</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>175</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>180</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>186</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>449</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -23659,37 +24898,40 @@
       <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q6" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>244</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>392</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>421</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>362</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>99</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>464</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>181</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>187</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>450</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -23715,37 +24957,40 @@
       <c r="M7" t="s">
         <v>316</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q7" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>245</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>431</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>422</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>361</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>100</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>465</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>182</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>188</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>451</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>233</v>
       </c>
     </row>
@@ -23771,34 +25016,34 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>91</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>246</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>423</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>363</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>101</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>176</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>183</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>189</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>452</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>234</v>
       </c>
     </row>
@@ -23824,25 +25069,25 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>92</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>247</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>424</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>364</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>210</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>190</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>235</v>
       </c>
     </row>
@@ -23865,22 +25110,22 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>444</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>248</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>425</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>258</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>191</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>504</v>
       </c>
     </row>
@@ -23903,19 +25148,19 @@
       <c r="M11" t="s">
         <v>495</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>93</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>249</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>259</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>260</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>512</v>
       </c>
     </row>
@@ -23938,19 +25183,19 @@
       <c r="M12" t="s">
         <v>462</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>250</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>102</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>192</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>513</v>
       </c>
     </row>
@@ -23973,25 +25218,25 @@
       <c r="M13" t="s">
         <v>496</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>94</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>255</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>327</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>193</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>492</v>
+        <v>532</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
@@ -24008,25 +25253,25 @@
       <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>95</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>251</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>103</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>194</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>197</v>
+        <v>492</v>
       </c>
       <c r="E15" t="s">
         <v>59</v>
@@ -24040,25 +25285,25 @@
       <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>520</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>252</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>104</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>195</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>197</v>
       </c>
       <c r="E16" t="s">
         <v>386</v>
@@ -24072,25 +25317,25 @@
       <c r="M16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>521</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>253</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>75</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>196</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>240</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
         <v>387</v>
@@ -24101,19 +25346,19 @@
       <c r="K17" t="s">
         <v>82</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>522</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>486</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>240</v>
       </c>
       <c r="E18" t="s">
         <v>427</v>
@@ -24124,16 +25369,16 @@
       <c r="K18" t="s">
         <v>477</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>105</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>415</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
         <v>60</v>
@@ -24144,16 +25389,16 @@
       <c r="K19" t="s">
         <v>83</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>106</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="E20" t="s">
         <v>61</v>
@@ -24164,16 +25409,16 @@
       <c r="K20" t="s">
         <v>84</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>107</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="E21" t="s">
         <v>257</v>
@@ -24184,16 +25429,16 @@
       <c r="K21" t="s">
         <v>381</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>108</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>358</v>
+        <v>426</v>
       </c>
       <c r="E22" t="s">
         <v>62</v>
@@ -24204,13 +25449,13 @@
       <c r="K22" t="s">
         <v>491</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>411</v>
+        <v>358</v>
       </c>
       <c r="E23" t="s">
         <v>322</v>
@@ -24221,13 +25466,13 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>411</v>
       </c>
       <c r="E24" t="s">
         <v>63</v>
@@ -24238,13 +25483,13 @@
       <c r="K24" t="s">
         <v>406</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
         <v>468</v>
@@ -24255,13 +25500,13 @@
       <c r="K25" t="s">
         <v>85</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
         <v>226</v>
@@ -24272,13 +25517,13 @@
       <c r="K26" t="s">
         <v>461</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
         <v>227</v>
@@ -24289,13 +25534,13 @@
       <c r="K27" t="s">
         <v>45</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>439</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
         <v>488</v>
@@ -24306,13 +25551,13 @@
       <c r="K28" t="s">
         <v>46</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>228</v>
+        <v>439</v>
       </c>
       <c r="E29" t="s">
         <v>489</v>
@@ -24320,18 +25565,21 @@
       <c r="G29" t="s">
         <v>285</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>228</v>
+      </c>
       <c r="E30" t="s">
         <v>437</v>
       </c>
       <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>116</v>
       </c>
     </row>
@@ -24342,7 +25590,7 @@
       <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>117</v>
       </c>
     </row>
@@ -24353,7 +25601,7 @@
       <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>118</v>
       </c>
     </row>
@@ -24364,7 +25612,7 @@
       <c r="G33" t="s">
         <v>524</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>119</v>
       </c>
     </row>
@@ -24375,7 +25623,7 @@
       <c r="G34" t="s">
         <v>261</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>120</v>
       </c>
     </row>
@@ -24386,7 +25634,7 @@
       <c r="G35" t="s">
         <v>331</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>211</v>
       </c>
     </row>
@@ -24397,7 +25645,7 @@
       <c r="G36" t="s">
         <v>308</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>121</v>
       </c>
     </row>
@@ -24408,7 +25656,7 @@
       <c r="G37" t="s">
         <v>262</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>339</v>
       </c>
     </row>
@@ -24419,7 +25667,7 @@
       <c r="G38" t="s">
         <v>309</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>446</v>
       </c>
     </row>
@@ -24427,7 +25675,7 @@
       <c r="G39" t="s">
         <v>268</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>407</v>
       </c>
     </row>
@@ -24435,7 +25683,7 @@
       <c r="G40" t="s">
         <v>78</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>122</v>
       </c>
     </row>
@@ -24443,7 +25691,7 @@
       <c r="G41" t="s">
         <v>213</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>123</v>
       </c>
     </row>
@@ -24451,7 +25699,7 @@
       <c r="G42" t="s">
         <v>290</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>124</v>
       </c>
     </row>
@@ -24459,7 +25707,7 @@
       <c r="G43" t="s">
         <v>301</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>125</v>
       </c>
     </row>
@@ -24467,7 +25715,7 @@
       <c r="G44" t="s">
         <v>302</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>126</v>
       </c>
     </row>
@@ -24475,7 +25723,7 @@
       <c r="G45" t="s">
         <v>344</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>127</v>
       </c>
     </row>
@@ -24483,7 +25731,7 @@
       <c r="G46" t="s">
         <v>343</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>458</v>
       </c>
     </row>
@@ -24491,7 +25739,7 @@
       <c r="G47" t="s">
         <v>212</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>214</v>
       </c>
     </row>
@@ -24499,7 +25747,7 @@
       <c r="G48" t="s">
         <v>321</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>77</v>
       </c>
     </row>
@@ -24507,7 +25755,7 @@
       <c r="G49" t="s">
         <v>340</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>128</v>
       </c>
     </row>
@@ -24515,7 +25763,7 @@
       <c r="G50" t="s">
         <v>369</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>129</v>
       </c>
     </row>
@@ -24523,7 +25771,7 @@
       <c r="G51" t="s">
         <v>303</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>130</v>
       </c>
     </row>
@@ -24531,7 +25779,7 @@
       <c r="G52" t="s">
         <v>357</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>501</v>
       </c>
     </row>
@@ -24539,7 +25787,7 @@
       <c r="G53" t="s">
         <v>332</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>485</v>
       </c>
     </row>
@@ -24547,7 +25795,7 @@
       <c r="G54" t="s">
         <v>269</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>131</v>
       </c>
     </row>
@@ -24555,7 +25803,7 @@
       <c r="G55" t="s">
         <v>293</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>347</v>
       </c>
     </row>
@@ -24563,7 +25811,7 @@
       <c r="G56" t="s">
         <v>294</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>480</v>
       </c>
     </row>
@@ -24571,7 +25819,7 @@
       <c r="G57" t="s">
         <v>295</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>132</v>
       </c>
     </row>
@@ -24579,7 +25827,7 @@
       <c r="G58" t="s">
         <v>304</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>133</v>
       </c>
     </row>
@@ -24587,7 +25835,7 @@
       <c r="G59" t="s">
         <v>313</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>134</v>
       </c>
     </row>
@@ -24595,7 +25843,7 @@
       <c r="G60" t="s">
         <v>338</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>135</v>
       </c>
     </row>
@@ -24603,7 +25851,7 @@
       <c r="G61" t="s">
         <v>310</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>136</v>
       </c>
     </row>
@@ -24611,7 +25859,7 @@
       <c r="G62" t="s">
         <v>311</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>137</v>
       </c>
     </row>
@@ -24619,7 +25867,7 @@
       <c r="G63" t="s">
         <v>370</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>138</v>
       </c>
     </row>
@@ -24627,7 +25875,7 @@
       <c r="G64" t="s">
         <v>371</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>457</v>
       </c>
     </row>
@@ -24635,7 +25883,7 @@
       <c r="G65" t="s">
         <v>346</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>502</v>
       </c>
     </row>
@@ -24643,7 +25891,7 @@
       <c r="G66" t="s">
         <v>314</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>215</v>
       </c>
     </row>
@@ -24651,7 +25899,7 @@
       <c r="G67" t="s">
         <v>270</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>390</v>
       </c>
     </row>
@@ -24659,7 +25907,7 @@
       <c r="G68" t="s">
         <v>354</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>463</v>
       </c>
     </row>
@@ -24667,7 +25915,7 @@
       <c r="G69" t="s">
         <v>315</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>139</v>
       </c>
     </row>
@@ -24675,7 +25923,7 @@
       <c r="G70" t="s">
         <v>428</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>140</v>
       </c>
     </row>
@@ -24683,7 +25931,7 @@
       <c r="G71" t="s">
         <v>305</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>141</v>
       </c>
     </row>
@@ -24691,7 +25939,7 @@
       <c r="G72" t="s">
         <v>416</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>142</v>
       </c>
     </row>
@@ -24699,7 +25947,7 @@
       <c r="G73" t="s">
         <v>263</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>198</v>
       </c>
     </row>
@@ -24707,7 +25955,7 @@
       <c r="G74" t="s">
         <v>525</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>199</v>
       </c>
     </row>
@@ -24715,7 +25963,7 @@
       <c r="G75" t="s">
         <v>345</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>475</v>
       </c>
     </row>
@@ -24723,7 +25971,7 @@
       <c r="G76" t="s">
         <v>281</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>490</v>
       </c>
     </row>
@@ -24731,7 +25979,7 @@
       <c r="G77" t="s">
         <v>287</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>143</v>
       </c>
     </row>
@@ -24739,7 +25987,7 @@
       <c r="G78" t="s">
         <v>292</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>144</v>
       </c>
     </row>
@@ -24747,7 +25995,7 @@
       <c r="G79" t="s">
         <v>440</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>145</v>
       </c>
     </row>
@@ -24755,7 +26003,7 @@
       <c r="G80" t="s">
         <v>333</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>516</v>
       </c>
     </row>
@@ -24763,7 +26011,7 @@
       <c r="G81" t="s">
         <v>271</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>146</v>
       </c>
     </row>
@@ -24771,7 +26019,7 @@
       <c r="G82" t="s">
         <v>282</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>147</v>
       </c>
     </row>
@@ -24779,7 +26027,7 @@
       <c r="G83" t="s">
         <v>288</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>200</v>
       </c>
     </row>
@@ -24787,7 +26035,7 @@
       <c r="G84" t="s">
         <v>277</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>503</v>
       </c>
     </row>
@@ -24795,7 +26043,7 @@
       <c r="G85" t="s">
         <v>272</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>201</v>
       </c>
     </row>
@@ -24803,7 +26051,7 @@
       <c r="G86" t="s">
         <v>289</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>474</v>
       </c>
     </row>
@@ -24811,7 +26059,7 @@
       <c r="G87" t="s">
         <v>273</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>202</v>
       </c>
     </row>
@@ -24819,7 +26067,7 @@
       <c r="G88" t="s">
         <v>274</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>203</v>
       </c>
     </row>
@@ -24827,7 +26075,7 @@
       <c r="G89" t="s">
         <v>306</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>216</v>
       </c>
     </row>
@@ -24835,7 +26083,7 @@
       <c r="G90" t="s">
         <v>312</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>148</v>
       </c>
     </row>
@@ -24843,7 +26091,7 @@
       <c r="G91" t="s">
         <v>296</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>204</v>
       </c>
     </row>
@@ -24851,7 +26099,7 @@
       <c r="G92" t="s">
         <v>341</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>454</v>
       </c>
     </row>
@@ -24859,7 +26107,7 @@
       <c r="G93" t="s">
         <v>278</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>456</v>
       </c>
     </row>
@@ -24867,172 +26115,172 @@
       <c r="G94" t="s">
         <v>279</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/ws-01.xlsx
+++ b/artifact/script/ws-01.xlsx
@@ -27,7 +27,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -52,7 +52,7 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18442" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19505" uniqueCount="543">
   <si>
     <t>description</t>
   </si>
@@ -1772,13 +1772,25 @@
   <si>
     <t>runSQLs(var,sqls)</t>
   </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="596" x14ac:knownFonts="1">
+  <fonts count="628" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5533,8 +5545,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1042">
+  <fills count="1102">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11435,8 +11649,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1067">
+  <borders count="1123">
     <border>
       <left/>
       <right/>
@@ -22190,6 +22744,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -22197,7 +23315,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="622">
+  <cellXfs count="654">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -24035,52 +25153,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1011" fontId="579" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="580" fillId="1014" borderId="1046" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1046" fillId="1014" fontId="580" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="581" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="581" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="582" fillId="1017" borderId="1050" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1050" fillId="1017" fontId="582" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="583" fillId="1020" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1054" fillId="1020" fontId="583" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="584" fillId="1023" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1054" fillId="1023" fontId="584" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="585" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="585" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="586" fillId="1026" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1026" fontId="586" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="587" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="587" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="588" fillId="1029" borderId="1058" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1058" fillId="1029" fontId="588" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="589" fillId="1032" borderId="1062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1062" fillId="1032" fontId="589" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="590" fillId="1035" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1066" fillId="1035" fontId="590" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="591" fillId="1035" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1066" fillId="1035" fontId="591" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="592" fillId="1023" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1023" fontId="592" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="593" fillId="1038" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1038" fontId="593" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="594" fillId="1023" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1023" fontId="594" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="595" fillId="1041" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1041" fontId="595" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1074" fillId="1044" fontId="596" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="597" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1078" fillId="1047" fontId="598" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1082" fillId="1050" fontId="599" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1082" fillId="1053" fontId="600" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="601" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1056" fontId="602" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="603" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1086" fillId="1059" fontId="604" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1090" fillId="1062" fontId="605" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1094" fillId="1065" fontId="606" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1094" fillId="1065" fontId="607" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1053" fontId="608" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1068" fontId="609" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1053" fontId="610" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1071" fontId="611" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="612" fillId="1074" borderId="1102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="613" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="614" fillId="1077" borderId="1106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="615" fillId="1080" borderId="1110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="616" fillId="1083" borderId="1110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="617" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="618" fillId="1086" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="620" fillId="1089" borderId="1114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="621" fillId="1092" borderId="1118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="622" fillId="1095" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="623" fillId="1095" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="624" fillId="1083" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="625" fillId="1098" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="626" fillId="1083" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="627" fillId="1101" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -24831,7 +26045,7 @@
         <v>87</v>
       </c>
       <c r="N5" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -24899,7 +26113,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -24958,7 +26172,7 @@
         <v>316</v>
       </c>
       <c r="N7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -25016,6 +26230,9 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
+      <c r="N8" t="s">
+        <v>536</v>
+      </c>
       <c r="Q8" t="s">
         <v>91</v>
       </c>
@@ -25069,6 +26286,9 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
+      <c r="N9" t="s">
+        <v>537</v>
+      </c>
       <c r="Q9" t="s">
         <v>92</v>
       </c>
@@ -25110,6 +26330,9 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
+      <c r="N10" t="s">
+        <v>538</v>
+      </c>
       <c r="Q10" t="s">
         <v>444</v>
       </c>
@@ -25498,7 +26721,7 @@
         <v>76</v>
       </c>
       <c r="K25" t="s">
-        <v>85</v>
+        <v>542</v>
       </c>
       <c r="Y25" t="s">
         <v>112</v>
@@ -25515,7 +26738,7 @@
         <v>283</v>
       </c>
       <c r="K26" t="s">
-        <v>461</v>
+        <v>85</v>
       </c>
       <c r="Y26" t="s">
         <v>113</v>
@@ -25532,7 +26755,7 @@
         <v>267</v>
       </c>
       <c r="K27" t="s">
-        <v>45</v>
+        <v>461</v>
       </c>
       <c r="Y27" t="s">
         <v>114</v>
@@ -25549,7 +26772,7 @@
         <v>284</v>
       </c>
       <c r="K28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y28" t="s">
         <v>328</v>
@@ -25564,6 +26787,9 @@
       </c>
       <c r="G29" t="s">
         <v>285</v>
+      </c>
+      <c r="K29" t="s">
+        <v>46</v>
       </c>
       <c r="Y29" t="s">
         <v>115</v>

--- a/artifact/script/ws-01.xlsx
+++ b/artifact/script/ws-01.xlsx
@@ -51,8 +51,8 @@
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19505" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20040" uniqueCount="547">
   <si>
     <t>description</t>
   </si>
@@ -1784,13 +1784,25 @@
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="628" x14ac:knownFonts="1">
+  <fonts count="644" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5747,8 +5759,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1102">
+  <fills count="1132">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11989,8 +12102,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1123">
+  <borders count="1151">
     <border>
       <left/>
       <right/>
@@ -23308,6 +23591,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -23315,7 +23880,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="654">
+  <cellXfs count="670">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -25249,52 +25814,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1071" fontId="611" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="612" fillId="1074" borderId="1102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1102" fillId="1074" fontId="612" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="613" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="613" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="614" fillId="1077" borderId="1106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1106" fillId="1077" fontId="614" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="615" fillId="1080" borderId="1110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1110" fillId="1080" fontId="615" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="616" fillId="1083" borderId="1110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1110" fillId="1083" fontId="616" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="617" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="617" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="618" fillId="1086" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1086" fontId="618" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="619" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="619" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="620" fillId="1089" borderId="1114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1114" fillId="1089" fontId="620" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="621" fillId="1092" borderId="1118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1118" fillId="1092" fontId="621" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="622" fillId="1095" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1122" fillId="1095" fontId="622" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="623" fillId="1095" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1122" fillId="1095" fontId="623" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="624" fillId="1083" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1083" fontId="624" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="625" fillId="1098" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1098" fontId="625" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="626" fillId="1083" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1083" fontId="626" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="627" fillId="1101" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1101" fontId="627" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="628" fillId="1104" borderId="1130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="629" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="630" fillId="1107" borderId="1134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="631" fillId="1110" borderId="1138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="632" fillId="1113" borderId="1138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="633" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="634" fillId="1116" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="635" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="636" fillId="1119" borderId="1142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="637" fillId="1122" borderId="1146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="638" fillId="1125" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="639" fillId="1125" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="640" fillId="1113" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="641" fillId="1128" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="642" fillId="1113" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="643" fillId="1131" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -25855,7 +26468,7 @@
         <v>483</v>
       </c>
       <c r="D3" t="s">
-        <v>508</v>
+        <v>543</v>
       </c>
       <c r="E3" t="s">
         <v>478</v>
@@ -25938,7 +26551,7 @@
         <v>375</v>
       </c>
       <c r="D4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -26021,7 +26634,7 @@
         <v>376</v>
       </c>
       <c r="D5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E5" t="s">
         <v>479</v>
@@ -26045,7 +26658,7 @@
         <v>87</v>
       </c>
       <c r="N5" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -26091,6 +26704,9 @@
       <c r="B6" t="s">
         <v>377</v>
       </c>
+      <c r="D6" t="s">
+        <v>510</v>
+      </c>
       <c r="E6" t="s">
         <v>27</v>
       </c>
@@ -26113,7 +26729,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -26172,7 +26788,7 @@
         <v>316</v>
       </c>
       <c r="N7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -26231,7 +26847,7 @@
         <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="Q8" t="s">
         <v>91</v>
@@ -26287,7 +26903,7 @@
         <v>35</v>
       </c>
       <c r="N9" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="Q9" t="s">
         <v>92</v>
@@ -26331,7 +26947,7 @@
         <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Q10" t="s">
         <v>444</v>
@@ -26371,6 +26987,9 @@
       <c r="M11" t="s">
         <v>495</v>
       </c>
+      <c r="N11" t="s">
+        <v>537</v>
+      </c>
       <c r="Q11" t="s">
         <v>93</v>
       </c>
@@ -26406,6 +27025,9 @@
       <c r="M12" t="s">
         <v>462</v>
       </c>
+      <c r="N12" t="s">
+        <v>538</v>
+      </c>
       <c r="Q12" t="s">
         <v>41</v>
       </c>
@@ -26721,7 +27343,7 @@
         <v>76</v>
       </c>
       <c r="K25" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="Y25" t="s">
         <v>112</v>

--- a/artifact/script/ws-01.xlsx
+++ b/artifact/script/ws-01.xlsx
@@ -19,17 +19,17 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -42,11 +42,11 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="sms">'#system'!$U$2:$U$2</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20040" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20597" uniqueCount="570">
   <si>
     <t>description</t>
   </si>
@@ -1796,13 +1796,82 @@
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="644" x14ac:knownFonts="1">
+  <fonts count="660" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5860,8 +5929,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1132">
+  <fills count="1159">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12272,8 +12442,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1151">
+  <borders count="1183">
     <border>
       <left/>
       <right/>
@@ -23873,6 +24196,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -23880,7 +24529,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="670">
+  <cellXfs count="686">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -25862,52 +26511,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1101" fontId="627" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="628" fillId="1104" borderId="1130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1130" fillId="1104" fontId="628" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="629" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="629" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="630" fillId="1107" borderId="1134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1134" fillId="1107" fontId="630" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="631" fillId="1110" borderId="1138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1138" fillId="1110" fontId="631" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="632" fillId="1113" borderId="1138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1138" fillId="1113" fontId="632" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="633" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="633" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="634" fillId="1116" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1116" fontId="634" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="635" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="635" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="636" fillId="1119" borderId="1142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1142" fillId="1119" fontId="636" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="637" fillId="1122" borderId="1146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1146" fillId="1122" fontId="637" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="638" fillId="1125" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1150" fillId="1125" fontId="638" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="639" fillId="1125" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1150" fillId="1125" fontId="639" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="640" fillId="1113" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1113" fontId="640" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="641" fillId="1128" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1128" fontId="641" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="642" fillId="1113" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1113" fontId="642" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="643" fillId="1131" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1131" fontId="643" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="644" fillId="1134" borderId="1158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="645" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="646" fillId="1137" borderId="1162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="647" fillId="1140" borderId="1166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="648" fillId="1143" borderId="1170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="649" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="650" fillId="1146" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="651" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="652" fillId="1149" borderId="1174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="653" fillId="1140" borderId="1178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="654" fillId="1152" borderId="1182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="655" fillId="1152" borderId="1182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="656" fillId="1143" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="657" fillId="1155" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="658" fillId="1143" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="659" fillId="1158" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -26262,7 +26959,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -26643,10 +27340,13 @@
         <v>460</v>
       </c>
       <c r="G5" t="s">
-        <v>337</v>
+        <v>548</v>
       </c>
       <c r="H5" t="s">
         <v>476</v>
+      </c>
+      <c r="I5" t="s">
+        <v>553</v>
       </c>
       <c r="J5" t="s">
         <v>352</v>
@@ -26714,7 +27414,7 @@
         <v>523</v>
       </c>
       <c r="G6" t="s">
-        <v>389</v>
+        <v>337</v>
       </c>
       <c r="H6" t="s">
         <v>471</v>
@@ -26776,11 +27476,14 @@
         <v>225</v>
       </c>
       <c r="G7" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="H7" t="s">
         <v>467</v>
       </c>
+      <c r="J7" t="s">
+        <v>554</v>
+      </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
@@ -26821,7 +27524,7 @@
         <v>451</v>
       </c>
       <c r="AD7" t="s">
-        <v>233</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8">
@@ -26835,7 +27538,7 @@
         <v>319</v>
       </c>
       <c r="G8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H8" t="s">
         <v>329</v>
@@ -26877,7 +27580,7 @@
         <v>452</v>
       </c>
       <c r="AD8" t="s">
-        <v>234</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9">
@@ -26891,7 +27594,7 @@
         <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>307</v>
+        <v>368</v>
       </c>
       <c r="H9" t="s">
         <v>330</v>
@@ -26924,7 +27627,7 @@
         <v>190</v>
       </c>
       <c r="AD9" t="s">
-        <v>235</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10">
@@ -26935,7 +27638,7 @@
         <v>316</v>
       </c>
       <c r="G10" t="s">
-        <v>353</v>
+        <v>307</v>
       </c>
       <c r="H10" t="s">
         <v>472</v>
@@ -26965,7 +27668,7 @@
         <v>191</v>
       </c>
       <c r="AD10" t="s">
-        <v>504</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11">
@@ -26976,7 +27679,7 @@
         <v>256</v>
       </c>
       <c r="G11" t="s">
-        <v>275</v>
+        <v>353</v>
       </c>
       <c r="H11" t="s">
         <v>323</v>
@@ -27003,7 +27706,7 @@
         <v>260</v>
       </c>
       <c r="AD11" t="s">
-        <v>512</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12">
@@ -27014,7 +27717,7 @@
         <v>320</v>
       </c>
       <c r="G12" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="H12" t="s">
         <v>324</v>
@@ -27023,7 +27726,7 @@
         <v>391</v>
       </c>
       <c r="M12" t="s">
-        <v>462</v>
+        <v>555</v>
       </c>
       <c r="N12" t="s">
         <v>538</v>
@@ -27041,7 +27744,7 @@
         <v>192</v>
       </c>
       <c r="AD12" t="s">
-        <v>513</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13">
@@ -27052,7 +27755,7 @@
         <v>342</v>
       </c>
       <c r="G13" t="s">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="H13" t="s">
         <v>325</v>
@@ -27061,7 +27764,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="Q13" t="s">
         <v>94</v>
@@ -27076,7 +27779,7 @@
         <v>193</v>
       </c>
       <c r="AD13" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14">
@@ -27087,7 +27790,7 @@
         <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
       <c r="H14" t="s">
         <v>326</v>
@@ -27096,7 +27799,7 @@
         <v>42</v>
       </c>
       <c r="M14" t="s">
-        <v>39</v>
+        <v>496</v>
       </c>
       <c r="Q14" t="s">
         <v>95</v>
@@ -27111,7 +27814,7 @@
         <v>194</v>
       </c>
       <c r="AD14" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15">
@@ -27122,13 +27825,13 @@
         <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K15" t="s">
         <v>528</v>
       </c>
       <c r="M15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" t="s">
         <v>520</v>
@@ -27143,7 +27846,7 @@
         <v>195</v>
       </c>
       <c r="AD15" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
     </row>
     <row r="16">
@@ -27154,13 +27857,13 @@
         <v>386</v>
       </c>
       <c r="G16" t="s">
-        <v>318</v>
+        <v>266</v>
       </c>
       <c r="K16" t="s">
         <v>81</v>
       </c>
       <c r="M16" t="s">
-        <v>43</v>
+        <v>556</v>
       </c>
       <c r="Q16" t="s">
         <v>521</v>
@@ -27175,7 +27878,7 @@
         <v>196</v>
       </c>
       <c r="AD16" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17">
@@ -27186,11 +27889,14 @@
         <v>387</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>318</v>
       </c>
       <c r="K17" t="s">
         <v>82</v>
       </c>
+      <c r="M17" t="s">
+        <v>40</v>
+      </c>
       <c r="Y17" t="s">
         <v>522</v>
       </c>
@@ -27198,7 +27904,7 @@
         <v>486</v>
       </c>
       <c r="AD17" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="18">
@@ -27209,16 +27915,19 @@
         <v>427</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s">
         <v>477</v>
       </c>
+      <c r="M18" t="s">
+        <v>43</v>
+      </c>
       <c r="Y18" t="s">
         <v>105</v>
       </c>
       <c r="AD18" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19">
@@ -27229,7 +27938,7 @@
         <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>297</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s">
         <v>83</v>
@@ -27238,7 +27947,7 @@
         <v>106</v>
       </c>
       <c r="AD19" t="s">
-        <v>236</v>
+        <v>514</v>
       </c>
     </row>
     <row r="20">
@@ -27249,7 +27958,7 @@
         <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K20" t="s">
         <v>84</v>
@@ -27258,7 +27967,7 @@
         <v>107</v>
       </c>
       <c r="AD20" t="s">
-        <v>237</v>
+        <v>515</v>
       </c>
     </row>
     <row r="21">
@@ -27269,7 +27978,7 @@
         <v>257</v>
       </c>
       <c r="G21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K21" t="s">
         <v>381</v>
@@ -27278,7 +27987,7 @@
         <v>108</v>
       </c>
       <c r="AD21" t="s">
-        <v>238</v>
+        <v>519</v>
       </c>
     </row>
     <row r="22">
@@ -27286,16 +27995,19 @@
         <v>426</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>547</v>
       </c>
       <c r="G22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K22" t="s">
         <v>491</v>
       </c>
       <c r="Y22" t="s">
         <v>500</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="23">
@@ -27303,16 +28015,19 @@
         <v>358</v>
       </c>
       <c r="E23" t="s">
-        <v>322</v>
+        <v>62</v>
       </c>
       <c r="G23" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="K23" t="s">
         <v>44</v>
       </c>
       <c r="Y23" t="s">
         <v>110</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="24">
@@ -27320,16 +28035,19 @@
         <v>411</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>322</v>
       </c>
       <c r="G24" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="K24" t="s">
         <v>406</v>
       </c>
       <c r="Y24" t="s">
-        <v>111</v>
+        <v>557</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="25">
@@ -27337,16 +28055,19 @@
         <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>468</v>
+        <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="K25" t="s">
         <v>544</v>
       </c>
       <c r="Y25" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="26">
@@ -27354,16 +28075,19 @@
         <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>226</v>
+        <v>468</v>
       </c>
       <c r="G26" t="s">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="K26" t="s">
         <v>85</v>
       </c>
       <c r="Y26" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="27">
@@ -27371,16 +28095,19 @@
         <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G27" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="K27" t="s">
         <v>461</v>
       </c>
       <c r="Y27" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="28">
@@ -27388,16 +28115,16 @@
         <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>488</v>
+        <v>227</v>
       </c>
       <c r="G28" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="K28" t="s">
         <v>45</v>
       </c>
       <c r="Y28" t="s">
-        <v>328</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29">
@@ -27405,16 +28132,16 @@
         <v>439</v>
       </c>
       <c r="E29" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K29" t="s">
         <v>46</v>
       </c>
       <c r="Y29" t="s">
-        <v>115</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30">
@@ -27422,713 +28149,763 @@
         <v>228</v>
       </c>
       <c r="E30" t="s">
-        <v>437</v>
+        <v>489</v>
       </c>
       <c r="G30" t="s">
-        <v>217</v>
+        <v>285</v>
       </c>
       <c r="Y30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>64</v>
+        <v>437</v>
       </c>
       <c r="G31" t="s">
-        <v>276</v>
+        <v>217</v>
       </c>
       <c r="Y31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G32" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="Y32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G33" t="s">
-        <v>524</v>
+        <v>286</v>
       </c>
       <c r="Y33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G34" t="s">
-        <v>261</v>
+        <v>524</v>
       </c>
       <c r="Y34" t="s">
-        <v>120</v>
+        <v>558</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G35" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="Y35" t="s">
-        <v>211</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="Y36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G37" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="Y37" t="s">
-        <v>339</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s">
         <v>71</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G39" t="s">
         <v>309</v>
       </c>
-      <c r="Y38" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="G39" t="s">
-        <v>268</v>
-      </c>
       <c r="Y39" t="s">
-        <v>407</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="Y40" t="s">
-        <v>122</v>
+        <v>446</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="Y41" t="s">
-        <v>123</v>
+        <v>559</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>290</v>
+        <v>213</v>
       </c>
       <c r="Y42" t="s">
-        <v>124</v>
+        <v>407</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>301</v>
+        <v>549</v>
       </c>
       <c r="Y43" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="Y44" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>344</v>
+        <v>301</v>
       </c>
       <c r="Y45" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="Y46" t="s">
-        <v>458</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>212</v>
+        <v>344</v>
       </c>
       <c r="Y47" t="s">
-        <v>214</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="Y48" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>340</v>
+        <v>212</v>
       </c>
       <c r="Y49" t="s">
-        <v>128</v>
+        <v>458</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>369</v>
+        <v>321</v>
       </c>
       <c r="Y50" t="s">
-        <v>129</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="Y51" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="Y52" t="s">
-        <v>501</v>
+        <v>560</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="Y53" t="s">
-        <v>485</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>269</v>
+        <v>357</v>
       </c>
       <c r="Y54" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="Y55" t="s">
-        <v>347</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="Y56" t="s">
-        <v>480</v>
+        <v>501</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Y57" t="s">
-        <v>132</v>
+        <v>485</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="Y58" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>313</v>
+        <v>550</v>
       </c>
       <c r="Y59" t="s">
-        <v>134</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="Y60" t="s">
-        <v>135</v>
+        <v>480</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="Y61" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Y62" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="Y63" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>371</v>
+        <v>310</v>
       </c>
       <c r="Y64" t="s">
-        <v>457</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="Y65" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>314</v>
+        <v>370</v>
       </c>
       <c r="Y66" t="s">
-        <v>215</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>270</v>
+        <v>371</v>
       </c>
       <c r="Y67" t="s">
-        <v>390</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="Y68" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Y69" t="s">
-        <v>139</v>
+        <v>502</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>428</v>
+        <v>270</v>
       </c>
       <c r="Y70" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>305</v>
+        <v>551</v>
       </c>
       <c r="Y71" t="s">
-        <v>141</v>
+        <v>390</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>416</v>
+        <v>315</v>
       </c>
       <c r="Y72" t="s">
-        <v>142</v>
+        <v>463</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>263</v>
+        <v>428</v>
       </c>
       <c r="Y73" t="s">
-        <v>198</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>525</v>
+        <v>305</v>
       </c>
       <c r="Y74" t="s">
-        <v>199</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>345</v>
+        <v>416</v>
       </c>
       <c r="Y75" t="s">
-        <v>475</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="Y76" t="s">
-        <v>490</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>287</v>
+        <v>525</v>
       </c>
       <c r="Y77" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>292</v>
+        <v>345</v>
       </c>
       <c r="Y78" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>440</v>
+        <v>281</v>
       </c>
       <c r="Y79" t="s">
-        <v>145</v>
+        <v>475</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>333</v>
+        <v>287</v>
       </c>
       <c r="Y80" t="s">
-        <v>516</v>
+        <v>490</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="Y81" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>282</v>
+        <v>440</v>
       </c>
       <c r="Y82" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>288</v>
+        <v>333</v>
       </c>
       <c r="Y83" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="Y84" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="Y85" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Y86" t="s">
-        <v>474</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Y87" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>274</v>
+        <v>552</v>
       </c>
       <c r="Y88" t="s">
-        <v>203</v>
+        <v>503</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="Y89" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="Y90" t="s">
-        <v>148</v>
+        <v>474</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="Y91" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>341</v>
+        <v>274</v>
       </c>
       <c r="Y92" t="s">
-        <v>454</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="Y93" t="s">
-        <v>456</v>
+        <v>561</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="G96" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="G97" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="G98" t="s">
         <v>279</v>
       </c>
-      <c r="Y94" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="Y96" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="Y97" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="98">
       <c r="Y98" t="s">
-        <v>224</v>
+        <v>454</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>209</v>
+        <v>456</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>529</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>530</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>531</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>384</v>
+        <v>224</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>151</v>
+        <v>209</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>152</v>
+        <v>529</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>153</v>
+        <v>530</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>155</v>
+        <v>531</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>156</v>
+        <v>384</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>459</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>168</v>
+        <v>459</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>170</v>
+        <v>563</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Y128" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Y129" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/ws-01.xlsx
+++ b/artifact/script/ws-01.xlsx
@@ -19,40 +19,41 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20597" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21722" uniqueCount="581">
   <si>
     <t>description</t>
   </si>
@@ -1865,13 +1866,46 @@
   <si>
     <t>storeSoapFaultString(var,xml)</t>
   </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>clearVariables(variables)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="660" x14ac:knownFonts="1">
+  <fonts count="692" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6030,8 +6064,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1159">
+  <fills count="1213">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12595,8 +12831,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1183">
+  <borders count="1247">
     <border>
       <left/>
       <right/>
@@ -24522,6 +25064,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -24529,7 +25723,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="686">
+  <cellXfs count="718">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -26559,52 +27753,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1131" fontId="643" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="644" fillId="1134" borderId="1158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1158" fillId="1134" fontId="644" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="645" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="645" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="646" fillId="1137" borderId="1162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1162" fillId="1137" fontId="646" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="647" fillId="1140" borderId="1166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1166" fillId="1140" fontId="647" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="648" fillId="1143" borderId="1170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1170" fillId="1143" fontId="648" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="649" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="649" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="650" fillId="1146" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1146" fontId="650" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="651" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="651" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="652" fillId="1149" borderId="1174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1174" fillId="1149" fontId="652" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="653" fillId="1140" borderId="1178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1178" fillId="1140" fontId="653" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="654" fillId="1152" borderId="1182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1182" fillId="1152" fontId="654" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="655" fillId="1152" borderId="1182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1182" fillId="1152" fontId="655" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="656" fillId="1143" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1143" fontId="656" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="657" fillId="1155" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1155" fontId="657" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="658" fillId="1143" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1143" fontId="658" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="659" fillId="1158" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1158" fontId="659" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1190" fillId="1161" fontId="660" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="661" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1194" fillId="1164" fontId="662" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1198" fillId="1167" fontId="663" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1202" fillId="1170" fontId="664" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="665" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1173" fontId="666" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="667" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1206" fillId="1176" fontId="668" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1210" fillId="1167" fontId="669" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1214" fillId="1179" fontId="670" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1214" fillId="1179" fontId="671" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1170" fontId="672" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1182" fontId="673" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1170" fontId="674" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1185" fontId="675" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="676" fillId="1188" borderId="1222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="677" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="678" fillId="1191" borderId="1226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="679" fillId="1194" borderId="1230" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="680" fillId="1197" borderId="1234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="681" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="682" fillId="1200" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="683" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="684" fillId="1203" borderId="1238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="685" fillId="1194" borderId="1242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="686" fillId="1206" borderId="1246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="687" fillId="1206" borderId="1246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="688" fillId="1197" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="689" fillId="1209" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="690" fillId="1197" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="691" fillId="1212" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -26959,7 +28249,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -26984,81 +28274,84 @@
         <v>506</v>
       </c>
       <c r="E1" t="s">
+        <v>570</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>348</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>334</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>532</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>492</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>197</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>52</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>240</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>53</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>415</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>438</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>426</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>358</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>411</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>439</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -27076,81 +28369,84 @@
         <v>507</v>
       </c>
       <c r="E2" t="s">
+        <v>571</v>
+      </c>
+      <c r="F2" t="s">
         <v>58</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>72</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>74</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>469</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>79</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>487</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>316</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>385</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>441</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>533</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>497</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>429</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>442</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>254</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>218</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>417</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>445</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>432</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>382</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>412</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>97</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>172</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>177</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>184</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>447</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>511</v>
       </c>
     </row>
@@ -27167,76 +28463,76 @@
       <c r="D3" t="s">
         <v>543</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>478</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>366</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>88</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>49</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>493</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>350</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>342</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>335</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>86</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>534</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>498</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>443</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>241</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>219</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>418</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>433</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>383</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>413</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>98</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>173</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>178</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>365</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>185</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -27250,82 +28546,82 @@
       <c r="D4" t="s">
         <v>508</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>73</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>388</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>470</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>494</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>351</v>
       </c>
-      <c r="K4" t="s">
-        <v>239</v>
-      </c>
       <c r="L4" t="s">
+        <v>579</v>
+      </c>
+      <c r="M4" t="s">
         <v>336</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>535</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>499</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>242</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>220</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>419</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>434</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>359</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>414</v>
       </c>
-      <c r="Y4" t="s">
-        <v>355</v>
-      </c>
       <c r="Z4" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA4" t="s">
         <v>174</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>179</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>185</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>448</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>570</v>
       </c>
       <c r="B5" t="s">
         <v>376</v>
@@ -27333,73 +28629,73 @@
       <c r="D5" t="s">
         <v>509</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>479</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>460</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>548</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>476</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>553</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>352</v>
       </c>
-      <c r="K5" t="s">
-        <v>484</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="L5" t="s">
+        <v>239</v>
+      </c>
+      <c r="N5" t="s">
         <v>87</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>545</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>30</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>243</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>221</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>420</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>435</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>360</v>
       </c>
-      <c r="Y5" t="s">
-        <v>356</v>
-      </c>
       <c r="Z5" t="s">
+        <v>575</v>
+      </c>
+      <c r="AA5" t="s">
         <v>175</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>180</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>186</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>449</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>377</v>
@@ -27407,1505 +28703,1519 @@
       <c r="D6" t="s">
         <v>510</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>523</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>337</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>471</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>349</v>
       </c>
-      <c r="K6" t="s">
-        <v>72</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="L6" t="s">
+        <v>484</v>
+      </c>
+      <c r="N6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>539</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>31</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>244</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>392</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>421</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>362</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>99</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>464</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>181</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>187</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>450</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>378</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>225</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>389</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>467</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>554</v>
       </c>
-      <c r="K7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="L7" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" t="s">
         <v>316</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>540</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>33</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>245</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>431</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>422</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>361</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>100</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>465</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>182</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>188</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>451</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>379</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>319</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>367</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>329</v>
       </c>
-      <c r="K8" t="s">
-        <v>526</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>541</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>91</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>246</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>423</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>363</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>101</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>176</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>183</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>189</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>452</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>380</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>368</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>330</v>
       </c>
-      <c r="K9" t="s">
-        <v>80</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="L9" t="s">
+        <v>526</v>
+      </c>
+      <c r="N9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>546</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>92</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>247</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>424</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>364</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>210</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>190</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>348</v>
-      </c>
-      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>316</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>307</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>472</v>
       </c>
-      <c r="K10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="L10" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>536</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>444</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>248</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>425</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>258</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>191</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>256</v>
-      </c>
-      <c r="G11" t="s">
+        <v>348</v>
+      </c>
+      <c r="F11" t="s">
+        <v>572</v>
+      </c>
+      <c r="H11" t="s">
         <v>353</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>323</v>
       </c>
-      <c r="K11" t="s">
-        <v>527</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="L11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" t="s">
         <v>495</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>537</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>93</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>249</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>259</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>260</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>334</v>
-      </c>
-      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>320</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>275</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>324</v>
       </c>
-      <c r="K12" t="s">
-        <v>391</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="L12" t="s">
+        <v>527</v>
+      </c>
+      <c r="N12" t="s">
         <v>555</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>538</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>41</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>250</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>102</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>192</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
+        <v>334</v>
+      </c>
+      <c r="F13" t="s">
         <v>342</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>264</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>325</v>
       </c>
-      <c r="K13" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="L13" t="s">
+        <v>391</v>
+      </c>
+      <c r="N13" t="s">
         <v>462</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>94</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>255</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>327</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>193</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>532</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>37</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>317</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>326</v>
       </c>
-      <c r="K14" t="s">
-        <v>42</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" t="s">
         <v>496</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>95</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>251</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>103</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>194</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>492</v>
-      </c>
-      <c r="E15" t="s">
+        <v>532</v>
+      </c>
+      <c r="F15" t="s">
         <v>59</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>265</v>
       </c>
-      <c r="K15" t="s">
-        <v>528</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="L15" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>520</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>252</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>104</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>195</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E16" t="s">
+        <v>492</v>
+      </c>
+      <c r="F16" t="s">
         <v>386</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>266</v>
       </c>
-      <c r="K16" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="L16" t="s">
+        <v>528</v>
+      </c>
+      <c r="N16" t="s">
         <v>556</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>521</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>253</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>75</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>196</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17" t="s">
         <v>387</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>318</v>
       </c>
-      <c r="K17" t="s">
-        <v>82</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="L17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N17" t="s">
         <v>40</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>522</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>486</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>240</v>
-      </c>
-      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
         <v>427</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>89</v>
       </c>
-      <c r="K18" t="s">
-        <v>477</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="L18" t="s">
+        <v>82</v>
+      </c>
+      <c r="N18" t="s">
         <v>43</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>105</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" t="s">
+        <v>240</v>
+      </c>
+      <c r="F19" t="s">
+        <v>578</v>
+      </c>
+      <c r="H19" t="s">
         <v>90</v>
       </c>
-      <c r="K19" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y19" t="s">
+      <c r="L19" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z19" t="s">
         <v>106</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>415</v>
-      </c>
-      <c r="E20" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" t="s">
         <v>297</v>
       </c>
-      <c r="K20" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y20" t="s">
+      <c r="L20" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z20" t="s">
         <v>107</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>438</v>
-      </c>
-      <c r="E21" t="s">
-        <v>257</v>
-      </c>
-      <c r="G21" t="s">
+        <v>415</v>
+      </c>
+      <c r="F21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" t="s">
         <v>298</v>
       </c>
-      <c r="K21" t="s">
-        <v>381</v>
-      </c>
-      <c r="Y21" t="s">
+      <c r="L21" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z21" t="s">
         <v>108</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>426</v>
-      </c>
-      <c r="E22" t="s">
-        <v>547</v>
-      </c>
-      <c r="G22" t="s">
+        <v>438</v>
+      </c>
+      <c r="F22" t="s">
+        <v>257</v>
+      </c>
+      <c r="H22" t="s">
         <v>299</v>
       </c>
-      <c r="K22" t="s">
-        <v>491</v>
-      </c>
-      <c r="Y22" t="s">
+      <c r="L22" t="s">
+        <v>574</v>
+      </c>
+      <c r="Z22" t="s">
         <v>500</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>358</v>
-      </c>
-      <c r="E23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" t="s">
+        <v>426</v>
+      </c>
+      <c r="F23" t="s">
+        <v>547</v>
+      </c>
+      <c r="H23" t="s">
         <v>300</v>
       </c>
-      <c r="K23" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y23" t="s">
+      <c r="L23" t="s">
+        <v>491</v>
+      </c>
+      <c r="Z23" t="s">
         <v>110</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>411</v>
-      </c>
-      <c r="E24" t="s">
-        <v>322</v>
-      </c>
-      <c r="G24" t="s">
+        <v>358</v>
+      </c>
+      <c r="F24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" t="s">
         <v>291</v>
       </c>
-      <c r="K24" t="s">
-        <v>406</v>
-      </c>
-      <c r="Y24" t="s">
+      <c r="L24" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z24" t="s">
         <v>557</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" t="s">
+        <v>411</v>
+      </c>
+      <c r="F25" t="s">
+        <v>322</v>
+      </c>
+      <c r="H25" t="s">
         <v>280</v>
       </c>
-      <c r="K25" t="s">
-        <v>544</v>
-      </c>
-      <c r="Y25" t="s">
+      <c r="L25" t="s">
+        <v>406</v>
+      </c>
+      <c r="Z25" t="s">
         <v>111</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" t="s">
-        <v>468</v>
-      </c>
-      <c r="G26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" t="s">
         <v>76</v>
       </c>
-      <c r="K26" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y26" t="s">
+      <c r="L26" t="s">
+        <v>544</v>
+      </c>
+      <c r="Z26" t="s">
         <v>112</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" t="s">
-        <v>226</v>
-      </c>
-      <c r="G27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" t="s">
+        <v>468</v>
+      </c>
+      <c r="H27" t="s">
         <v>283</v>
       </c>
-      <c r="K27" t="s">
-        <v>461</v>
-      </c>
-      <c r="Y27" t="s">
+      <c r="L27" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z27" t="s">
         <v>113</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" t="s">
-        <v>227</v>
-      </c>
-      <c r="G28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" t="s">
+        <v>226</v>
+      </c>
+      <c r="H28" t="s">
         <v>267</v>
       </c>
-      <c r="K28" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y28" t="s">
+      <c r="L28" t="s">
+        <v>461</v>
+      </c>
+      <c r="Z28" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>439</v>
-      </c>
-      <c r="E29" t="s">
-        <v>488</v>
-      </c>
-      <c r="G29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" t="s">
+        <v>227</v>
+      </c>
+      <c r="H29" t="s">
         <v>284</v>
       </c>
-      <c r="K29" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y29" t="s">
+      <c r="L29" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z29" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>439</v>
+      </c>
+      <c r="F30" t="s">
+        <v>488</v>
+      </c>
+      <c r="H30" t="s">
+        <v>285</v>
+      </c>
+      <c r="L30" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>228</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F31" t="s">
         <v>489</v>
       </c>
-      <c r="G30" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="H31" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="F32" t="s">
         <v>437</v>
       </c>
-      <c r="G31" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="E32" t="s">
+      <c r="H32" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="F33" t="s">
         <v>64</v>
       </c>
-      <c r="G32" t="s">
-        <v>276</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="E33" t="s">
+      <c r="H33" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="F34" t="s">
         <v>65</v>
       </c>
-      <c r="G33" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="E34" t="s">
+      <c r="H34" t="s">
+        <v>524</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="F35" t="s">
         <v>66</v>
       </c>
-      <c r="G34" t="s">
-        <v>524</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="E35" t="s">
+      <c r="H35" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="F36" t="s">
         <v>67</v>
       </c>
-      <c r="G35" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="E36" t="s">
+      <c r="H36" t="s">
+        <v>331</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="F37" t="s">
         <v>68</v>
       </c>
-      <c r="G36" t="s">
-        <v>331</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="E37" t="s">
+      <c r="H37" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="F38" t="s">
         <v>69</v>
       </c>
-      <c r="G37" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="E38" t="s">
+      <c r="H38" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="F39" t="s">
         <v>70</v>
       </c>
-      <c r="G38" t="s">
-        <v>262</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="E39" t="s">
+      <c r="H39" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="F40" t="s">
         <v>71</v>
       </c>
-      <c r="G39" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>268</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="Y41" t="s">
-        <v>559</v>
+      <c r="Z41" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>213</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>549</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>290</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>301</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>302</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>344</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>343</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>212</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>321</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>340</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>369</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>303</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>357</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>332</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>269</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>293</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>294</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>550</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>295</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>304</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>313</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>338</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>310</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>311</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>370</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>371</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>346</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>314</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>270</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>551</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>315</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>428</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>305</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>416</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>263</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>525</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>345</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>281</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>287</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>292</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>440</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>333</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>271</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>282</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>288</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>277</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>552</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>272</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>289</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>273</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>274</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>306</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>312</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>296</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>341</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>278</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>279</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/ws-01.xlsx
+++ b/artifact/script/ws-01.xlsx
@@ -19,13 +19,13 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21722" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22852" uniqueCount="584">
   <si>
     <t>description</t>
   </si>
@@ -1899,13 +1899,22 @@
   <si>
     <t>assertAttributeContain(locator,attrName,contains)</t>
   </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="692" x14ac:knownFonts="1">
+  <fonts count="724" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6266,8 +6275,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1213">
+  <fills count="1267">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13137,8 +13348,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1247">
+  <borders count="1311">
     <border>
       <left/>
       <right/>
@@ -25716,6 +26233,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -25723,7 +26892,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="718">
+  <cellXfs count="750">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -27849,52 +29018,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1185" fontId="675" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="676" fillId="1188" borderId="1222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1222" fillId="1188" fontId="676" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="677" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="677" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="678" fillId="1191" borderId="1226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1226" fillId="1191" fontId="678" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="679" fillId="1194" borderId="1230" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1230" fillId="1194" fontId="679" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="680" fillId="1197" borderId="1234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1234" fillId="1197" fontId="680" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="681" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="681" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="682" fillId="1200" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1200" fontId="682" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="683" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="683" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="684" fillId="1203" borderId="1238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1238" fillId="1203" fontId="684" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="685" fillId="1194" borderId="1242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1242" fillId="1194" fontId="685" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="686" fillId="1206" borderId="1246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1246" fillId="1206" fontId="686" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="687" fillId="1206" borderId="1246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1246" fillId="1206" fontId="687" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="688" fillId="1197" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1197" fontId="688" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="689" fillId="1209" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1209" fontId="689" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="690" fillId="1197" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1197" fontId="690" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="691" fillId="1212" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1212" fontId="691" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1254" fillId="1215" fontId="692" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="693" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1258" fillId="1218" fontId="694" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1262" fillId="1221" fontId="695" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1266" fillId="1224" fontId="696" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="697" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1227" fontId="698" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="699" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1270" fillId="1230" fontId="700" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1274" fillId="1221" fontId="701" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1278" fillId="1233" fontId="702" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1278" fillId="1233" fontId="703" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1224" fontId="704" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1236" fontId="705" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1224" fontId="706" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1239" fontId="707" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="708" fillId="1242" borderId="1286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="709" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="710" fillId="1245" borderId="1290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="711" fillId="1248" borderId="1294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="712" fillId="1251" borderId="1298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="713" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="714" fillId="1254" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="715" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="716" fillId="1257" borderId="1302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="717" fillId="1248" borderId="1306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="718" fillId="1260" borderId="1310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="719" fillId="1260" borderId="1310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="720" fillId="1251" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="721" fillId="1263" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="722" fillId="1251" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="723" fillId="1266" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -28249,7 +29514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -28715,6 +29980,9 @@
       <c r="I6" t="s">
         <v>471</v>
       </c>
+      <c r="J6" t="s">
+        <v>581</v>
+      </c>
       <c r="K6" t="s">
         <v>349</v>
       </c>
@@ -29231,7 +30499,7 @@
         <v>240</v>
       </c>
       <c r="F19" t="s">
-        <v>578</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -29251,7 +30519,7 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s">
         <v>297</v>
@@ -29271,7 +30539,7 @@
         <v>415</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>257</v>
       </c>
       <c r="H21" t="s">
         <v>298</v>
@@ -29291,7 +30559,7 @@
         <v>438</v>
       </c>
       <c r="F22" t="s">
-        <v>257</v>
+        <v>547</v>
       </c>
       <c r="H22" t="s">
         <v>299</v>
@@ -29311,7 +30579,7 @@
         <v>426</v>
       </c>
       <c r="F23" t="s">
-        <v>547</v>
+        <v>62</v>
       </c>
       <c r="H23" t="s">
         <v>300</v>
@@ -29331,7 +30599,7 @@
         <v>358</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>322</v>
       </c>
       <c r="H24" t="s">
         <v>291</v>
@@ -29351,7 +30619,7 @@
         <v>411</v>
       </c>
       <c r="F25" t="s">
-        <v>322</v>
+        <v>63</v>
       </c>
       <c r="H25" t="s">
         <v>280</v>
@@ -29371,7 +30639,7 @@
         <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>468</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
@@ -29391,7 +30659,7 @@
         <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>468</v>
+        <v>226</v>
       </c>
       <c r="H27" t="s">
         <v>283</v>
@@ -29411,7 +30679,7 @@
         <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H28" t="s">
         <v>267</v>
@@ -29428,7 +30696,7 @@
         <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>227</v>
+        <v>488</v>
       </c>
       <c r="H29" t="s">
         <v>284</v>
@@ -29445,7 +30713,7 @@
         <v>439</v>
       </c>
       <c r="F30" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H30" t="s">
         <v>285</v>
@@ -29462,7 +30730,7 @@
         <v>228</v>
       </c>
       <c r="F31" t="s">
-        <v>489</v>
+        <v>437</v>
       </c>
       <c r="H31" t="s">
         <v>217</v>
@@ -29473,7 +30741,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>437</v>
+        <v>64</v>
       </c>
       <c r="H32" t="s">
         <v>276</v>
@@ -29484,7 +30752,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H33" t="s">
         <v>286</v>
@@ -29495,7 +30763,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H34" t="s">
         <v>524</v>
@@ -29506,7 +30774,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H35" t="s">
         <v>261</v>
@@ -29517,7 +30785,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H36" t="s">
         <v>331</v>
@@ -29528,7 +30796,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H37" t="s">
         <v>308</v>
@@ -29539,7 +30807,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H38" t="s">
         <v>262</v>
@@ -29550,7 +30818,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H39" t="s">
         <v>309</v>
@@ -29560,9 +30828,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>71</v>
-      </c>
       <c r="H40" t="s">
         <v>268</v>
       </c>
@@ -30036,186 +31301,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>456</v>
+        <v>582</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>205</v>
+        <v>583</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>206</v>
+        <v>456</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>529</v>
+        <v>224</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>577</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>150</v>
+        <v>577</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>151</v>
+        <v>531</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>152</v>
+        <v>384</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>459</v>
+        <v>162</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>563</v>
+        <v>459</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>166</v>
+        <v>563</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/ws-01.xlsx
+++ b/artifact/script/ws-01.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22852" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23417" uniqueCount="584">
   <si>
     <t>description</t>
   </si>
@@ -1914,7 +1914,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="724" x14ac:knownFonts="1">
+  <fonts count="740" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6477,8 +6477,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1267">
+  <fills count="1294">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13654,8 +13755,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1311">
+  <borders count="1343">
     <border>
       <left/>
       <right/>
@@ -26885,6 +27139,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -26892,7 +27472,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="750">
+  <cellXfs count="766">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -29114,52 +29694,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1239" fontId="707" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="708" fillId="1242" borderId="1286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1286" fillId="1242" fontId="708" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="709" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="709" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="710" fillId="1245" borderId="1290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1290" fillId="1245" fontId="710" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="711" fillId="1248" borderId="1294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1294" fillId="1248" fontId="711" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="712" fillId="1251" borderId="1298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1298" fillId="1251" fontId="712" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="713" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="713" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="714" fillId="1254" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1254" fontId="714" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="715" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="715" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="716" fillId="1257" borderId="1302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1302" fillId="1257" fontId="716" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="717" fillId="1248" borderId="1306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1306" fillId="1248" fontId="717" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="718" fillId="1260" borderId="1310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1310" fillId="1260" fontId="718" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="719" fillId="1260" borderId="1310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1310" fillId="1260" fontId="719" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="720" fillId="1251" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1251" fontId="720" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="721" fillId="1263" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1263" fontId="721" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="722" fillId="1251" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1251" fontId="722" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="723" fillId="1266" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1266" fontId="723" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="724" fillId="1269" borderId="1318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="725" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="726" fillId="1272" borderId="1322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="727" fillId="1275" borderId="1326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="728" fillId="1278" borderId="1330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="729" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="730" fillId="1281" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="731" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="732" fillId="1284" borderId="1334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="733" fillId="1275" borderId="1338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="734" fillId="1287" borderId="1342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="735" fillId="1287" borderId="1342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="736" fillId="1278" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="737" fillId="1290" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="738" fillId="1278" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="739" fillId="1293" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/artifact/script/ws-01.xlsx
+++ b/artifact/script/ws-01.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23417" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24547" uniqueCount="584">
   <si>
     <t>description</t>
   </si>
@@ -1914,7 +1914,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="740" x14ac:knownFonts="1">
+  <fonts count="772" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6578,8 +6578,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1294">
+  <fills count="1348">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13908,8 +14110,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1343">
+  <borders count="1407">
     <border>
       <left/>
       <right/>
@@ -27465,6 +27973,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -27472,7 +28632,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="766">
+  <cellXfs count="798">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -29742,52 +30902,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1266" fontId="723" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="724" fillId="1269" borderId="1318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1318" fillId="1269" fontId="724" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="725" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="725" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="726" fillId="1272" borderId="1322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1322" fillId="1272" fontId="726" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="727" fillId="1275" borderId="1326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1326" fillId="1275" fontId="727" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="728" fillId="1278" borderId="1330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1330" fillId="1278" fontId="728" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="729" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="729" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="730" fillId="1281" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1281" fontId="730" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="731" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="731" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="732" fillId="1284" borderId="1334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1334" fillId="1284" fontId="732" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="733" fillId="1275" borderId="1338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1338" fillId="1275" fontId="733" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="734" fillId="1287" borderId="1342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1342" fillId="1287" fontId="734" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="735" fillId="1287" borderId="1342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1342" fillId="1287" fontId="735" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="736" fillId="1278" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1278" fontId="736" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="737" fillId="1290" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1290" fontId="737" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="738" fillId="1278" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1278" fontId="738" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="739" fillId="1293" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1293" fontId="739" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1350" fillId="1296" fontId="740" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="741" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1354" fillId="1299" fontId="742" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1358" fillId="1302" fontId="743" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1362" fillId="1305" fontId="744" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="745" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1308" fontId="746" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="747" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1366" fillId="1311" fontId="748" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1370" fillId="1302" fontId="749" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1374" fillId="1314" fontId="750" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1374" fillId="1314" fontId="751" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1305" fontId="752" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1317" fontId="753" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1305" fontId="754" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1320" fontId="755" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="756" fillId="1323" borderId="1382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="757" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="758" fillId="1326" borderId="1386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="759" fillId="1329" borderId="1390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="760" fillId="1332" borderId="1394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="761" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="762" fillId="1335" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="763" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="764" fillId="1338" borderId="1398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="765" fillId="1329" borderId="1402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="766" fillId="1341" borderId="1406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="767" fillId="1341" borderId="1406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="768" fillId="1332" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="769" fillId="1344" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="770" fillId="1332" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="771" fillId="1347" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
